--- a/Table/Table_xls/f福利奖励/累积登陆礼包.xlsx
+++ b/Table/Table_xls/f福利奖励/累积登陆礼包.xlsx
@@ -424,12 +424,57 @@
         </r>
       </text>
     </comment>
+    <comment ref="FB1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">1=绑定
+0=不绑定
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="FG1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">1=绑定
+0=不绑定
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="FL1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">1=绑定
+0=不绑定
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190">
   <si>
     <t>累积登陆天数</t>
   </si>
@@ -1188,6 +1233,57 @@
     </r>
   </si>
   <si>
+    <t>角色10道具1</t>
+  </si>
+  <si>
+    <t>角色10数量1</t>
+  </si>
+  <si>
+    <t>角色10道具1是否绑定</t>
+  </si>
+  <si>
+    <t>角色10宠物1</t>
+  </si>
+  <si>
+    <t>角色10宠物1是否绑定</t>
+  </si>
+  <si>
+    <t>角色10道具2</t>
+  </si>
+  <si>
+    <t>角色10数量2</t>
+  </si>
+  <si>
+    <t>角色10道具2是否绑定</t>
+  </si>
+  <si>
+    <t>角色10宠物2</t>
+  </si>
+  <si>
+    <t>角色10宠物2是否绑定</t>
+  </si>
+  <si>
+    <t>角色10道具3</t>
+  </si>
+  <si>
+    <t>角色10数量3</t>
+  </si>
+  <si>
+    <t>角色10道具3是否绑定</t>
+  </si>
+  <si>
+    <t>角色10宠物3</t>
+  </si>
+  <si>
+    <t>角色10宠物3是否绑定</t>
+  </si>
+  <si>
+    <t>角色10物品需要包裹格</t>
+  </si>
+  <si>
+    <t>角色10宠物需要包裹格</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -1248,9 +1344,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1270,44 +1366,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1315,7 +1373,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1326,44 +1384,6 @@
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1383,17 +1403,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1407,6 +1418,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1414,9 +1494,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1465,13 +1561,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1483,13 +1597,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1507,7 +1621,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1519,19 +1681,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1543,73 +1717,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1621,31 +1735,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1656,41 +1752,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1709,26 +1770,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1752,6 +1804,50 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -1764,10 +1860,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1776,133 +1872,133 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2304,10 +2400,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:EY19"/>
+  <dimension ref="A1:FP19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="ER1" workbookViewId="0">
+      <selection activeCell="FA1" sqref="FA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="14.25"/>
@@ -2323,7 +2419,7 @@
     <col min="31" max="16358" width="10.2857142857143" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:155">
+    <row r="1" s="1" customFormat="1" spans="1:172">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2789,16 +2885,67 @@
       <c r="EY1" s="4" t="s">
         <v>154</v>
       </c>
+      <c r="EZ1" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="FA1" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="FB1" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="FC1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="FD1" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="FE1" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="FF1" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="FG1" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="FH1" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="FI1" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="FJ1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="FK1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="FL1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="FM1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="FN1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="FO1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="FP1" s="4" t="s">
+        <v>171</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:155">
+    <row r="2" s="1" customFormat="1" spans="1:172">
       <c r="A2" s="2" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -2813,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="I2" s="2">
         <v>1</v>
@@ -2828,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="N2" s="2">
         <v>1</v>
@@ -2849,7 +2996,7 @@
         <v>0</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="U2" s="2">
         <v>1</v>
@@ -2864,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="Z2" s="2">
         <v>1</v>
@@ -2879,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="AE2" s="2">
         <v>1</v>
@@ -2900,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="AL2" s="2">
         <v>1</v>
@@ -2915,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="AQ2" s="2">
         <v>1</v>
@@ -2930,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="AV2" s="2">
         <v>1</v>
@@ -2951,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="BC2" s="2">
         <v>1</v>
@@ -2966,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="BH2" s="2">
         <v>1</v>
@@ -2981,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="BM2" s="2">
         <v>1</v>
@@ -3002,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="BT2" s="2">
         <v>1</v>
@@ -3017,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="BY2" s="2">
         <v>1</v>
@@ -3032,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="CD2" s="2">
         <v>1</v>
@@ -3053,7 +3200,7 @@
         <v>0</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="CK2" s="2">
         <v>1</v>
@@ -3068,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="CP2" s="2">
         <v>1</v>
@@ -3083,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="CU2" s="2">
         <v>1</v>
@@ -3104,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="DB2" s="2">
         <v>1</v>
@@ -3119,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="DG2" s="2">
         <v>1</v>
@@ -3134,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="DL2" s="2">
         <v>1</v>
@@ -3155,7 +3302,7 @@
         <v>0</v>
       </c>
       <c r="DR2" s="2" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="DS2" s="2">
         <v>1</v>
@@ -3170,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="DW2" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="DX2" s="2">
         <v>1</v>
@@ -3185,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="EB2" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="EC2" s="2">
         <v>1</v>
@@ -3206,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="EI2" s="2" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="EJ2" s="2">
         <v>1</v>
@@ -3221,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="EN2" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="EO2" s="2">
         <v>1</v>
@@ -3236,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="ES2" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="ET2" s="2">
         <v>1</v>
@@ -3256,16 +3403,67 @@
       <c r="EY2" s="2">
         <v>0</v>
       </c>
+      <c r="EZ2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="FA2" s="2">
+        <v>1</v>
+      </c>
+      <c r="FB2" s="2">
+        <v>0</v>
+      </c>
+      <c r="FC2" s="2">
+        <v>0</v>
+      </c>
+      <c r="FD2" s="2">
+        <v>0</v>
+      </c>
+      <c r="FE2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="FF2" s="2">
+        <v>1</v>
+      </c>
+      <c r="FG2" s="2">
+        <v>0</v>
+      </c>
+      <c r="FH2" s="2">
+        <v>0</v>
+      </c>
+      <c r="FI2" s="2">
+        <v>0</v>
+      </c>
+      <c r="FJ2" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="FK2" s="2">
+        <v>1</v>
+      </c>
+      <c r="FL2" s="2">
+        <v>1</v>
+      </c>
+      <c r="FM2" s="2">
+        <v>0</v>
+      </c>
+      <c r="FN2" s="2">
+        <v>0</v>
+      </c>
+      <c r="FO2" s="2">
+        <v>3</v>
+      </c>
+      <c r="FP2" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:155">
+    <row r="3" s="1" customFormat="1" spans="1:172">
       <c r="A3" s="2" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
@@ -3280,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
@@ -3295,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="N3" s="2">
         <v>2</v>
@@ -3316,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="U3" s="2">
         <v>2</v>
@@ -3331,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="Z3" s="2">
         <v>1</v>
@@ -3346,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="AE3" s="2">
         <v>2</v>
@@ -3367,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="AL3" s="2">
         <v>2</v>
@@ -3382,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="AP3" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="AQ3" s="2">
         <v>1</v>
@@ -3397,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="AU3" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="AV3" s="2">
         <v>2</v>
@@ -3418,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="BB3" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="BC3" s="2">
         <v>2</v>
@@ -3433,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="BG3" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="BH3" s="2">
         <v>1</v>
@@ -3448,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="BL3" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="BM3" s="2">
         <v>2</v>
@@ -3469,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="BS3" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="BT3" s="2">
         <v>2</v>
@@ -3484,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="BX3" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="BY3" s="2">
         <v>1</v>
@@ -3499,7 +3697,7 @@
         <v>0</v>
       </c>
       <c r="CC3" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="CD3" s="2">
         <v>2</v>
@@ -3520,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="CJ3" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="CK3" s="2">
         <v>2</v>
@@ -3535,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="CO3" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="CP3" s="2">
         <v>1</v>
@@ -3550,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="CT3" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="CU3" s="2">
         <v>2</v>
@@ -3571,7 +3769,7 @@
         <v>0</v>
       </c>
       <c r="DA3" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="DB3" s="2">
         <v>2</v>
@@ -3586,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="DF3" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="DG3" s="2">
         <v>1</v>
@@ -3601,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="DK3" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="DL3" s="2">
         <v>2</v>
@@ -3622,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="DR3" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="DS3" s="2">
         <v>2</v>
@@ -3637,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="DW3" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="DX3" s="2">
         <v>1</v>
@@ -3652,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="EB3" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="EC3" s="2">
         <v>2</v>
@@ -3673,7 +3871,7 @@
         <v>0</v>
       </c>
       <c r="EI3" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="EJ3" s="2">
         <v>2</v>
@@ -3688,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="EN3" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="EO3" s="2">
         <v>1</v>
@@ -3703,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="ES3" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="ET3" s="2">
         <v>2</v>
@@ -3723,16 +3921,67 @@
       <c r="EY3" s="2">
         <v>0</v>
       </c>
+      <c r="EZ3" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="FA3" s="2">
+        <v>2</v>
+      </c>
+      <c r="FB3" s="2">
+        <v>0</v>
+      </c>
+      <c r="FC3" s="2">
+        <v>0</v>
+      </c>
+      <c r="FD3" s="2">
+        <v>0</v>
+      </c>
+      <c r="FE3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="FF3" s="2">
+        <v>1</v>
+      </c>
+      <c r="FG3" s="2">
+        <v>0</v>
+      </c>
+      <c r="FH3" s="2">
+        <v>0</v>
+      </c>
+      <c r="FI3" s="2">
+        <v>0</v>
+      </c>
+      <c r="FJ3" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="FK3" s="2">
+        <v>2</v>
+      </c>
+      <c r="FL3" s="2">
+        <v>1</v>
+      </c>
+      <c r="FM3" s="2">
+        <v>0</v>
+      </c>
+      <c r="FN3" s="2">
+        <v>0</v>
+      </c>
+      <c r="FO3" s="2">
+        <v>3</v>
+      </c>
+      <c r="FP3" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:155">
+    <row r="4" s="1" customFormat="1" spans="1:172">
       <c r="A4" s="2" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>
@@ -3747,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="I4" s="2">
         <v>2</v>
@@ -3762,7 +4011,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="N4" s="2">
         <v>3</v>
@@ -3783,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="U4" s="2">
         <v>3</v>
@@ -3798,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="Z4" s="2">
         <v>2</v>
@@ -3813,7 +4062,7 @@
         <v>0</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="AE4" s="2">
         <v>3</v>
@@ -3834,7 +4083,7 @@
         <v>0</v>
       </c>
       <c r="AK4" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="AL4" s="2">
         <v>3</v>
@@ -3849,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="AP4" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="AQ4" s="2">
         <v>2</v>
@@ -3864,7 +4113,7 @@
         <v>0</v>
       </c>
       <c r="AU4" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="AV4" s="2">
         <v>3</v>
@@ -3885,7 +4134,7 @@
         <v>0</v>
       </c>
       <c r="BB4" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="BC4" s="2">
         <v>3</v>
@@ -3900,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="BG4" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="BH4" s="2">
         <v>2</v>
@@ -3915,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="BL4" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="BM4" s="2">
         <v>3</v>
@@ -3936,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="BS4" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="BT4" s="2">
         <v>3</v>
@@ -3951,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="BX4" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="BY4" s="2">
         <v>2</v>
@@ -3966,7 +4215,7 @@
         <v>0</v>
       </c>
       <c r="CC4" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="CD4" s="2">
         <v>3</v>
@@ -3987,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="CJ4" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="CK4" s="2">
         <v>3</v>
@@ -4002,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="CO4" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="CP4" s="2">
         <v>2</v>
@@ -4017,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="CT4" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="CU4" s="2">
         <v>3</v>
@@ -4038,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="DA4" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="DB4" s="2">
         <v>3</v>
@@ -4053,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="DF4" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="DG4" s="2">
         <v>2</v>
@@ -4068,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="DK4" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="DL4" s="2">
         <v>3</v>
@@ -4089,7 +4338,7 @@
         <v>0</v>
       </c>
       <c r="DR4" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="DS4" s="2">
         <v>3</v>
@@ -4104,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="DW4" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="DX4" s="2">
         <v>2</v>
@@ -4119,7 +4368,7 @@
         <v>0</v>
       </c>
       <c r="EB4" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="EC4" s="2">
         <v>3</v>
@@ -4140,7 +4389,7 @@
         <v>0</v>
       </c>
       <c r="EI4" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="EJ4" s="2">
         <v>3</v>
@@ -4155,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="EN4" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="EO4" s="2">
         <v>2</v>
@@ -4170,7 +4419,7 @@
         <v>0</v>
       </c>
       <c r="ES4" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="ET4" s="2">
         <v>3</v>
@@ -4190,16 +4439,67 @@
       <c r="EY4" s="2">
         <v>0</v>
       </c>
+      <c r="EZ4" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="FA4" s="2">
+        <v>3</v>
+      </c>
+      <c r="FB4" s="2">
+        <v>0</v>
+      </c>
+      <c r="FC4" s="2">
+        <v>0</v>
+      </c>
+      <c r="FD4" s="2">
+        <v>0</v>
+      </c>
+      <c r="FE4" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="FF4" s="2">
+        <v>2</v>
+      </c>
+      <c r="FG4" s="2">
+        <v>0</v>
+      </c>
+      <c r="FH4" s="2">
+        <v>0</v>
+      </c>
+      <c r="FI4" s="2">
+        <v>0</v>
+      </c>
+      <c r="FJ4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="FK4" s="2">
+        <v>3</v>
+      </c>
+      <c r="FL4" s="2">
+        <v>1</v>
+      </c>
+      <c r="FM4" s="2">
+        <v>0</v>
+      </c>
+      <c r="FN4" s="2">
+        <v>0</v>
+      </c>
+      <c r="FO4" s="2">
+        <v>3</v>
+      </c>
+      <c r="FP4" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:155">
+    <row r="5" s="1" customFormat="1" spans="1:172">
       <c r="A5" s="2" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="D5" s="2">
         <v>4</v>
@@ -4214,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="I5" s="2">
         <v>3</v>
@@ -4229,7 +4529,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="N5" s="2">
         <v>4</v>
@@ -4250,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="U5" s="2">
         <v>4</v>
@@ -4265,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="Z5" s="2">
         <v>3</v>
@@ -4280,7 +4580,7 @@
         <v>0</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="AE5" s="2">
         <v>4</v>
@@ -4301,7 +4601,7 @@
         <v>0</v>
       </c>
       <c r="AK5" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="AL5" s="2">
         <v>4</v>
@@ -4316,7 +4616,7 @@
         <v>0</v>
       </c>
       <c r="AP5" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="AQ5" s="2">
         <v>3</v>
@@ -4331,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="AU5" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="AV5" s="2">
         <v>4</v>
@@ -4352,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="BB5" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="BC5" s="2">
         <v>4</v>
@@ -4367,7 +4667,7 @@
         <v>0</v>
       </c>
       <c r="BG5" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="BH5" s="2">
         <v>3</v>
@@ -4382,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="BL5" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="BM5" s="2">
         <v>4</v>
@@ -4403,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="BS5" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="BT5" s="2">
         <v>4</v>
@@ -4418,7 +4718,7 @@
         <v>0</v>
       </c>
       <c r="BX5" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="BY5" s="2">
         <v>3</v>
@@ -4433,7 +4733,7 @@
         <v>0</v>
       </c>
       <c r="CC5" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="CD5" s="2">
         <v>4</v>
@@ -4454,7 +4754,7 @@
         <v>0</v>
       </c>
       <c r="CJ5" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="CK5" s="2">
         <v>4</v>
@@ -4469,7 +4769,7 @@
         <v>0</v>
       </c>
       <c r="CO5" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="CP5" s="2">
         <v>3</v>
@@ -4484,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="CT5" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="CU5" s="2">
         <v>4</v>
@@ -4505,7 +4805,7 @@
         <v>0</v>
       </c>
       <c r="DA5" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="DB5" s="2">
         <v>4</v>
@@ -4520,7 +4820,7 @@
         <v>0</v>
       </c>
       <c r="DF5" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="DG5" s="2">
         <v>3</v>
@@ -4535,7 +4835,7 @@
         <v>0</v>
       </c>
       <c r="DK5" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="DL5" s="2">
         <v>4</v>
@@ -4556,7 +4856,7 @@
         <v>0</v>
       </c>
       <c r="DR5" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="DS5" s="2">
         <v>4</v>
@@ -4571,7 +4871,7 @@
         <v>0</v>
       </c>
       <c r="DW5" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="DX5" s="2">
         <v>3</v>
@@ -4586,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="EB5" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="EC5" s="2">
         <v>4</v>
@@ -4607,7 +4907,7 @@
         <v>0</v>
       </c>
       <c r="EI5" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="EJ5" s="2">
         <v>4</v>
@@ -4622,7 +4922,7 @@
         <v>0</v>
       </c>
       <c r="EN5" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="EO5" s="2">
         <v>3</v>
@@ -4637,7 +4937,7 @@
         <v>0</v>
       </c>
       <c r="ES5" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="ET5" s="2">
         <v>4</v>
@@ -4657,16 +4957,67 @@
       <c r="EY5" s="2">
         <v>0</v>
       </c>
+      <c r="EZ5" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="FA5" s="2">
+        <v>4</v>
+      </c>
+      <c r="FB5" s="2">
+        <v>0</v>
+      </c>
+      <c r="FC5" s="2">
+        <v>0</v>
+      </c>
+      <c r="FD5" s="2">
+        <v>0</v>
+      </c>
+      <c r="FE5" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="FF5" s="2">
+        <v>3</v>
+      </c>
+      <c r="FG5" s="2">
+        <v>0</v>
+      </c>
+      <c r="FH5" s="2">
+        <v>0</v>
+      </c>
+      <c r="FI5" s="2">
+        <v>0</v>
+      </c>
+      <c r="FJ5" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="FK5" s="2">
+        <v>4</v>
+      </c>
+      <c r="FL5" s="2">
+        <v>1</v>
+      </c>
+      <c r="FM5" s="2">
+        <v>0</v>
+      </c>
+      <c r="FN5" s="2">
+        <v>0</v>
+      </c>
+      <c r="FO5" s="2">
+        <v>3</v>
+      </c>
+      <c r="FP5" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:155">
+    <row r="6" s="1" customFormat="1" spans="1:172">
       <c r="A6" s="2" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="D6" s="2">
         <v>5</v>
@@ -4681,7 +5032,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="I6" s="2">
         <v>4</v>
@@ -4696,7 +5047,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="N6" s="2">
         <v>5</v>
@@ -4717,7 +5068,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="U6" s="2">
         <v>5</v>
@@ -4732,7 +5083,7 @@
         <v>0</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="Z6" s="2">
         <v>4</v>
@@ -4747,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="AE6" s="2">
         <v>5</v>
@@ -4768,7 +5119,7 @@
         <v>0</v>
       </c>
       <c r="AK6" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="AL6" s="2">
         <v>5</v>
@@ -4783,7 +5134,7 @@
         <v>0</v>
       </c>
       <c r="AP6" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="AQ6" s="2">
         <v>4</v>
@@ -4798,7 +5149,7 @@
         <v>0</v>
       </c>
       <c r="AU6" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="AV6" s="2">
         <v>5</v>
@@ -4819,7 +5170,7 @@
         <v>0</v>
       </c>
       <c r="BB6" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="BC6" s="2">
         <v>5</v>
@@ -4834,7 +5185,7 @@
         <v>0</v>
       </c>
       <c r="BG6" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="BH6" s="2">
         <v>4</v>
@@ -4849,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="BL6" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="BM6" s="2">
         <v>5</v>
@@ -4870,7 +5221,7 @@
         <v>0</v>
       </c>
       <c r="BS6" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="BT6" s="2">
         <v>5</v>
@@ -4885,7 +5236,7 @@
         <v>0</v>
       </c>
       <c r="BX6" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="BY6" s="2">
         <v>4</v>
@@ -4900,7 +5251,7 @@
         <v>0</v>
       </c>
       <c r="CC6" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="CD6" s="2">
         <v>5</v>
@@ -4921,7 +5272,7 @@
         <v>0</v>
       </c>
       <c r="CJ6" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="CK6" s="2">
         <v>5</v>
@@ -4936,7 +5287,7 @@
         <v>0</v>
       </c>
       <c r="CO6" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="CP6" s="2">
         <v>4</v>
@@ -4951,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="CT6" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="CU6" s="2">
         <v>5</v>
@@ -4972,7 +5323,7 @@
         <v>0</v>
       </c>
       <c r="DA6" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="DB6" s="2">
         <v>5</v>
@@ -4987,7 +5338,7 @@
         <v>0</v>
       </c>
       <c r="DF6" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="DG6" s="2">
         <v>4</v>
@@ -5002,7 +5353,7 @@
         <v>0</v>
       </c>
       <c r="DK6" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="DL6" s="2">
         <v>5</v>
@@ -5023,7 +5374,7 @@
         <v>0</v>
       </c>
       <c r="DR6" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="DS6" s="2">
         <v>5</v>
@@ -5038,7 +5389,7 @@
         <v>0</v>
       </c>
       <c r="DW6" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="DX6" s="2">
         <v>4</v>
@@ -5053,7 +5404,7 @@
         <v>0</v>
       </c>
       <c r="EB6" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="EC6" s="2">
         <v>5</v>
@@ -5074,7 +5425,7 @@
         <v>0</v>
       </c>
       <c r="EI6" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="EJ6" s="2">
         <v>5</v>
@@ -5089,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="EN6" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="EO6" s="2">
         <v>4</v>
@@ -5104,7 +5455,7 @@
         <v>0</v>
       </c>
       <c r="ES6" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="ET6" s="2">
         <v>5</v>
@@ -5124,16 +5475,67 @@
       <c r="EY6" s="2">
         <v>0</v>
       </c>
+      <c r="EZ6" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="FA6" s="2">
+        <v>5</v>
+      </c>
+      <c r="FB6" s="2">
+        <v>0</v>
+      </c>
+      <c r="FC6" s="2">
+        <v>0</v>
+      </c>
+      <c r="FD6" s="2">
+        <v>0</v>
+      </c>
+      <c r="FE6" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="FF6" s="2">
+        <v>4</v>
+      </c>
+      <c r="FG6" s="2">
+        <v>0</v>
+      </c>
+      <c r="FH6" s="2">
+        <v>0</v>
+      </c>
+      <c r="FI6" s="2">
+        <v>0</v>
+      </c>
+      <c r="FJ6" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="FK6" s="2">
+        <v>5</v>
+      </c>
+      <c r="FL6" s="2">
+        <v>1</v>
+      </c>
+      <c r="FM6" s="2">
+        <v>0</v>
+      </c>
+      <c r="FN6" s="2">
+        <v>0</v>
+      </c>
+      <c r="FO6" s="2">
+        <v>3</v>
+      </c>
+      <c r="FP6" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:155">
+    <row r="7" s="1" customFormat="1" spans="1:172">
       <c r="A7" s="2" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="D7" s="2">
         <v>6</v>
@@ -5148,7 +5550,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="I7" s="2">
         <v>5</v>
@@ -5163,7 +5565,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="N7" s="2">
         <v>6</v>
@@ -5184,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="U7" s="2">
         <v>6</v>
@@ -5199,7 +5601,7 @@
         <v>0</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="Z7" s="2">
         <v>5</v>
@@ -5214,7 +5616,7 @@
         <v>0</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="AE7" s="2">
         <v>6</v>
@@ -5235,7 +5637,7 @@
         <v>0</v>
       </c>
       <c r="AK7" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="AL7" s="2">
         <v>6</v>
@@ -5250,7 +5652,7 @@
         <v>0</v>
       </c>
       <c r="AP7" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="AQ7" s="2">
         <v>5</v>
@@ -5265,7 +5667,7 @@
         <v>0</v>
       </c>
       <c r="AU7" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="AV7" s="2">
         <v>6</v>
@@ -5286,7 +5688,7 @@
         <v>0</v>
       </c>
       <c r="BB7" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="BC7" s="2">
         <v>6</v>
@@ -5301,7 +5703,7 @@
         <v>0</v>
       </c>
       <c r="BG7" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="BH7" s="2">
         <v>5</v>
@@ -5316,7 +5718,7 @@
         <v>0</v>
       </c>
       <c r="BL7" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="BM7" s="2">
         <v>6</v>
@@ -5337,7 +5739,7 @@
         <v>0</v>
       </c>
       <c r="BS7" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="BT7" s="2">
         <v>6</v>
@@ -5352,7 +5754,7 @@
         <v>0</v>
       </c>
       <c r="BX7" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="BY7" s="2">
         <v>5</v>
@@ -5367,7 +5769,7 @@
         <v>0</v>
       </c>
       <c r="CC7" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="CD7" s="2">
         <v>6</v>
@@ -5388,7 +5790,7 @@
         <v>0</v>
       </c>
       <c r="CJ7" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="CK7" s="2">
         <v>6</v>
@@ -5403,7 +5805,7 @@
         <v>0</v>
       </c>
       <c r="CO7" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="CP7" s="2">
         <v>5</v>
@@ -5418,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="CT7" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="CU7" s="2">
         <v>6</v>
@@ -5439,7 +5841,7 @@
         <v>0</v>
       </c>
       <c r="DA7" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="DB7" s="2">
         <v>6</v>
@@ -5454,7 +5856,7 @@
         <v>0</v>
       </c>
       <c r="DF7" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="DG7" s="2">
         <v>5</v>
@@ -5469,7 +5871,7 @@
         <v>0</v>
       </c>
       <c r="DK7" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="DL7" s="2">
         <v>6</v>
@@ -5490,7 +5892,7 @@
         <v>0</v>
       </c>
       <c r="DR7" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="DS7" s="2">
         <v>6</v>
@@ -5505,7 +5907,7 @@
         <v>0</v>
       </c>
       <c r="DW7" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="DX7" s="2">
         <v>5</v>
@@ -5520,7 +5922,7 @@
         <v>0</v>
       </c>
       <c r="EB7" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="EC7" s="2">
         <v>6</v>
@@ -5541,7 +5943,7 @@
         <v>0</v>
       </c>
       <c r="EI7" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="EJ7" s="2">
         <v>6</v>
@@ -5556,7 +5958,7 @@
         <v>0</v>
       </c>
       <c r="EN7" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="EO7" s="2">
         <v>5</v>
@@ -5571,7 +5973,7 @@
         <v>0</v>
       </c>
       <c r="ES7" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="ET7" s="2">
         <v>6</v>
@@ -5591,16 +5993,67 @@
       <c r="EY7" s="2">
         <v>0</v>
       </c>
+      <c r="EZ7" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="FA7" s="2">
+        <v>6</v>
+      </c>
+      <c r="FB7" s="2">
+        <v>0</v>
+      </c>
+      <c r="FC7" s="2">
+        <v>0</v>
+      </c>
+      <c r="FD7" s="2">
+        <v>0</v>
+      </c>
+      <c r="FE7" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="FF7" s="2">
+        <v>5</v>
+      </c>
+      <c r="FG7" s="2">
+        <v>0</v>
+      </c>
+      <c r="FH7" s="2">
+        <v>0</v>
+      </c>
+      <c r="FI7" s="2">
+        <v>0</v>
+      </c>
+      <c r="FJ7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="FK7" s="2">
+        <v>6</v>
+      </c>
+      <c r="FL7" s="2">
+        <v>1</v>
+      </c>
+      <c r="FM7" s="2">
+        <v>0</v>
+      </c>
+      <c r="FN7" s="2">
+        <v>0</v>
+      </c>
+      <c r="FO7" s="2">
+        <v>3</v>
+      </c>
+      <c r="FP7" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:155">
+    <row r="8" s="1" customFormat="1" spans="1:172">
       <c r="A8" s="2" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="D8" s="2">
         <v>7</v>
@@ -5615,7 +6068,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="I8" s="2">
         <v>6</v>
@@ -5630,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="N8" s="2">
         <v>7</v>
@@ -5651,7 +6104,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="U8" s="2">
         <v>7</v>
@@ -5666,7 +6119,7 @@
         <v>0</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="Z8" s="2">
         <v>6</v>
@@ -5681,7 +6134,7 @@
         <v>0</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="AE8" s="2">
         <v>7</v>
@@ -5702,7 +6155,7 @@
         <v>0</v>
       </c>
       <c r="AK8" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="AL8" s="2">
         <v>7</v>
@@ -5717,7 +6170,7 @@
         <v>0</v>
       </c>
       <c r="AP8" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="AQ8" s="2">
         <v>6</v>
@@ -5732,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="AU8" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="AV8" s="2">
         <v>7</v>
@@ -5753,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="BB8" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="BC8" s="2">
         <v>7</v>
@@ -5768,7 +6221,7 @@
         <v>0</v>
       </c>
       <c r="BG8" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="BH8" s="2">
         <v>6</v>
@@ -5783,7 +6236,7 @@
         <v>0</v>
       </c>
       <c r="BL8" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="BM8" s="2">
         <v>7</v>
@@ -5804,7 +6257,7 @@
         <v>0</v>
       </c>
       <c r="BS8" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="BT8" s="2">
         <v>7</v>
@@ -5819,7 +6272,7 @@
         <v>0</v>
       </c>
       <c r="BX8" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="BY8" s="2">
         <v>6</v>
@@ -5834,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="CC8" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="CD8" s="2">
         <v>7</v>
@@ -5855,7 +6308,7 @@
         <v>0</v>
       </c>
       <c r="CJ8" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="CK8" s="2">
         <v>7</v>
@@ -5870,7 +6323,7 @@
         <v>0</v>
       </c>
       <c r="CO8" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="CP8" s="2">
         <v>6</v>
@@ -5885,7 +6338,7 @@
         <v>0</v>
       </c>
       <c r="CT8" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="CU8" s="2">
         <v>7</v>
@@ -5906,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="DA8" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="DB8" s="2">
         <v>7</v>
@@ -5921,7 +6374,7 @@
         <v>0</v>
       </c>
       <c r="DF8" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="DG8" s="2">
         <v>6</v>
@@ -5936,7 +6389,7 @@
         <v>0</v>
       </c>
       <c r="DK8" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="DL8" s="2">
         <v>7</v>
@@ -5957,7 +6410,7 @@
         <v>0</v>
       </c>
       <c r="DR8" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="DS8" s="2">
         <v>7</v>
@@ -5972,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="DW8" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="DX8" s="2">
         <v>6</v>
@@ -5987,7 +6440,7 @@
         <v>0</v>
       </c>
       <c r="EB8" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="EC8" s="2">
         <v>7</v>
@@ -6008,7 +6461,7 @@
         <v>0</v>
       </c>
       <c r="EI8" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="EJ8" s="2">
         <v>7</v>
@@ -6023,7 +6476,7 @@
         <v>0</v>
       </c>
       <c r="EN8" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="EO8" s="2">
         <v>6</v>
@@ -6038,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="ES8" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="ET8" s="2">
         <v>7</v>
@@ -6056,6 +6509,57 @@
         <v>3</v>
       </c>
       <c r="EY8" s="2">
+        <v>0</v>
+      </c>
+      <c r="EZ8" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="FA8" s="2">
+        <v>7</v>
+      </c>
+      <c r="FB8" s="2">
+        <v>0</v>
+      </c>
+      <c r="FC8" s="2">
+        <v>0</v>
+      </c>
+      <c r="FD8" s="2">
+        <v>0</v>
+      </c>
+      <c r="FE8" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="FF8" s="2">
+        <v>6</v>
+      </c>
+      <c r="FG8" s="2">
+        <v>0</v>
+      </c>
+      <c r="FH8" s="2">
+        <v>0</v>
+      </c>
+      <c r="FI8" s="2">
+        <v>0</v>
+      </c>
+      <c r="FJ8" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="FK8" s="2">
+        <v>7</v>
+      </c>
+      <c r="FL8" s="2">
+        <v>1</v>
+      </c>
+      <c r="FM8" s="2">
+        <v>0</v>
+      </c>
+      <c r="FN8" s="2">
+        <v>0</v>
+      </c>
+      <c r="FO8" s="2">
+        <v>3</v>
+      </c>
+      <c r="FP8" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Table/Table_xls/f福利奖励/累积登陆礼包.xlsx
+++ b/Table/Table_xls/f福利奖励/累积登陆礼包.xlsx
@@ -1,25 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\外包\我叫MT\project_table\Table\Table_xls\f福利奖励\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A94B5E-2BD6-48E5-A1F4-710D13357EC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>user</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -34,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -49,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -64,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -79,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -94,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0">
+    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -109,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM1" authorId="0">
+    <comment ref="AM1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -124,7 +138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR1" authorId="0">
+    <comment ref="AR1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -139,7 +153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW1" authorId="0">
+    <comment ref="AW1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -154,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BD1" authorId="0">
+    <comment ref="BD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -169,7 +183,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BI1" authorId="0">
+    <comment ref="BI1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -184,7 +198,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BN1" authorId="0">
+    <comment ref="BN1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -199,7 +213,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BU1" authorId="0">
+    <comment ref="BU1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -214,7 +228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BZ1" authorId="0">
+    <comment ref="BZ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -229,7 +243,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CE1" authorId="0">
+    <comment ref="CE1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -244,7 +258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CL1" authorId="0">
+    <comment ref="CL1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -259,7 +273,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CQ1" authorId="0">
+    <comment ref="CQ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -274,7 +288,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CV1" authorId="0">
+    <comment ref="CV1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -289,7 +303,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DC1" authorId="0">
+    <comment ref="DC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -304,7 +318,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DH1" authorId="0">
+    <comment ref="DH1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -319,7 +333,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DM1" authorId="0">
+    <comment ref="DM1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -334,7 +348,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DT1" authorId="0">
+    <comment ref="DT1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -349,7 +363,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DY1" authorId="0">
+    <comment ref="DY1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -364,7 +378,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="ED1" authorId="0">
+    <comment ref="ED1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -379,7 +393,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="EK1" authorId="0">
+    <comment ref="EK1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -394,7 +408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="EP1" authorId="0">
+    <comment ref="EP1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -409,7 +423,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="EU1" authorId="0">
+    <comment ref="EU1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -424,7 +438,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FB1" authorId="0">
+    <comment ref="FB1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -439,7 +453,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FG1" authorId="0">
+    <comment ref="FG1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -454,7 +468,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FL1" authorId="0">
+    <comment ref="FL1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -474,7 +488,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="326">
   <si>
     <t>累积登陆天数</t>
   </si>
@@ -524,7 +538,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ID1</t>
     </r>
@@ -540,7 +554,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -558,7 +572,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ID1</t>
     </r>
@@ -574,7 +588,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -601,7 +615,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ID1</t>
     </r>
@@ -627,7 +641,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ID1</t>
     </r>
@@ -701,7 +715,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ID2</t>
     </r>
@@ -775,7 +789,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ID3</t>
     </r>
@@ -849,7 +863,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ID4</t>
     </r>
@@ -923,7 +937,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ID5</t>
     </r>
@@ -997,7 +1011,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ID6</t>
     </r>
@@ -1071,7 +1085,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ID7</t>
     </r>
@@ -1145,7 +1159,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ID8</t>
     </r>
@@ -1219,7 +1233,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ID9</t>
     </r>
@@ -1337,18 +1351,420 @@
   <si>
     <t>set:jiangli image:di7tian</t>
   </si>
+  <si>
+    <t>角色11物品需要包裹格</t>
+  </si>
+  <si>
+    <t>角色11宠物需要包裹格</t>
+  </si>
+  <si>
+    <t>角色11道具1</t>
+  </si>
+  <si>
+    <t>角色11数量1</t>
+  </si>
+  <si>
+    <t>角色11道具1是否绑定</t>
+  </si>
+  <si>
+    <t>角色11宠物1</t>
+  </si>
+  <si>
+    <t>角色11宠物1是否绑定</t>
+  </si>
+  <si>
+    <t>角色11道具2</t>
+  </si>
+  <si>
+    <t>角色11数量2</t>
+  </si>
+  <si>
+    <t>角色11道具2是否绑定</t>
+  </si>
+  <si>
+    <t>角色11宠物2</t>
+  </si>
+  <si>
+    <t>角色11宠物2是否绑定</t>
+  </si>
+  <si>
+    <t>角色11道具3</t>
+  </si>
+  <si>
+    <t>角色11数量3</t>
+  </si>
+  <si>
+    <t>角色11道具3是否绑定</t>
+  </si>
+  <si>
+    <t>角色11宠物3</t>
+  </si>
+  <si>
+    <t>角色11宠物3是否绑定</t>
+  </si>
+  <si>
+    <t>角色12道具1</t>
+  </si>
+  <si>
+    <t>角色12数量1</t>
+  </si>
+  <si>
+    <t>角色12道具1是否绑定</t>
+  </si>
+  <si>
+    <t>角色12宠物1</t>
+  </si>
+  <si>
+    <t>角色12宠物1是否绑定</t>
+  </si>
+  <si>
+    <t>角色12道具2</t>
+  </si>
+  <si>
+    <t>角色12数量2</t>
+  </si>
+  <si>
+    <t>角色12道具2是否绑定</t>
+  </si>
+  <si>
+    <t>角色12宠物2</t>
+  </si>
+  <si>
+    <t>角色12宠物2是否绑定</t>
+  </si>
+  <si>
+    <t>角色12道具3</t>
+  </si>
+  <si>
+    <t>角色12数量3</t>
+  </si>
+  <si>
+    <t>角色12道具3是否绑定</t>
+  </si>
+  <si>
+    <t>角色12宠物3</t>
+  </si>
+  <si>
+    <t>角色12宠物3是否绑定</t>
+  </si>
+  <si>
+    <t>角色12物品需要包裹格</t>
+  </si>
+  <si>
+    <t>角色12宠物需要包裹格</t>
+  </si>
+  <si>
+    <t>角色13道具1</t>
+  </si>
+  <si>
+    <t>角色13数量1</t>
+  </si>
+  <si>
+    <t>角色13道具1是否绑定</t>
+  </si>
+  <si>
+    <t>角色13宠物1</t>
+  </si>
+  <si>
+    <t>角色13宠物1是否绑定</t>
+  </si>
+  <si>
+    <t>角色13道具2</t>
+  </si>
+  <si>
+    <t>角色13数量2</t>
+  </si>
+  <si>
+    <t>角色13道具2是否绑定</t>
+  </si>
+  <si>
+    <t>角色13宠物2</t>
+  </si>
+  <si>
+    <t>角色13宠物2是否绑定</t>
+  </si>
+  <si>
+    <t>角色13道具3</t>
+  </si>
+  <si>
+    <t>角色13数量3</t>
+  </si>
+  <si>
+    <t>角色13道具3是否绑定</t>
+  </si>
+  <si>
+    <t>角色13宠物3</t>
+  </si>
+  <si>
+    <t>角色13宠物3是否绑定</t>
+  </si>
+  <si>
+    <t>角色13物品需要包裹格</t>
+  </si>
+  <si>
+    <t>角色13宠物需要包裹格</t>
+  </si>
+  <si>
+    <t>角色14道具1</t>
+  </si>
+  <si>
+    <t>角色14数量1</t>
+  </si>
+  <si>
+    <t>角色14道具1是否绑定</t>
+  </si>
+  <si>
+    <t>角色14宠物1</t>
+  </si>
+  <si>
+    <t>角色14宠物1是否绑定</t>
+  </si>
+  <si>
+    <t>角色14道具2</t>
+  </si>
+  <si>
+    <t>角色14数量2</t>
+  </si>
+  <si>
+    <t>角色14道具2是否绑定</t>
+  </si>
+  <si>
+    <t>角色14宠物2</t>
+  </si>
+  <si>
+    <t>角色14宠物2是否绑定</t>
+  </si>
+  <si>
+    <t>角色14道具3</t>
+  </si>
+  <si>
+    <t>角色14数量3</t>
+  </si>
+  <si>
+    <t>角色14道具3是否绑定</t>
+  </si>
+  <si>
+    <t>角色14宠物3</t>
+  </si>
+  <si>
+    <t>角色14宠物3是否绑定</t>
+  </si>
+  <si>
+    <t>角色14物品需要包裹格</t>
+  </si>
+  <si>
+    <t>角色14宠物需要包裹格</t>
+  </si>
+  <si>
+    <t>角色15道具1</t>
+  </si>
+  <si>
+    <t>角色15数量1</t>
+  </si>
+  <si>
+    <t>角色15道具1是否绑定</t>
+  </si>
+  <si>
+    <t>角色15宠物1</t>
+  </si>
+  <si>
+    <t>角色15宠物1是否绑定</t>
+  </si>
+  <si>
+    <t>角色15道具2</t>
+  </si>
+  <si>
+    <t>角色15数量2</t>
+  </si>
+  <si>
+    <t>角色15道具2是否绑定</t>
+  </si>
+  <si>
+    <t>角色15宠物2</t>
+  </si>
+  <si>
+    <t>角色15宠物2是否绑定</t>
+  </si>
+  <si>
+    <t>角色15道具3</t>
+  </si>
+  <si>
+    <t>角色15数量3</t>
+  </si>
+  <si>
+    <t>角色15道具3是否绑定</t>
+  </si>
+  <si>
+    <t>角色15宠物3</t>
+  </si>
+  <si>
+    <t>角色15宠物3是否绑定</t>
+  </si>
+  <si>
+    <t>角色15物品需要包裹格</t>
+  </si>
+  <si>
+    <t>角色15宠物需要包裹格</t>
+  </si>
+  <si>
+    <t>角色16道具1</t>
+  </si>
+  <si>
+    <t>角色16数量1</t>
+  </si>
+  <si>
+    <t>角色16道具1是否绑定</t>
+  </si>
+  <si>
+    <t>角色16宠物1</t>
+  </si>
+  <si>
+    <t>角色16宠物1是否绑定</t>
+  </si>
+  <si>
+    <t>角色16道具2</t>
+  </si>
+  <si>
+    <t>角色16数量2</t>
+  </si>
+  <si>
+    <t>角色16道具2是否绑定</t>
+  </si>
+  <si>
+    <t>角色16宠物2</t>
+  </si>
+  <si>
+    <t>角色16宠物2是否绑定</t>
+  </si>
+  <si>
+    <t>角色16道具3</t>
+  </si>
+  <si>
+    <t>角色16数量3</t>
+  </si>
+  <si>
+    <t>角色16道具3是否绑定</t>
+  </si>
+  <si>
+    <t>角色16宠物3</t>
+  </si>
+  <si>
+    <t>角色16宠物3是否绑定</t>
+  </si>
+  <si>
+    <t>角色16物品需要包裹格</t>
+  </si>
+  <si>
+    <t>角色16宠物需要包裹格</t>
+  </si>
+  <si>
+    <t>角色17道具1</t>
+  </si>
+  <si>
+    <t>角色17数量1</t>
+  </si>
+  <si>
+    <t>角色17道具1是否绑定</t>
+  </si>
+  <si>
+    <t>角色17宠物1</t>
+  </si>
+  <si>
+    <t>角色17宠物1是否绑定</t>
+  </si>
+  <si>
+    <t>角色17道具2</t>
+  </si>
+  <si>
+    <t>角色17数量2</t>
+  </si>
+  <si>
+    <t>角色17道具2是否绑定</t>
+  </si>
+  <si>
+    <t>角色17宠物2</t>
+  </si>
+  <si>
+    <t>角色17宠物2是否绑定</t>
+  </si>
+  <si>
+    <t>角色17道具3</t>
+  </si>
+  <si>
+    <t>角色17数量3</t>
+  </si>
+  <si>
+    <t>角色17道具3是否绑定</t>
+  </si>
+  <si>
+    <t>角色17宠物3</t>
+  </si>
+  <si>
+    <t>角色17宠物3是否绑定</t>
+  </si>
+  <si>
+    <t>角色17物品需要包裹格</t>
+  </si>
+  <si>
+    <t>角色17宠物需要包裹格</t>
+  </si>
+  <si>
+    <t>角色18道具1</t>
+  </si>
+  <si>
+    <t>角色18数量1</t>
+  </si>
+  <si>
+    <t>角色18道具1是否绑定</t>
+  </si>
+  <si>
+    <t>角色18宠物1</t>
+  </si>
+  <si>
+    <t>角色18宠物1是否绑定</t>
+  </si>
+  <si>
+    <t>角色18道具2</t>
+  </si>
+  <si>
+    <t>角色18数量2</t>
+  </si>
+  <si>
+    <t>角色18道具2是否绑定</t>
+  </si>
+  <si>
+    <t>角色18宠物2</t>
+  </si>
+  <si>
+    <t>角色18宠物2是否绑定</t>
+  </si>
+  <si>
+    <t>角色18道具3</t>
+  </si>
+  <si>
+    <t>角色18数量3</t>
+  </si>
+  <si>
+    <t>角色18道具3是否绑定</t>
+  </si>
+  <si>
+    <t>角色18宠物3</t>
+  </si>
+  <si>
+    <t>角色18宠物3是否绑定</t>
+  </si>
+  <si>
+    <t>角色18物品需要包裹格</t>
+  </si>
+  <si>
+    <t>角色18宠物需要包裹格</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1365,158 +1781,23 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
+      <color indexed="81"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1559,194 +1840,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1754,251 +1849,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2016,58 +1869,19 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2366,6 +2180,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -2398,28 +2213,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:FP19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:XED19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="ER1" workbookViewId="0">
-      <selection activeCell="FA1" sqref="FA1"/>
+    <sheetView tabSelected="1" topLeftCell="KD1" workbookViewId="0">
+      <selection activeCell="KQ18" activeCellId="1" sqref="KX9 KQ18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.2857142857143" style="1"/>
+    <col min="1" max="2" width="10.28515625" style="1"/>
     <col min="3" max="3" width="14" style="1" customWidth="1"/>
-    <col min="4" max="7" width="10.2857142857143" style="1"/>
-    <col min="8" max="8" width="13.7142857142857" style="1" customWidth="1"/>
-    <col min="9" max="12" width="10.2857142857143" style="1"/>
-    <col min="13" max="13" width="26.4285714285714" style="1" customWidth="1"/>
-    <col min="14" max="29" width="10.2857142857143" style="1"/>
-    <col min="30" max="30" width="22.7142857142857" style="1" customWidth="1"/>
-    <col min="31" max="16358" width="10.2857142857143" style="1"/>
+    <col min="4" max="7" width="10.28515625" style="1"/>
+    <col min="8" max="8" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="12" width="10.28515625" style="1"/>
+    <col min="13" max="13" width="26.42578125" style="1" customWidth="1"/>
+    <col min="14" max="29" width="10.28515625" style="1"/>
+    <col min="30" max="30" width="22.7109375" style="1" customWidth="1"/>
+    <col min="31" max="16358" width="10.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:172">
+    <row r="1" spans="1:308" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2936,8 +2750,416 @@
       <c r="FP1" s="4" t="s">
         <v>171</v>
       </c>
+      <c r="FQ1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="FR1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="FS1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="FT1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="FU1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="FV1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="FW1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="FX1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="FY1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="FZ1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="GA1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="GB1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="GC1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="GD1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="GE1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="GF1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="GG1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="GH1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="GI1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="GJ1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="GK1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="GL1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="GM1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="GN1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="GO1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="GP1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="GQ1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="GR1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="GS1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="GT1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="GU1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="GV1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="GW1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="GX1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="GY1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="GZ1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="HA1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="HB1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="HC1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="HD1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="HE1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="HF1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="HG1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="HH1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="HI1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="HJ1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="HK1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="HL1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="HM1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="HN1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="HO1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="HP1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="HQ1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="HR1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="HS1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="HT1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="HU1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="HV1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="HW1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="HX1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="HY1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="HZ1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="IA1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="IB1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="IC1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="ID1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="IE1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="IF1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="IG1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="IH1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="II1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="IJ1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="IK1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="IL1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="IM1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="IN1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="IO1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="IP1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="IQ1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="IR1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="IS1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="IT1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="IU1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="IV1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="IW1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="IX1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="IY1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="IZ1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="JA1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="JB1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="JC1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="JD1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="JE1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="JF1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="JG1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="JH1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="JI1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="JJ1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="JK1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="JL1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="JM1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="JN1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="JO1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="JP1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="JQ1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="JR1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="JS1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="JT1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="JU1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="JV1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="JW1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="JX1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="JY1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="JZ1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="KA1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="KB1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="KC1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="KD1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="KE1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="KF1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="KG1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="KH1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="KI1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="KJ1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="KK1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="KL1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="KM1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="KN1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="KO1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="KP1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="KQ1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="KR1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="KS1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="KT1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="KU1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="KV1" s="1" t="s">
+        <v>325</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:172">
+    <row r="2" spans="1:308" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>172</v>
       </c>
@@ -3454,8 +3676,416 @@
       <c r="FP2" s="2">
         <v>0</v>
       </c>
+      <c r="FQ2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="FR2" s="2">
+        <v>1</v>
+      </c>
+      <c r="FS2" s="2">
+        <v>0</v>
+      </c>
+      <c r="FT2" s="2">
+        <v>0</v>
+      </c>
+      <c r="FU2" s="2">
+        <v>0</v>
+      </c>
+      <c r="FV2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="FW2" s="2">
+        <v>1</v>
+      </c>
+      <c r="FX2" s="2">
+        <v>0</v>
+      </c>
+      <c r="FY2" s="2">
+        <v>0</v>
+      </c>
+      <c r="FZ2" s="2">
+        <v>0</v>
+      </c>
+      <c r="GA2" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="GB2" s="2">
+        <v>1</v>
+      </c>
+      <c r="GC2" s="2">
+        <v>1</v>
+      </c>
+      <c r="GD2" s="2">
+        <v>0</v>
+      </c>
+      <c r="GE2" s="2">
+        <v>0</v>
+      </c>
+      <c r="GF2" s="2">
+        <v>3</v>
+      </c>
+      <c r="GG2" s="2">
+        <v>0</v>
+      </c>
+      <c r="GH2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="GI2" s="2">
+        <v>1</v>
+      </c>
+      <c r="GJ2" s="2">
+        <v>0</v>
+      </c>
+      <c r="GK2" s="2">
+        <v>0</v>
+      </c>
+      <c r="GL2" s="2">
+        <v>0</v>
+      </c>
+      <c r="GM2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="GN2" s="2">
+        <v>1</v>
+      </c>
+      <c r="GO2" s="2">
+        <v>0</v>
+      </c>
+      <c r="GP2" s="2">
+        <v>0</v>
+      </c>
+      <c r="GQ2" s="2">
+        <v>0</v>
+      </c>
+      <c r="GR2" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="GS2" s="2">
+        <v>1</v>
+      </c>
+      <c r="GT2" s="2">
+        <v>1</v>
+      </c>
+      <c r="GU2" s="2">
+        <v>0</v>
+      </c>
+      <c r="GV2" s="2">
+        <v>0</v>
+      </c>
+      <c r="GW2" s="2">
+        <v>3</v>
+      </c>
+      <c r="GX2" s="2">
+        <v>0</v>
+      </c>
+      <c r="GY2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="GZ2" s="2">
+        <v>1</v>
+      </c>
+      <c r="HA2" s="2">
+        <v>0</v>
+      </c>
+      <c r="HB2" s="2">
+        <v>0</v>
+      </c>
+      <c r="HC2" s="2">
+        <v>0</v>
+      </c>
+      <c r="HD2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="HE2" s="2">
+        <v>1</v>
+      </c>
+      <c r="HF2" s="2">
+        <v>0</v>
+      </c>
+      <c r="HG2" s="2">
+        <v>0</v>
+      </c>
+      <c r="HH2" s="2">
+        <v>0</v>
+      </c>
+      <c r="HI2" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="HJ2" s="2">
+        <v>1</v>
+      </c>
+      <c r="HK2" s="2">
+        <v>1</v>
+      </c>
+      <c r="HL2" s="2">
+        <v>0</v>
+      </c>
+      <c r="HM2" s="2">
+        <v>0</v>
+      </c>
+      <c r="HN2" s="2">
+        <v>3</v>
+      </c>
+      <c r="HO2" s="2">
+        <v>0</v>
+      </c>
+      <c r="HP2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="HQ2" s="2">
+        <v>1</v>
+      </c>
+      <c r="HR2" s="2">
+        <v>0</v>
+      </c>
+      <c r="HS2" s="2">
+        <v>0</v>
+      </c>
+      <c r="HT2" s="2">
+        <v>0</v>
+      </c>
+      <c r="HU2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="HV2" s="2">
+        <v>1</v>
+      </c>
+      <c r="HW2" s="2">
+        <v>0</v>
+      </c>
+      <c r="HX2" s="2">
+        <v>0</v>
+      </c>
+      <c r="HY2" s="2">
+        <v>0</v>
+      </c>
+      <c r="HZ2" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="IA2" s="2">
+        <v>1</v>
+      </c>
+      <c r="IB2" s="2">
+        <v>1</v>
+      </c>
+      <c r="IC2" s="2">
+        <v>0</v>
+      </c>
+      <c r="ID2" s="2">
+        <v>0</v>
+      </c>
+      <c r="IE2" s="2">
+        <v>3</v>
+      </c>
+      <c r="IF2" s="2">
+        <v>0</v>
+      </c>
+      <c r="IG2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="IH2" s="2">
+        <v>1</v>
+      </c>
+      <c r="II2" s="2">
+        <v>0</v>
+      </c>
+      <c r="IJ2" s="2">
+        <v>0</v>
+      </c>
+      <c r="IK2" s="2">
+        <v>0</v>
+      </c>
+      <c r="IL2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="IM2" s="2">
+        <v>1</v>
+      </c>
+      <c r="IN2" s="2">
+        <v>0</v>
+      </c>
+      <c r="IO2" s="2">
+        <v>0</v>
+      </c>
+      <c r="IP2" s="2">
+        <v>0</v>
+      </c>
+      <c r="IQ2" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="IR2" s="2">
+        <v>1</v>
+      </c>
+      <c r="IS2" s="2">
+        <v>1</v>
+      </c>
+      <c r="IT2" s="2">
+        <v>0</v>
+      </c>
+      <c r="IU2" s="2">
+        <v>0</v>
+      </c>
+      <c r="IV2" s="2">
+        <v>3</v>
+      </c>
+      <c r="IW2" s="2">
+        <v>0</v>
+      </c>
+      <c r="IX2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="IY2" s="2">
+        <v>1</v>
+      </c>
+      <c r="IZ2" s="2">
+        <v>0</v>
+      </c>
+      <c r="JA2" s="2">
+        <v>0</v>
+      </c>
+      <c r="JB2" s="2">
+        <v>0</v>
+      </c>
+      <c r="JC2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="JD2" s="2">
+        <v>1</v>
+      </c>
+      <c r="JE2" s="2">
+        <v>0</v>
+      </c>
+      <c r="JF2" s="2">
+        <v>0</v>
+      </c>
+      <c r="JG2" s="2">
+        <v>0</v>
+      </c>
+      <c r="JH2" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="JI2" s="2">
+        <v>1</v>
+      </c>
+      <c r="JJ2" s="2">
+        <v>1</v>
+      </c>
+      <c r="JK2" s="2">
+        <v>0</v>
+      </c>
+      <c r="JL2" s="2">
+        <v>0</v>
+      </c>
+      <c r="JM2" s="2">
+        <v>3</v>
+      </c>
+      <c r="JN2" s="2">
+        <v>0</v>
+      </c>
+      <c r="JO2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="JP2" s="2">
+        <v>1</v>
+      </c>
+      <c r="JQ2" s="2">
+        <v>0</v>
+      </c>
+      <c r="JR2" s="2">
+        <v>0</v>
+      </c>
+      <c r="JS2" s="2">
+        <v>0</v>
+      </c>
+      <c r="JT2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="JU2" s="2">
+        <v>1</v>
+      </c>
+      <c r="JV2" s="2">
+        <v>0</v>
+      </c>
+      <c r="JW2" s="2">
+        <v>0</v>
+      </c>
+      <c r="JX2" s="2">
+        <v>0</v>
+      </c>
+      <c r="JY2" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="JZ2" s="2">
+        <v>1</v>
+      </c>
+      <c r="KA2" s="2">
+        <v>1</v>
+      </c>
+      <c r="KB2" s="2">
+        <v>0</v>
+      </c>
+      <c r="KC2" s="2">
+        <v>0</v>
+      </c>
+      <c r="KD2" s="2">
+        <v>3</v>
+      </c>
+      <c r="KE2" s="2">
+        <v>0</v>
+      </c>
+      <c r="KF2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="KG2" s="2">
+        <v>1</v>
+      </c>
+      <c r="KH2" s="2">
+        <v>0</v>
+      </c>
+      <c r="KI2" s="2">
+        <v>0</v>
+      </c>
+      <c r="KJ2" s="2">
+        <v>0</v>
+      </c>
+      <c r="KK2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="KL2" s="2">
+        <v>1</v>
+      </c>
+      <c r="KM2" s="2">
+        <v>0</v>
+      </c>
+      <c r="KN2" s="2">
+        <v>0</v>
+      </c>
+      <c r="KO2" s="2">
+        <v>0</v>
+      </c>
+      <c r="KP2" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="KQ2" s="2">
+        <v>1</v>
+      </c>
+      <c r="KR2" s="2">
+        <v>1</v>
+      </c>
+      <c r="KS2" s="2">
+        <v>0</v>
+      </c>
+      <c r="KT2" s="2">
+        <v>0</v>
+      </c>
+      <c r="KU2" s="2">
+        <v>3</v>
+      </c>
+      <c r="KV2" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:172">
+    <row r="3" spans="1:308" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>177</v>
       </c>
@@ -3972,8 +4602,416 @@
       <c r="FP3" s="2">
         <v>0</v>
       </c>
+      <c r="FQ3" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="FR3" s="2">
+        <v>2</v>
+      </c>
+      <c r="FS3" s="2">
+        <v>0</v>
+      </c>
+      <c r="FT3" s="2">
+        <v>0</v>
+      </c>
+      <c r="FU3" s="2">
+        <v>0</v>
+      </c>
+      <c r="FV3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="FW3" s="2">
+        <v>1</v>
+      </c>
+      <c r="FX3" s="2">
+        <v>0</v>
+      </c>
+      <c r="FY3" s="2">
+        <v>0</v>
+      </c>
+      <c r="FZ3" s="2">
+        <v>0</v>
+      </c>
+      <c r="GA3" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="GB3" s="2">
+        <v>2</v>
+      </c>
+      <c r="GC3" s="2">
+        <v>1</v>
+      </c>
+      <c r="GD3" s="2">
+        <v>0</v>
+      </c>
+      <c r="GE3" s="2">
+        <v>0</v>
+      </c>
+      <c r="GF3" s="2">
+        <v>3</v>
+      </c>
+      <c r="GG3" s="2">
+        <v>0</v>
+      </c>
+      <c r="GH3" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="GI3" s="2">
+        <v>2</v>
+      </c>
+      <c r="GJ3" s="2">
+        <v>0</v>
+      </c>
+      <c r="GK3" s="2">
+        <v>0</v>
+      </c>
+      <c r="GL3" s="2">
+        <v>0</v>
+      </c>
+      <c r="GM3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="GN3" s="2">
+        <v>1</v>
+      </c>
+      <c r="GO3" s="2">
+        <v>0</v>
+      </c>
+      <c r="GP3" s="2">
+        <v>0</v>
+      </c>
+      <c r="GQ3" s="2">
+        <v>0</v>
+      </c>
+      <c r="GR3" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="GS3" s="2">
+        <v>2</v>
+      </c>
+      <c r="GT3" s="2">
+        <v>1</v>
+      </c>
+      <c r="GU3" s="2">
+        <v>0</v>
+      </c>
+      <c r="GV3" s="2">
+        <v>0</v>
+      </c>
+      <c r="GW3" s="2">
+        <v>3</v>
+      </c>
+      <c r="GX3" s="2">
+        <v>0</v>
+      </c>
+      <c r="GY3" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="GZ3" s="2">
+        <v>2</v>
+      </c>
+      <c r="HA3" s="2">
+        <v>0</v>
+      </c>
+      <c r="HB3" s="2">
+        <v>0</v>
+      </c>
+      <c r="HC3" s="2">
+        <v>0</v>
+      </c>
+      <c r="HD3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="HE3" s="2">
+        <v>1</v>
+      </c>
+      <c r="HF3" s="2">
+        <v>0</v>
+      </c>
+      <c r="HG3" s="2">
+        <v>0</v>
+      </c>
+      <c r="HH3" s="2">
+        <v>0</v>
+      </c>
+      <c r="HI3" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="HJ3" s="2">
+        <v>2</v>
+      </c>
+      <c r="HK3" s="2">
+        <v>1</v>
+      </c>
+      <c r="HL3" s="2">
+        <v>0</v>
+      </c>
+      <c r="HM3" s="2">
+        <v>0</v>
+      </c>
+      <c r="HN3" s="2">
+        <v>3</v>
+      </c>
+      <c r="HO3" s="2">
+        <v>0</v>
+      </c>
+      <c r="HP3" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="HQ3" s="2">
+        <v>2</v>
+      </c>
+      <c r="HR3" s="2">
+        <v>0</v>
+      </c>
+      <c r="HS3" s="2">
+        <v>0</v>
+      </c>
+      <c r="HT3" s="2">
+        <v>0</v>
+      </c>
+      <c r="HU3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="HV3" s="2">
+        <v>1</v>
+      </c>
+      <c r="HW3" s="2">
+        <v>0</v>
+      </c>
+      <c r="HX3" s="2">
+        <v>0</v>
+      </c>
+      <c r="HY3" s="2">
+        <v>0</v>
+      </c>
+      <c r="HZ3" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="IA3" s="2">
+        <v>2</v>
+      </c>
+      <c r="IB3" s="2">
+        <v>1</v>
+      </c>
+      <c r="IC3" s="2">
+        <v>0</v>
+      </c>
+      <c r="ID3" s="2">
+        <v>0</v>
+      </c>
+      <c r="IE3" s="2">
+        <v>3</v>
+      </c>
+      <c r="IF3" s="2">
+        <v>0</v>
+      </c>
+      <c r="IG3" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="IH3" s="2">
+        <v>2</v>
+      </c>
+      <c r="II3" s="2">
+        <v>0</v>
+      </c>
+      <c r="IJ3" s="2">
+        <v>0</v>
+      </c>
+      <c r="IK3" s="2">
+        <v>0</v>
+      </c>
+      <c r="IL3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="IM3" s="2">
+        <v>1</v>
+      </c>
+      <c r="IN3" s="2">
+        <v>0</v>
+      </c>
+      <c r="IO3" s="2">
+        <v>0</v>
+      </c>
+      <c r="IP3" s="2">
+        <v>0</v>
+      </c>
+      <c r="IQ3" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="IR3" s="2">
+        <v>2</v>
+      </c>
+      <c r="IS3" s="2">
+        <v>1</v>
+      </c>
+      <c r="IT3" s="2">
+        <v>0</v>
+      </c>
+      <c r="IU3" s="2">
+        <v>0</v>
+      </c>
+      <c r="IV3" s="2">
+        <v>3</v>
+      </c>
+      <c r="IW3" s="2">
+        <v>0</v>
+      </c>
+      <c r="IX3" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="IY3" s="2">
+        <v>2</v>
+      </c>
+      <c r="IZ3" s="2">
+        <v>0</v>
+      </c>
+      <c r="JA3" s="2">
+        <v>0</v>
+      </c>
+      <c r="JB3" s="2">
+        <v>0</v>
+      </c>
+      <c r="JC3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="JD3" s="2">
+        <v>1</v>
+      </c>
+      <c r="JE3" s="2">
+        <v>0</v>
+      </c>
+      <c r="JF3" s="2">
+        <v>0</v>
+      </c>
+      <c r="JG3" s="2">
+        <v>0</v>
+      </c>
+      <c r="JH3" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="JI3" s="2">
+        <v>2</v>
+      </c>
+      <c r="JJ3" s="2">
+        <v>1</v>
+      </c>
+      <c r="JK3" s="2">
+        <v>0</v>
+      </c>
+      <c r="JL3" s="2">
+        <v>0</v>
+      </c>
+      <c r="JM3" s="2">
+        <v>3</v>
+      </c>
+      <c r="JN3" s="2">
+        <v>0</v>
+      </c>
+      <c r="JO3" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="JP3" s="2">
+        <v>2</v>
+      </c>
+      <c r="JQ3" s="2">
+        <v>0</v>
+      </c>
+      <c r="JR3" s="2">
+        <v>0</v>
+      </c>
+      <c r="JS3" s="2">
+        <v>0</v>
+      </c>
+      <c r="JT3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="JU3" s="2">
+        <v>1</v>
+      </c>
+      <c r="JV3" s="2">
+        <v>0</v>
+      </c>
+      <c r="JW3" s="2">
+        <v>0</v>
+      </c>
+      <c r="JX3" s="2">
+        <v>0</v>
+      </c>
+      <c r="JY3" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="JZ3" s="2">
+        <v>2</v>
+      </c>
+      <c r="KA3" s="2">
+        <v>1</v>
+      </c>
+      <c r="KB3" s="2">
+        <v>0</v>
+      </c>
+      <c r="KC3" s="2">
+        <v>0</v>
+      </c>
+      <c r="KD3" s="2">
+        <v>3</v>
+      </c>
+      <c r="KE3" s="2">
+        <v>0</v>
+      </c>
+      <c r="KF3" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="KG3" s="2">
+        <v>2</v>
+      </c>
+      <c r="KH3" s="2">
+        <v>0</v>
+      </c>
+      <c r="KI3" s="2">
+        <v>0</v>
+      </c>
+      <c r="KJ3" s="2">
+        <v>0</v>
+      </c>
+      <c r="KK3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="KL3" s="2">
+        <v>1</v>
+      </c>
+      <c r="KM3" s="2">
+        <v>0</v>
+      </c>
+      <c r="KN3" s="2">
+        <v>0</v>
+      </c>
+      <c r="KO3" s="2">
+        <v>0</v>
+      </c>
+      <c r="KP3" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="KQ3" s="2">
+        <v>2</v>
+      </c>
+      <c r="KR3" s="2">
+        <v>1</v>
+      </c>
+      <c r="KS3" s="2">
+        <v>0</v>
+      </c>
+      <c r="KT3" s="2">
+        <v>0</v>
+      </c>
+      <c r="KU3" s="2">
+        <v>3</v>
+      </c>
+      <c r="KV3" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:172">
+    <row r="4" spans="1:308" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>180</v>
       </c>
@@ -4490,8 +5528,416 @@
       <c r="FP4" s="2">
         <v>0</v>
       </c>
+      <c r="FQ4" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="FR4" s="2">
+        <v>3</v>
+      </c>
+      <c r="FS4" s="2">
+        <v>0</v>
+      </c>
+      <c r="FT4" s="2">
+        <v>0</v>
+      </c>
+      <c r="FU4" s="2">
+        <v>0</v>
+      </c>
+      <c r="FV4" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="FW4" s="2">
+        <v>2</v>
+      </c>
+      <c r="FX4" s="2">
+        <v>0</v>
+      </c>
+      <c r="FY4" s="2">
+        <v>0</v>
+      </c>
+      <c r="FZ4" s="2">
+        <v>0</v>
+      </c>
+      <c r="GA4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="GB4" s="2">
+        <v>3</v>
+      </c>
+      <c r="GC4" s="2">
+        <v>1</v>
+      </c>
+      <c r="GD4" s="2">
+        <v>0</v>
+      </c>
+      <c r="GE4" s="2">
+        <v>0</v>
+      </c>
+      <c r="GF4" s="2">
+        <v>3</v>
+      </c>
+      <c r="GG4" s="2">
+        <v>0</v>
+      </c>
+      <c r="GH4" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="GI4" s="2">
+        <v>3</v>
+      </c>
+      <c r="GJ4" s="2">
+        <v>0</v>
+      </c>
+      <c r="GK4" s="2">
+        <v>0</v>
+      </c>
+      <c r="GL4" s="2">
+        <v>0</v>
+      </c>
+      <c r="GM4" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="GN4" s="2">
+        <v>2</v>
+      </c>
+      <c r="GO4" s="2">
+        <v>0</v>
+      </c>
+      <c r="GP4" s="2">
+        <v>0</v>
+      </c>
+      <c r="GQ4" s="2">
+        <v>0</v>
+      </c>
+      <c r="GR4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="GS4" s="2">
+        <v>3</v>
+      </c>
+      <c r="GT4" s="2">
+        <v>1</v>
+      </c>
+      <c r="GU4" s="2">
+        <v>0</v>
+      </c>
+      <c r="GV4" s="2">
+        <v>0</v>
+      </c>
+      <c r="GW4" s="2">
+        <v>3</v>
+      </c>
+      <c r="GX4" s="2">
+        <v>0</v>
+      </c>
+      <c r="GY4" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="GZ4" s="2">
+        <v>3</v>
+      </c>
+      <c r="HA4" s="2">
+        <v>0</v>
+      </c>
+      <c r="HB4" s="2">
+        <v>0</v>
+      </c>
+      <c r="HC4" s="2">
+        <v>0</v>
+      </c>
+      <c r="HD4" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="HE4" s="2">
+        <v>2</v>
+      </c>
+      <c r="HF4" s="2">
+        <v>0</v>
+      </c>
+      <c r="HG4" s="2">
+        <v>0</v>
+      </c>
+      <c r="HH4" s="2">
+        <v>0</v>
+      </c>
+      <c r="HI4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="HJ4" s="2">
+        <v>3</v>
+      </c>
+      <c r="HK4" s="2">
+        <v>1</v>
+      </c>
+      <c r="HL4" s="2">
+        <v>0</v>
+      </c>
+      <c r="HM4" s="2">
+        <v>0</v>
+      </c>
+      <c r="HN4" s="2">
+        <v>3</v>
+      </c>
+      <c r="HO4" s="2">
+        <v>0</v>
+      </c>
+      <c r="HP4" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="HQ4" s="2">
+        <v>3</v>
+      </c>
+      <c r="HR4" s="2">
+        <v>0</v>
+      </c>
+      <c r="HS4" s="2">
+        <v>0</v>
+      </c>
+      <c r="HT4" s="2">
+        <v>0</v>
+      </c>
+      <c r="HU4" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="HV4" s="2">
+        <v>2</v>
+      </c>
+      <c r="HW4" s="2">
+        <v>0</v>
+      </c>
+      <c r="HX4" s="2">
+        <v>0</v>
+      </c>
+      <c r="HY4" s="2">
+        <v>0</v>
+      </c>
+      <c r="HZ4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="IA4" s="2">
+        <v>3</v>
+      </c>
+      <c r="IB4" s="2">
+        <v>1</v>
+      </c>
+      <c r="IC4" s="2">
+        <v>0</v>
+      </c>
+      <c r="ID4" s="2">
+        <v>0</v>
+      </c>
+      <c r="IE4" s="2">
+        <v>3</v>
+      </c>
+      <c r="IF4" s="2">
+        <v>0</v>
+      </c>
+      <c r="IG4" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="IH4" s="2">
+        <v>3</v>
+      </c>
+      <c r="II4" s="2">
+        <v>0</v>
+      </c>
+      <c r="IJ4" s="2">
+        <v>0</v>
+      </c>
+      <c r="IK4" s="2">
+        <v>0</v>
+      </c>
+      <c r="IL4" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="IM4" s="2">
+        <v>2</v>
+      </c>
+      <c r="IN4" s="2">
+        <v>0</v>
+      </c>
+      <c r="IO4" s="2">
+        <v>0</v>
+      </c>
+      <c r="IP4" s="2">
+        <v>0</v>
+      </c>
+      <c r="IQ4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="IR4" s="2">
+        <v>3</v>
+      </c>
+      <c r="IS4" s="2">
+        <v>1</v>
+      </c>
+      <c r="IT4" s="2">
+        <v>0</v>
+      </c>
+      <c r="IU4" s="2">
+        <v>0</v>
+      </c>
+      <c r="IV4" s="2">
+        <v>3</v>
+      </c>
+      <c r="IW4" s="2">
+        <v>0</v>
+      </c>
+      <c r="IX4" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="IY4" s="2">
+        <v>3</v>
+      </c>
+      <c r="IZ4" s="2">
+        <v>0</v>
+      </c>
+      <c r="JA4" s="2">
+        <v>0</v>
+      </c>
+      <c r="JB4" s="2">
+        <v>0</v>
+      </c>
+      <c r="JC4" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="JD4" s="2">
+        <v>2</v>
+      </c>
+      <c r="JE4" s="2">
+        <v>0</v>
+      </c>
+      <c r="JF4" s="2">
+        <v>0</v>
+      </c>
+      <c r="JG4" s="2">
+        <v>0</v>
+      </c>
+      <c r="JH4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="JI4" s="2">
+        <v>3</v>
+      </c>
+      <c r="JJ4" s="2">
+        <v>1</v>
+      </c>
+      <c r="JK4" s="2">
+        <v>0</v>
+      </c>
+      <c r="JL4" s="2">
+        <v>0</v>
+      </c>
+      <c r="JM4" s="2">
+        <v>3</v>
+      </c>
+      <c r="JN4" s="2">
+        <v>0</v>
+      </c>
+      <c r="JO4" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="JP4" s="2">
+        <v>3</v>
+      </c>
+      <c r="JQ4" s="2">
+        <v>0</v>
+      </c>
+      <c r="JR4" s="2">
+        <v>0</v>
+      </c>
+      <c r="JS4" s="2">
+        <v>0</v>
+      </c>
+      <c r="JT4" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="JU4" s="2">
+        <v>2</v>
+      </c>
+      <c r="JV4" s="2">
+        <v>0</v>
+      </c>
+      <c r="JW4" s="2">
+        <v>0</v>
+      </c>
+      <c r="JX4" s="2">
+        <v>0</v>
+      </c>
+      <c r="JY4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="JZ4" s="2">
+        <v>3</v>
+      </c>
+      <c r="KA4" s="2">
+        <v>1</v>
+      </c>
+      <c r="KB4" s="2">
+        <v>0</v>
+      </c>
+      <c r="KC4" s="2">
+        <v>0</v>
+      </c>
+      <c r="KD4" s="2">
+        <v>3</v>
+      </c>
+      <c r="KE4" s="2">
+        <v>0</v>
+      </c>
+      <c r="KF4" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="KG4" s="2">
+        <v>3</v>
+      </c>
+      <c r="KH4" s="2">
+        <v>0</v>
+      </c>
+      <c r="KI4" s="2">
+        <v>0</v>
+      </c>
+      <c r="KJ4" s="2">
+        <v>0</v>
+      </c>
+      <c r="KK4" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="KL4" s="2">
+        <v>2</v>
+      </c>
+      <c r="KM4" s="2">
+        <v>0</v>
+      </c>
+      <c r="KN4" s="2">
+        <v>0</v>
+      </c>
+      <c r="KO4" s="2">
+        <v>0</v>
+      </c>
+      <c r="KP4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="KQ4" s="2">
+        <v>3</v>
+      </c>
+      <c r="KR4" s="2">
+        <v>1</v>
+      </c>
+      <c r="KS4" s="2">
+        <v>0</v>
+      </c>
+      <c r="KT4" s="2">
+        <v>0</v>
+      </c>
+      <c r="KU4" s="2">
+        <v>3</v>
+      </c>
+      <c r="KV4" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:172">
+    <row r="5" spans="1:308" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>182</v>
       </c>
@@ -5008,8 +6454,416 @@
       <c r="FP5" s="2">
         <v>0</v>
       </c>
+      <c r="FQ5" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="FR5" s="2">
+        <v>4</v>
+      </c>
+      <c r="FS5" s="2">
+        <v>0</v>
+      </c>
+      <c r="FT5" s="2">
+        <v>0</v>
+      </c>
+      <c r="FU5" s="2">
+        <v>0</v>
+      </c>
+      <c r="FV5" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="FW5" s="2">
+        <v>3</v>
+      </c>
+      <c r="FX5" s="2">
+        <v>0</v>
+      </c>
+      <c r="FY5" s="2">
+        <v>0</v>
+      </c>
+      <c r="FZ5" s="2">
+        <v>0</v>
+      </c>
+      <c r="GA5" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="GB5" s="2">
+        <v>4</v>
+      </c>
+      <c r="GC5" s="2">
+        <v>1</v>
+      </c>
+      <c r="GD5" s="2">
+        <v>0</v>
+      </c>
+      <c r="GE5" s="2">
+        <v>0</v>
+      </c>
+      <c r="GF5" s="2">
+        <v>3</v>
+      </c>
+      <c r="GG5" s="2">
+        <v>0</v>
+      </c>
+      <c r="GH5" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="GI5" s="2">
+        <v>4</v>
+      </c>
+      <c r="GJ5" s="2">
+        <v>0</v>
+      </c>
+      <c r="GK5" s="2">
+        <v>0</v>
+      </c>
+      <c r="GL5" s="2">
+        <v>0</v>
+      </c>
+      <c r="GM5" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="GN5" s="2">
+        <v>3</v>
+      </c>
+      <c r="GO5" s="2">
+        <v>0</v>
+      </c>
+      <c r="GP5" s="2">
+        <v>0</v>
+      </c>
+      <c r="GQ5" s="2">
+        <v>0</v>
+      </c>
+      <c r="GR5" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="GS5" s="2">
+        <v>4</v>
+      </c>
+      <c r="GT5" s="2">
+        <v>1</v>
+      </c>
+      <c r="GU5" s="2">
+        <v>0</v>
+      </c>
+      <c r="GV5" s="2">
+        <v>0</v>
+      </c>
+      <c r="GW5" s="2">
+        <v>3</v>
+      </c>
+      <c r="GX5" s="2">
+        <v>0</v>
+      </c>
+      <c r="GY5" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="GZ5" s="2">
+        <v>4</v>
+      </c>
+      <c r="HA5" s="2">
+        <v>0</v>
+      </c>
+      <c r="HB5" s="2">
+        <v>0</v>
+      </c>
+      <c r="HC5" s="2">
+        <v>0</v>
+      </c>
+      <c r="HD5" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="HE5" s="2">
+        <v>3</v>
+      </c>
+      <c r="HF5" s="2">
+        <v>0</v>
+      </c>
+      <c r="HG5" s="2">
+        <v>0</v>
+      </c>
+      <c r="HH5" s="2">
+        <v>0</v>
+      </c>
+      <c r="HI5" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="HJ5" s="2">
+        <v>4</v>
+      </c>
+      <c r="HK5" s="2">
+        <v>1</v>
+      </c>
+      <c r="HL5" s="2">
+        <v>0</v>
+      </c>
+      <c r="HM5" s="2">
+        <v>0</v>
+      </c>
+      <c r="HN5" s="2">
+        <v>3</v>
+      </c>
+      <c r="HO5" s="2">
+        <v>0</v>
+      </c>
+      <c r="HP5" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="HQ5" s="2">
+        <v>4</v>
+      </c>
+      <c r="HR5" s="2">
+        <v>0</v>
+      </c>
+      <c r="HS5" s="2">
+        <v>0</v>
+      </c>
+      <c r="HT5" s="2">
+        <v>0</v>
+      </c>
+      <c r="HU5" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="HV5" s="2">
+        <v>3</v>
+      </c>
+      <c r="HW5" s="2">
+        <v>0</v>
+      </c>
+      <c r="HX5" s="2">
+        <v>0</v>
+      </c>
+      <c r="HY5" s="2">
+        <v>0</v>
+      </c>
+      <c r="HZ5" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="IA5" s="2">
+        <v>4</v>
+      </c>
+      <c r="IB5" s="2">
+        <v>1</v>
+      </c>
+      <c r="IC5" s="2">
+        <v>0</v>
+      </c>
+      <c r="ID5" s="2">
+        <v>0</v>
+      </c>
+      <c r="IE5" s="2">
+        <v>3</v>
+      </c>
+      <c r="IF5" s="2">
+        <v>0</v>
+      </c>
+      <c r="IG5" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="IH5" s="2">
+        <v>4</v>
+      </c>
+      <c r="II5" s="2">
+        <v>0</v>
+      </c>
+      <c r="IJ5" s="2">
+        <v>0</v>
+      </c>
+      <c r="IK5" s="2">
+        <v>0</v>
+      </c>
+      <c r="IL5" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="IM5" s="2">
+        <v>3</v>
+      </c>
+      <c r="IN5" s="2">
+        <v>0</v>
+      </c>
+      <c r="IO5" s="2">
+        <v>0</v>
+      </c>
+      <c r="IP5" s="2">
+        <v>0</v>
+      </c>
+      <c r="IQ5" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="IR5" s="2">
+        <v>4</v>
+      </c>
+      <c r="IS5" s="2">
+        <v>1</v>
+      </c>
+      <c r="IT5" s="2">
+        <v>0</v>
+      </c>
+      <c r="IU5" s="2">
+        <v>0</v>
+      </c>
+      <c r="IV5" s="2">
+        <v>3</v>
+      </c>
+      <c r="IW5" s="2">
+        <v>0</v>
+      </c>
+      <c r="IX5" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="IY5" s="2">
+        <v>4</v>
+      </c>
+      <c r="IZ5" s="2">
+        <v>0</v>
+      </c>
+      <c r="JA5" s="2">
+        <v>0</v>
+      </c>
+      <c r="JB5" s="2">
+        <v>0</v>
+      </c>
+      <c r="JC5" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="JD5" s="2">
+        <v>3</v>
+      </c>
+      <c r="JE5" s="2">
+        <v>0</v>
+      </c>
+      <c r="JF5" s="2">
+        <v>0</v>
+      </c>
+      <c r="JG5" s="2">
+        <v>0</v>
+      </c>
+      <c r="JH5" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="JI5" s="2">
+        <v>4</v>
+      </c>
+      <c r="JJ5" s="2">
+        <v>1</v>
+      </c>
+      <c r="JK5" s="2">
+        <v>0</v>
+      </c>
+      <c r="JL5" s="2">
+        <v>0</v>
+      </c>
+      <c r="JM5" s="2">
+        <v>3</v>
+      </c>
+      <c r="JN5" s="2">
+        <v>0</v>
+      </c>
+      <c r="JO5" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="JP5" s="2">
+        <v>4</v>
+      </c>
+      <c r="JQ5" s="2">
+        <v>0</v>
+      </c>
+      <c r="JR5" s="2">
+        <v>0</v>
+      </c>
+      <c r="JS5" s="2">
+        <v>0</v>
+      </c>
+      <c r="JT5" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="JU5" s="2">
+        <v>3</v>
+      </c>
+      <c r="JV5" s="2">
+        <v>0</v>
+      </c>
+      <c r="JW5" s="2">
+        <v>0</v>
+      </c>
+      <c r="JX5" s="2">
+        <v>0</v>
+      </c>
+      <c r="JY5" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="JZ5" s="2">
+        <v>4</v>
+      </c>
+      <c r="KA5" s="2">
+        <v>1</v>
+      </c>
+      <c r="KB5" s="2">
+        <v>0</v>
+      </c>
+      <c r="KC5" s="2">
+        <v>0</v>
+      </c>
+      <c r="KD5" s="2">
+        <v>3</v>
+      </c>
+      <c r="KE5" s="2">
+        <v>0</v>
+      </c>
+      <c r="KF5" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="KG5" s="2">
+        <v>4</v>
+      </c>
+      <c r="KH5" s="2">
+        <v>0</v>
+      </c>
+      <c r="KI5" s="2">
+        <v>0</v>
+      </c>
+      <c r="KJ5" s="2">
+        <v>0</v>
+      </c>
+      <c r="KK5" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="KL5" s="2">
+        <v>3</v>
+      </c>
+      <c r="KM5" s="2">
+        <v>0</v>
+      </c>
+      <c r="KN5" s="2">
+        <v>0</v>
+      </c>
+      <c r="KO5" s="2">
+        <v>0</v>
+      </c>
+      <c r="KP5" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="KQ5" s="2">
+        <v>4</v>
+      </c>
+      <c r="KR5" s="2">
+        <v>1</v>
+      </c>
+      <c r="KS5" s="2">
+        <v>0</v>
+      </c>
+      <c r="KT5" s="2">
+        <v>0</v>
+      </c>
+      <c r="KU5" s="2">
+        <v>3</v>
+      </c>
+      <c r="KV5" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:172">
+    <row r="6" spans="1:308" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>184</v>
       </c>
@@ -5526,8 +7380,416 @@
       <c r="FP6" s="2">
         <v>0</v>
       </c>
+      <c r="FQ6" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="FR6" s="2">
+        <v>5</v>
+      </c>
+      <c r="FS6" s="2">
+        <v>0</v>
+      </c>
+      <c r="FT6" s="2">
+        <v>0</v>
+      </c>
+      <c r="FU6" s="2">
+        <v>0</v>
+      </c>
+      <c r="FV6" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="FW6" s="2">
+        <v>4</v>
+      </c>
+      <c r="FX6" s="2">
+        <v>0</v>
+      </c>
+      <c r="FY6" s="2">
+        <v>0</v>
+      </c>
+      <c r="FZ6" s="2">
+        <v>0</v>
+      </c>
+      <c r="GA6" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="GB6" s="2">
+        <v>5</v>
+      </c>
+      <c r="GC6" s="2">
+        <v>1</v>
+      </c>
+      <c r="GD6" s="2">
+        <v>0</v>
+      </c>
+      <c r="GE6" s="2">
+        <v>0</v>
+      </c>
+      <c r="GF6" s="2">
+        <v>3</v>
+      </c>
+      <c r="GG6" s="2">
+        <v>0</v>
+      </c>
+      <c r="GH6" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="GI6" s="2">
+        <v>5</v>
+      </c>
+      <c r="GJ6" s="2">
+        <v>0</v>
+      </c>
+      <c r="GK6" s="2">
+        <v>0</v>
+      </c>
+      <c r="GL6" s="2">
+        <v>0</v>
+      </c>
+      <c r="GM6" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="GN6" s="2">
+        <v>4</v>
+      </c>
+      <c r="GO6" s="2">
+        <v>0</v>
+      </c>
+      <c r="GP6" s="2">
+        <v>0</v>
+      </c>
+      <c r="GQ6" s="2">
+        <v>0</v>
+      </c>
+      <c r="GR6" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="GS6" s="2">
+        <v>5</v>
+      </c>
+      <c r="GT6" s="2">
+        <v>1</v>
+      </c>
+      <c r="GU6" s="2">
+        <v>0</v>
+      </c>
+      <c r="GV6" s="2">
+        <v>0</v>
+      </c>
+      <c r="GW6" s="2">
+        <v>3</v>
+      </c>
+      <c r="GX6" s="2">
+        <v>0</v>
+      </c>
+      <c r="GY6" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="GZ6" s="2">
+        <v>5</v>
+      </c>
+      <c r="HA6" s="2">
+        <v>0</v>
+      </c>
+      <c r="HB6" s="2">
+        <v>0</v>
+      </c>
+      <c r="HC6" s="2">
+        <v>0</v>
+      </c>
+      <c r="HD6" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="HE6" s="2">
+        <v>4</v>
+      </c>
+      <c r="HF6" s="2">
+        <v>0</v>
+      </c>
+      <c r="HG6" s="2">
+        <v>0</v>
+      </c>
+      <c r="HH6" s="2">
+        <v>0</v>
+      </c>
+      <c r="HI6" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="HJ6" s="2">
+        <v>5</v>
+      </c>
+      <c r="HK6" s="2">
+        <v>1</v>
+      </c>
+      <c r="HL6" s="2">
+        <v>0</v>
+      </c>
+      <c r="HM6" s="2">
+        <v>0</v>
+      </c>
+      <c r="HN6" s="2">
+        <v>3</v>
+      </c>
+      <c r="HO6" s="2">
+        <v>0</v>
+      </c>
+      <c r="HP6" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="HQ6" s="2">
+        <v>5</v>
+      </c>
+      <c r="HR6" s="2">
+        <v>0</v>
+      </c>
+      <c r="HS6" s="2">
+        <v>0</v>
+      </c>
+      <c r="HT6" s="2">
+        <v>0</v>
+      </c>
+      <c r="HU6" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="HV6" s="2">
+        <v>4</v>
+      </c>
+      <c r="HW6" s="2">
+        <v>0</v>
+      </c>
+      <c r="HX6" s="2">
+        <v>0</v>
+      </c>
+      <c r="HY6" s="2">
+        <v>0</v>
+      </c>
+      <c r="HZ6" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="IA6" s="2">
+        <v>5</v>
+      </c>
+      <c r="IB6" s="2">
+        <v>1</v>
+      </c>
+      <c r="IC6" s="2">
+        <v>0</v>
+      </c>
+      <c r="ID6" s="2">
+        <v>0</v>
+      </c>
+      <c r="IE6" s="2">
+        <v>3</v>
+      </c>
+      <c r="IF6" s="2">
+        <v>0</v>
+      </c>
+      <c r="IG6" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="IH6" s="2">
+        <v>5</v>
+      </c>
+      <c r="II6" s="2">
+        <v>0</v>
+      </c>
+      <c r="IJ6" s="2">
+        <v>0</v>
+      </c>
+      <c r="IK6" s="2">
+        <v>0</v>
+      </c>
+      <c r="IL6" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="IM6" s="2">
+        <v>4</v>
+      </c>
+      <c r="IN6" s="2">
+        <v>0</v>
+      </c>
+      <c r="IO6" s="2">
+        <v>0</v>
+      </c>
+      <c r="IP6" s="2">
+        <v>0</v>
+      </c>
+      <c r="IQ6" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="IR6" s="2">
+        <v>5</v>
+      </c>
+      <c r="IS6" s="2">
+        <v>1</v>
+      </c>
+      <c r="IT6" s="2">
+        <v>0</v>
+      </c>
+      <c r="IU6" s="2">
+        <v>0</v>
+      </c>
+      <c r="IV6" s="2">
+        <v>3</v>
+      </c>
+      <c r="IW6" s="2">
+        <v>0</v>
+      </c>
+      <c r="IX6" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="IY6" s="2">
+        <v>5</v>
+      </c>
+      <c r="IZ6" s="2">
+        <v>0</v>
+      </c>
+      <c r="JA6" s="2">
+        <v>0</v>
+      </c>
+      <c r="JB6" s="2">
+        <v>0</v>
+      </c>
+      <c r="JC6" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="JD6" s="2">
+        <v>4</v>
+      </c>
+      <c r="JE6" s="2">
+        <v>0</v>
+      </c>
+      <c r="JF6" s="2">
+        <v>0</v>
+      </c>
+      <c r="JG6" s="2">
+        <v>0</v>
+      </c>
+      <c r="JH6" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="JI6" s="2">
+        <v>5</v>
+      </c>
+      <c r="JJ6" s="2">
+        <v>1</v>
+      </c>
+      <c r="JK6" s="2">
+        <v>0</v>
+      </c>
+      <c r="JL6" s="2">
+        <v>0</v>
+      </c>
+      <c r="JM6" s="2">
+        <v>3</v>
+      </c>
+      <c r="JN6" s="2">
+        <v>0</v>
+      </c>
+      <c r="JO6" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="JP6" s="2">
+        <v>5</v>
+      </c>
+      <c r="JQ6" s="2">
+        <v>0</v>
+      </c>
+      <c r="JR6" s="2">
+        <v>0</v>
+      </c>
+      <c r="JS6" s="2">
+        <v>0</v>
+      </c>
+      <c r="JT6" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="JU6" s="2">
+        <v>4</v>
+      </c>
+      <c r="JV6" s="2">
+        <v>0</v>
+      </c>
+      <c r="JW6" s="2">
+        <v>0</v>
+      </c>
+      <c r="JX6" s="2">
+        <v>0</v>
+      </c>
+      <c r="JY6" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="JZ6" s="2">
+        <v>5</v>
+      </c>
+      <c r="KA6" s="2">
+        <v>1</v>
+      </c>
+      <c r="KB6" s="2">
+        <v>0</v>
+      </c>
+      <c r="KC6" s="2">
+        <v>0</v>
+      </c>
+      <c r="KD6" s="2">
+        <v>3</v>
+      </c>
+      <c r="KE6" s="2">
+        <v>0</v>
+      </c>
+      <c r="KF6" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="KG6" s="2">
+        <v>5</v>
+      </c>
+      <c r="KH6" s="2">
+        <v>0</v>
+      </c>
+      <c r="KI6" s="2">
+        <v>0</v>
+      </c>
+      <c r="KJ6" s="2">
+        <v>0</v>
+      </c>
+      <c r="KK6" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="KL6" s="2">
+        <v>4</v>
+      </c>
+      <c r="KM6" s="2">
+        <v>0</v>
+      </c>
+      <c r="KN6" s="2">
+        <v>0</v>
+      </c>
+      <c r="KO6" s="2">
+        <v>0</v>
+      </c>
+      <c r="KP6" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="KQ6" s="2">
+        <v>5</v>
+      </c>
+      <c r="KR6" s="2">
+        <v>1</v>
+      </c>
+      <c r="KS6" s="2">
+        <v>0</v>
+      </c>
+      <c r="KT6" s="2">
+        <v>0</v>
+      </c>
+      <c r="KU6" s="2">
+        <v>3</v>
+      </c>
+      <c r="KV6" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:172">
+    <row r="7" spans="1:308" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>186</v>
       </c>
@@ -6044,8 +8306,416 @@
       <c r="FP7" s="2">
         <v>0</v>
       </c>
+      <c r="FQ7" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="FR7" s="2">
+        <v>6</v>
+      </c>
+      <c r="FS7" s="2">
+        <v>0</v>
+      </c>
+      <c r="FT7" s="2">
+        <v>0</v>
+      </c>
+      <c r="FU7" s="2">
+        <v>0</v>
+      </c>
+      <c r="FV7" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="FW7" s="2">
+        <v>5</v>
+      </c>
+      <c r="FX7" s="2">
+        <v>0</v>
+      </c>
+      <c r="FY7" s="2">
+        <v>0</v>
+      </c>
+      <c r="FZ7" s="2">
+        <v>0</v>
+      </c>
+      <c r="GA7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="GB7" s="2">
+        <v>6</v>
+      </c>
+      <c r="GC7" s="2">
+        <v>1</v>
+      </c>
+      <c r="GD7" s="2">
+        <v>0</v>
+      </c>
+      <c r="GE7" s="2">
+        <v>0</v>
+      </c>
+      <c r="GF7" s="2">
+        <v>3</v>
+      </c>
+      <c r="GG7" s="2">
+        <v>0</v>
+      </c>
+      <c r="GH7" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="GI7" s="2">
+        <v>6</v>
+      </c>
+      <c r="GJ7" s="2">
+        <v>0</v>
+      </c>
+      <c r="GK7" s="2">
+        <v>0</v>
+      </c>
+      <c r="GL7" s="2">
+        <v>0</v>
+      </c>
+      <c r="GM7" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="GN7" s="2">
+        <v>5</v>
+      </c>
+      <c r="GO7" s="2">
+        <v>0</v>
+      </c>
+      <c r="GP7" s="2">
+        <v>0</v>
+      </c>
+      <c r="GQ7" s="2">
+        <v>0</v>
+      </c>
+      <c r="GR7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="GS7" s="2">
+        <v>6</v>
+      </c>
+      <c r="GT7" s="2">
+        <v>1</v>
+      </c>
+      <c r="GU7" s="2">
+        <v>0</v>
+      </c>
+      <c r="GV7" s="2">
+        <v>0</v>
+      </c>
+      <c r="GW7" s="2">
+        <v>3</v>
+      </c>
+      <c r="GX7" s="2">
+        <v>0</v>
+      </c>
+      <c r="GY7" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="GZ7" s="2">
+        <v>6</v>
+      </c>
+      <c r="HA7" s="2">
+        <v>0</v>
+      </c>
+      <c r="HB7" s="2">
+        <v>0</v>
+      </c>
+      <c r="HC7" s="2">
+        <v>0</v>
+      </c>
+      <c r="HD7" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="HE7" s="2">
+        <v>5</v>
+      </c>
+      <c r="HF7" s="2">
+        <v>0</v>
+      </c>
+      <c r="HG7" s="2">
+        <v>0</v>
+      </c>
+      <c r="HH7" s="2">
+        <v>0</v>
+      </c>
+      <c r="HI7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="HJ7" s="2">
+        <v>6</v>
+      </c>
+      <c r="HK7" s="2">
+        <v>1</v>
+      </c>
+      <c r="HL7" s="2">
+        <v>0</v>
+      </c>
+      <c r="HM7" s="2">
+        <v>0</v>
+      </c>
+      <c r="HN7" s="2">
+        <v>3</v>
+      </c>
+      <c r="HO7" s="2">
+        <v>0</v>
+      </c>
+      <c r="HP7" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="HQ7" s="2">
+        <v>6</v>
+      </c>
+      <c r="HR7" s="2">
+        <v>0</v>
+      </c>
+      <c r="HS7" s="2">
+        <v>0</v>
+      </c>
+      <c r="HT7" s="2">
+        <v>0</v>
+      </c>
+      <c r="HU7" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="HV7" s="2">
+        <v>5</v>
+      </c>
+      <c r="HW7" s="2">
+        <v>0</v>
+      </c>
+      <c r="HX7" s="2">
+        <v>0</v>
+      </c>
+      <c r="HY7" s="2">
+        <v>0</v>
+      </c>
+      <c r="HZ7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="IA7" s="2">
+        <v>6</v>
+      </c>
+      <c r="IB7" s="2">
+        <v>1</v>
+      </c>
+      <c r="IC7" s="2">
+        <v>0</v>
+      </c>
+      <c r="ID7" s="2">
+        <v>0</v>
+      </c>
+      <c r="IE7" s="2">
+        <v>3</v>
+      </c>
+      <c r="IF7" s="2">
+        <v>0</v>
+      </c>
+      <c r="IG7" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="IH7" s="2">
+        <v>6</v>
+      </c>
+      <c r="II7" s="2">
+        <v>0</v>
+      </c>
+      <c r="IJ7" s="2">
+        <v>0</v>
+      </c>
+      <c r="IK7" s="2">
+        <v>0</v>
+      </c>
+      <c r="IL7" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="IM7" s="2">
+        <v>5</v>
+      </c>
+      <c r="IN7" s="2">
+        <v>0</v>
+      </c>
+      <c r="IO7" s="2">
+        <v>0</v>
+      </c>
+      <c r="IP7" s="2">
+        <v>0</v>
+      </c>
+      <c r="IQ7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="IR7" s="2">
+        <v>6</v>
+      </c>
+      <c r="IS7" s="2">
+        <v>1</v>
+      </c>
+      <c r="IT7" s="2">
+        <v>0</v>
+      </c>
+      <c r="IU7" s="2">
+        <v>0</v>
+      </c>
+      <c r="IV7" s="2">
+        <v>3</v>
+      </c>
+      <c r="IW7" s="2">
+        <v>0</v>
+      </c>
+      <c r="IX7" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="IY7" s="2">
+        <v>6</v>
+      </c>
+      <c r="IZ7" s="2">
+        <v>0</v>
+      </c>
+      <c r="JA7" s="2">
+        <v>0</v>
+      </c>
+      <c r="JB7" s="2">
+        <v>0</v>
+      </c>
+      <c r="JC7" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="JD7" s="2">
+        <v>5</v>
+      </c>
+      <c r="JE7" s="2">
+        <v>0</v>
+      </c>
+      <c r="JF7" s="2">
+        <v>0</v>
+      </c>
+      <c r="JG7" s="2">
+        <v>0</v>
+      </c>
+      <c r="JH7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="JI7" s="2">
+        <v>6</v>
+      </c>
+      <c r="JJ7" s="2">
+        <v>1</v>
+      </c>
+      <c r="JK7" s="2">
+        <v>0</v>
+      </c>
+      <c r="JL7" s="2">
+        <v>0</v>
+      </c>
+      <c r="JM7" s="2">
+        <v>3</v>
+      </c>
+      <c r="JN7" s="2">
+        <v>0</v>
+      </c>
+      <c r="JO7" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="JP7" s="2">
+        <v>6</v>
+      </c>
+      <c r="JQ7" s="2">
+        <v>0</v>
+      </c>
+      <c r="JR7" s="2">
+        <v>0</v>
+      </c>
+      <c r="JS7" s="2">
+        <v>0</v>
+      </c>
+      <c r="JT7" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="JU7" s="2">
+        <v>5</v>
+      </c>
+      <c r="JV7" s="2">
+        <v>0</v>
+      </c>
+      <c r="JW7" s="2">
+        <v>0</v>
+      </c>
+      <c r="JX7" s="2">
+        <v>0</v>
+      </c>
+      <c r="JY7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="JZ7" s="2">
+        <v>6</v>
+      </c>
+      <c r="KA7" s="2">
+        <v>1</v>
+      </c>
+      <c r="KB7" s="2">
+        <v>0</v>
+      </c>
+      <c r="KC7" s="2">
+        <v>0</v>
+      </c>
+      <c r="KD7" s="2">
+        <v>3</v>
+      </c>
+      <c r="KE7" s="2">
+        <v>0</v>
+      </c>
+      <c r="KF7" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="KG7" s="2">
+        <v>6</v>
+      </c>
+      <c r="KH7" s="2">
+        <v>0</v>
+      </c>
+      <c r="KI7" s="2">
+        <v>0</v>
+      </c>
+      <c r="KJ7" s="2">
+        <v>0</v>
+      </c>
+      <c r="KK7" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="KL7" s="2">
+        <v>5</v>
+      </c>
+      <c r="KM7" s="2">
+        <v>0</v>
+      </c>
+      <c r="KN7" s="2">
+        <v>0</v>
+      </c>
+      <c r="KO7" s="2">
+        <v>0</v>
+      </c>
+      <c r="KP7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="KQ7" s="2">
+        <v>6</v>
+      </c>
+      <c r="KR7" s="2">
+        <v>1</v>
+      </c>
+      <c r="KS7" s="2">
+        <v>0</v>
+      </c>
+      <c r="KT7" s="2">
+        <v>0</v>
+      </c>
+      <c r="KU7" s="2">
+        <v>3</v>
+      </c>
+      <c r="KV7" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:172">
+    <row r="8" spans="1:308" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>188</v>
       </c>
@@ -6562,13 +9232,422 @@
       <c r="FP8" s="2">
         <v>0</v>
       </c>
+      <c r="FQ8" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="FR8" s="2">
+        <v>7</v>
+      </c>
+      <c r="FS8" s="2">
+        <v>0</v>
+      </c>
+      <c r="FT8" s="2">
+        <v>0</v>
+      </c>
+      <c r="FU8" s="2">
+        <v>0</v>
+      </c>
+      <c r="FV8" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="FW8" s="2">
+        <v>6</v>
+      </c>
+      <c r="FX8" s="2">
+        <v>0</v>
+      </c>
+      <c r="FY8" s="2">
+        <v>0</v>
+      </c>
+      <c r="FZ8" s="2">
+        <v>0</v>
+      </c>
+      <c r="GA8" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="GB8" s="2">
+        <v>7</v>
+      </c>
+      <c r="GC8" s="2">
+        <v>1</v>
+      </c>
+      <c r="GD8" s="2">
+        <v>0</v>
+      </c>
+      <c r="GE8" s="2">
+        <v>0</v>
+      </c>
+      <c r="GF8" s="2">
+        <v>3</v>
+      </c>
+      <c r="GG8" s="2">
+        <v>0</v>
+      </c>
+      <c r="GH8" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="GI8" s="2">
+        <v>7</v>
+      </c>
+      <c r="GJ8" s="2">
+        <v>0</v>
+      </c>
+      <c r="GK8" s="2">
+        <v>0</v>
+      </c>
+      <c r="GL8" s="2">
+        <v>0</v>
+      </c>
+      <c r="GM8" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="GN8" s="2">
+        <v>6</v>
+      </c>
+      <c r="GO8" s="2">
+        <v>0</v>
+      </c>
+      <c r="GP8" s="2">
+        <v>0</v>
+      </c>
+      <c r="GQ8" s="2">
+        <v>0</v>
+      </c>
+      <c r="GR8" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="GS8" s="2">
+        <v>7</v>
+      </c>
+      <c r="GT8" s="2">
+        <v>1</v>
+      </c>
+      <c r="GU8" s="2">
+        <v>0</v>
+      </c>
+      <c r="GV8" s="2">
+        <v>0</v>
+      </c>
+      <c r="GW8" s="2">
+        <v>3</v>
+      </c>
+      <c r="GX8" s="2">
+        <v>0</v>
+      </c>
+      <c r="GY8" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="GZ8" s="2">
+        <v>7</v>
+      </c>
+      <c r="HA8" s="2">
+        <v>0</v>
+      </c>
+      <c r="HB8" s="2">
+        <v>0</v>
+      </c>
+      <c r="HC8" s="2">
+        <v>0</v>
+      </c>
+      <c r="HD8" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="HE8" s="2">
+        <v>6</v>
+      </c>
+      <c r="HF8" s="2">
+        <v>0</v>
+      </c>
+      <c r="HG8" s="2">
+        <v>0</v>
+      </c>
+      <c r="HH8" s="2">
+        <v>0</v>
+      </c>
+      <c r="HI8" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="HJ8" s="2">
+        <v>7</v>
+      </c>
+      <c r="HK8" s="2">
+        <v>1</v>
+      </c>
+      <c r="HL8" s="2">
+        <v>0</v>
+      </c>
+      <c r="HM8" s="2">
+        <v>0</v>
+      </c>
+      <c r="HN8" s="2">
+        <v>3</v>
+      </c>
+      <c r="HO8" s="2">
+        <v>0</v>
+      </c>
+      <c r="HP8" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="HQ8" s="2">
+        <v>7</v>
+      </c>
+      <c r="HR8" s="2">
+        <v>0</v>
+      </c>
+      <c r="HS8" s="2">
+        <v>0</v>
+      </c>
+      <c r="HT8" s="2">
+        <v>0</v>
+      </c>
+      <c r="HU8" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="HV8" s="2">
+        <v>6</v>
+      </c>
+      <c r="HW8" s="2">
+        <v>0</v>
+      </c>
+      <c r="HX8" s="2">
+        <v>0</v>
+      </c>
+      <c r="HY8" s="2">
+        <v>0</v>
+      </c>
+      <c r="HZ8" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="IA8" s="2">
+        <v>7</v>
+      </c>
+      <c r="IB8" s="2">
+        <v>1</v>
+      </c>
+      <c r="IC8" s="2">
+        <v>0</v>
+      </c>
+      <c r="ID8" s="2">
+        <v>0</v>
+      </c>
+      <c r="IE8" s="2">
+        <v>3</v>
+      </c>
+      <c r="IF8" s="2">
+        <v>0</v>
+      </c>
+      <c r="IG8" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="IH8" s="2">
+        <v>7</v>
+      </c>
+      <c r="II8" s="2">
+        <v>0</v>
+      </c>
+      <c r="IJ8" s="2">
+        <v>0</v>
+      </c>
+      <c r="IK8" s="2">
+        <v>0</v>
+      </c>
+      <c r="IL8" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="IM8" s="2">
+        <v>6</v>
+      </c>
+      <c r="IN8" s="2">
+        <v>0</v>
+      </c>
+      <c r="IO8" s="2">
+        <v>0</v>
+      </c>
+      <c r="IP8" s="2">
+        <v>0</v>
+      </c>
+      <c r="IQ8" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="IR8" s="2">
+        <v>7</v>
+      </c>
+      <c r="IS8" s="2">
+        <v>1</v>
+      </c>
+      <c r="IT8" s="2">
+        <v>0</v>
+      </c>
+      <c r="IU8" s="2">
+        <v>0</v>
+      </c>
+      <c r="IV8" s="2">
+        <v>3</v>
+      </c>
+      <c r="IW8" s="2">
+        <v>0</v>
+      </c>
+      <c r="IX8" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="IY8" s="2">
+        <v>7</v>
+      </c>
+      <c r="IZ8" s="2">
+        <v>0</v>
+      </c>
+      <c r="JA8" s="2">
+        <v>0</v>
+      </c>
+      <c r="JB8" s="2">
+        <v>0</v>
+      </c>
+      <c r="JC8" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="JD8" s="2">
+        <v>6</v>
+      </c>
+      <c r="JE8" s="2">
+        <v>0</v>
+      </c>
+      <c r="JF8" s="2">
+        <v>0</v>
+      </c>
+      <c r="JG8" s="2">
+        <v>0</v>
+      </c>
+      <c r="JH8" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="JI8" s="2">
+        <v>7</v>
+      </c>
+      <c r="JJ8" s="2">
+        <v>1</v>
+      </c>
+      <c r="JK8" s="2">
+        <v>0</v>
+      </c>
+      <c r="JL8" s="2">
+        <v>0</v>
+      </c>
+      <c r="JM8" s="2">
+        <v>3</v>
+      </c>
+      <c r="JN8" s="2">
+        <v>0</v>
+      </c>
+      <c r="JO8" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="JP8" s="2">
+        <v>7</v>
+      </c>
+      <c r="JQ8" s="2">
+        <v>0</v>
+      </c>
+      <c r="JR8" s="2">
+        <v>0</v>
+      </c>
+      <c r="JS8" s="2">
+        <v>0</v>
+      </c>
+      <c r="JT8" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="JU8" s="2">
+        <v>6</v>
+      </c>
+      <c r="JV8" s="2">
+        <v>0</v>
+      </c>
+      <c r="JW8" s="2">
+        <v>0</v>
+      </c>
+      <c r="JX8" s="2">
+        <v>0</v>
+      </c>
+      <c r="JY8" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="JZ8" s="2">
+        <v>7</v>
+      </c>
+      <c r="KA8" s="2">
+        <v>1</v>
+      </c>
+      <c r="KB8" s="2">
+        <v>0</v>
+      </c>
+      <c r="KC8" s="2">
+        <v>0</v>
+      </c>
+      <c r="KD8" s="2">
+        <v>3</v>
+      </c>
+      <c r="KE8" s="2">
+        <v>0</v>
+      </c>
+      <c r="KF8" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="KG8" s="2">
+        <v>7</v>
+      </c>
+      <c r="KH8" s="2">
+        <v>0</v>
+      </c>
+      <c r="KI8" s="2">
+        <v>0</v>
+      </c>
+      <c r="KJ8" s="2">
+        <v>0</v>
+      </c>
+      <c r="KK8" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="KL8" s="2">
+        <v>6</v>
+      </c>
+      <c r="KM8" s="2">
+        <v>0</v>
+      </c>
+      <c r="KN8" s="2">
+        <v>0</v>
+      </c>
+      <c r="KO8" s="2">
+        <v>0</v>
+      </c>
+      <c r="KP8" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="KQ8" s="2">
+        <v>7</v>
+      </c>
+      <c r="KR8" s="2">
+        <v>1</v>
+      </c>
+      <c r="KS8" s="2">
+        <v>0</v>
+      </c>
+      <c r="KT8" s="2">
+        <v>0</v>
+      </c>
+      <c r="KU8" s="2">
+        <v>3</v>
+      </c>
+      <c r="KV8" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="6:6">
+    <row r="19" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F19" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/Table/Table_xls/f福利奖励/累积登陆礼包.xlsx
+++ b/Table/Table_xls/f福利奖励/累积登陆礼包.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\外包\我叫MT\project_table\Table\Table_xls\f福利奖励\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A94B5E-2BD6-48E5-A1F4-710D13357EC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DCDD84-CB62-4325-B9C2-4ACF74913CB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -483,6 +483,21 @@
         </r>
       </text>
     </comment>
+    <comment ref="C15" authorId="0" shapeId="0" xr:uid="{F1EF1B85-CE76-4C39-A4F9-C1FBFB18B38D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">1=绑定
+0=不绑定
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -1247,57 +1262,6 @@
     </r>
   </si>
   <si>
-    <t>角色10道具1</t>
-  </si>
-  <si>
-    <t>角色10数量1</t>
-  </si>
-  <si>
-    <t>角色10道具1是否绑定</t>
-  </si>
-  <si>
-    <t>角色10宠物1</t>
-  </si>
-  <si>
-    <t>角色10宠物1是否绑定</t>
-  </si>
-  <si>
-    <t>角色10道具2</t>
-  </si>
-  <si>
-    <t>角色10数量2</t>
-  </si>
-  <si>
-    <t>角色10道具2是否绑定</t>
-  </si>
-  <si>
-    <t>角色10宠物2</t>
-  </si>
-  <si>
-    <t>角色10宠物2是否绑定</t>
-  </si>
-  <si>
-    <t>角色10道具3</t>
-  </si>
-  <si>
-    <t>角色10数量3</t>
-  </si>
-  <si>
-    <t>角色10道具3是否绑定</t>
-  </si>
-  <si>
-    <t>角色10宠物3</t>
-  </si>
-  <si>
-    <t>角色10宠物3是否绑定</t>
-  </si>
-  <si>
-    <t>角色10物品需要包裹格</t>
-  </si>
-  <si>
-    <t>角色10宠物需要包裹格</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -1352,412 +1316,480 @@
     <t>set:jiangli image:di7tian</t>
   </si>
   <si>
-    <t>角色11物品需要包裹格</t>
-  </si>
-  <si>
-    <t>角色11宠物需要包裹格</t>
-  </si>
-  <si>
-    <t>角色11道具1</t>
-  </si>
-  <si>
-    <t>角色11数量1</t>
-  </si>
-  <si>
-    <t>角色11道具1是否绑定</t>
-  </si>
-  <si>
-    <t>角色11宠物1</t>
-  </si>
-  <si>
-    <t>角色11宠物1是否绑定</t>
-  </si>
-  <si>
-    <t>角色11道具2</t>
-  </si>
-  <si>
-    <t>角色11数量2</t>
-  </si>
-  <si>
-    <t>角色11道具2是否绑定</t>
-  </si>
-  <si>
-    <t>角色11宠物2</t>
-  </si>
-  <si>
-    <t>角色11宠物2是否绑定</t>
-  </si>
-  <si>
-    <t>角色11道具3</t>
-  </si>
-  <si>
-    <t>角色11数量3</t>
-  </si>
-  <si>
-    <t>角色11道具3是否绑定</t>
-  </si>
-  <si>
-    <t>角色11宠物3</t>
-  </si>
-  <si>
-    <t>角色11宠物3是否绑定</t>
-  </si>
-  <si>
-    <t>角色12道具1</t>
-  </si>
-  <si>
-    <t>角色12数量1</t>
-  </si>
-  <si>
-    <t>角色12道具1是否绑定</t>
-  </si>
-  <si>
-    <t>角色12宠物1</t>
-  </si>
-  <si>
-    <t>角色12宠物1是否绑定</t>
-  </si>
-  <si>
-    <t>角色12道具2</t>
-  </si>
-  <si>
-    <t>角色12数量2</t>
-  </si>
-  <si>
-    <t>角色12道具2是否绑定</t>
-  </si>
-  <si>
-    <t>角色12宠物2</t>
-  </si>
-  <si>
-    <t>角色12宠物2是否绑定</t>
-  </si>
-  <si>
-    <t>角色12道具3</t>
-  </si>
-  <si>
-    <t>角色12数量3</t>
-  </si>
-  <si>
-    <t>角色12道具3是否绑定</t>
-  </si>
-  <si>
-    <t>角色12宠物3</t>
-  </si>
-  <si>
-    <t>角色12宠物3是否绑定</t>
-  </si>
-  <si>
-    <t>角色12物品需要包裹格</t>
-  </si>
-  <si>
-    <t>角色12宠物需要包裹格</t>
-  </si>
-  <si>
-    <t>角色13道具1</t>
-  </si>
-  <si>
-    <t>角色13数量1</t>
-  </si>
-  <si>
-    <t>角色13道具1是否绑定</t>
-  </si>
-  <si>
-    <t>角色13宠物1</t>
-  </si>
-  <si>
-    <t>角色13宠物1是否绑定</t>
-  </si>
-  <si>
-    <t>角色13道具2</t>
-  </si>
-  <si>
-    <t>角色13数量2</t>
-  </si>
-  <si>
-    <t>角色13道具2是否绑定</t>
-  </si>
-  <si>
-    <t>角色13宠物2</t>
-  </si>
-  <si>
-    <t>角色13宠物2是否绑定</t>
-  </si>
-  <si>
-    <t>角色13道具3</t>
-  </si>
-  <si>
-    <t>角色13数量3</t>
-  </si>
-  <si>
-    <t>角色13道具3是否绑定</t>
-  </si>
-  <si>
-    <t>角色13宠物3</t>
-  </si>
-  <si>
-    <t>角色13宠物3是否绑定</t>
-  </si>
-  <si>
-    <t>角色13物品需要包裹格</t>
-  </si>
-  <si>
-    <t>角色13宠物需要包裹格</t>
-  </si>
-  <si>
-    <t>角色14道具1</t>
-  </si>
-  <si>
-    <t>角色14数量1</t>
-  </si>
-  <si>
-    <t>角色14道具1是否绑定</t>
-  </si>
-  <si>
-    <t>角色14宠物1</t>
-  </si>
-  <si>
-    <t>角色14宠物1是否绑定</t>
-  </si>
-  <si>
-    <t>角色14道具2</t>
-  </si>
-  <si>
-    <t>角色14数量2</t>
-  </si>
-  <si>
-    <t>角色14道具2是否绑定</t>
-  </si>
-  <si>
-    <t>角色14宠物2</t>
-  </si>
-  <si>
-    <t>角色14宠物2是否绑定</t>
-  </si>
-  <si>
-    <t>角色14道具3</t>
-  </si>
-  <si>
-    <t>角色14数量3</t>
-  </si>
-  <si>
-    <t>角色14道具3是否绑定</t>
-  </si>
-  <si>
-    <t>角色14宠物3</t>
-  </si>
-  <si>
-    <t>角色14宠物3是否绑定</t>
-  </si>
-  <si>
-    <t>角色14物品需要包裹格</t>
-  </si>
-  <si>
-    <t>角色14宠物需要包裹格</t>
-  </si>
-  <si>
-    <t>角色15道具1</t>
-  </si>
-  <si>
-    <t>角色15数量1</t>
-  </si>
-  <si>
-    <t>角色15道具1是否绑定</t>
-  </si>
-  <si>
-    <t>角色15宠物1</t>
-  </si>
-  <si>
-    <t>角色15宠物1是否绑定</t>
-  </si>
-  <si>
-    <t>角色15道具2</t>
-  </si>
-  <si>
-    <t>角色15数量2</t>
-  </si>
-  <si>
-    <t>角色15道具2是否绑定</t>
-  </si>
-  <si>
-    <t>角色15宠物2</t>
-  </si>
-  <si>
-    <t>角色15宠物2是否绑定</t>
-  </si>
-  <si>
-    <t>角色15道具3</t>
-  </si>
-  <si>
-    <t>角色15数量3</t>
-  </si>
-  <si>
-    <t>角色15道具3是否绑定</t>
-  </si>
-  <si>
-    <t>角色15宠物3</t>
-  </si>
-  <si>
-    <t>角色15宠物3是否绑定</t>
-  </si>
-  <si>
-    <t>角色15物品需要包裹格</t>
-  </si>
-  <si>
-    <t>角色15宠物需要包裹格</t>
-  </si>
-  <si>
-    <t>角色16道具1</t>
-  </si>
-  <si>
-    <t>角色16数量1</t>
-  </si>
-  <si>
-    <t>角色16道具1是否绑定</t>
-  </si>
-  <si>
-    <t>角色16宠物1</t>
-  </si>
-  <si>
-    <t>角色16宠物1是否绑定</t>
-  </si>
-  <si>
-    <t>角色16道具2</t>
-  </si>
-  <si>
-    <t>角色16数量2</t>
-  </si>
-  <si>
-    <t>角色16道具2是否绑定</t>
-  </si>
-  <si>
-    <t>角色16宠物2</t>
-  </si>
-  <si>
-    <t>角色16宠物2是否绑定</t>
-  </si>
-  <si>
-    <t>角色16道具3</t>
-  </si>
-  <si>
-    <t>角色16数量3</t>
-  </si>
-  <si>
-    <t>角色16道具3是否绑定</t>
-  </si>
-  <si>
-    <t>角色16宠物3</t>
-  </si>
-  <si>
-    <t>角色16宠物3是否绑定</t>
-  </si>
-  <si>
-    <t>角色16物品需要包裹格</t>
-  </si>
-  <si>
-    <t>角色16宠物需要包裹格</t>
-  </si>
-  <si>
-    <t>角色17道具1</t>
-  </si>
-  <si>
-    <t>角色17数量1</t>
-  </si>
-  <si>
-    <t>角色17道具1是否绑定</t>
-  </si>
-  <si>
-    <t>角色17宠物1</t>
-  </si>
-  <si>
-    <t>角色17宠物1是否绑定</t>
-  </si>
-  <si>
-    <t>角色17道具2</t>
-  </si>
-  <si>
-    <t>角色17数量2</t>
-  </si>
-  <si>
-    <t>角色17道具2是否绑定</t>
-  </si>
-  <si>
-    <t>角色17宠物2</t>
-  </si>
-  <si>
-    <t>角色17宠物2是否绑定</t>
-  </si>
-  <si>
-    <t>角色17道具3</t>
-  </si>
-  <si>
-    <t>角色17数量3</t>
-  </si>
-  <si>
-    <t>角色17道具3是否绑定</t>
-  </si>
-  <si>
-    <t>角色17宠物3</t>
-  </si>
-  <si>
-    <t>角色17宠物3是否绑定</t>
-  </si>
-  <si>
-    <t>角色17物品需要包裹格</t>
-  </si>
-  <si>
-    <t>角色17宠物需要包裹格</t>
-  </si>
-  <si>
-    <t>角色18道具1</t>
-  </si>
-  <si>
-    <t>角色18数量1</t>
-  </si>
-  <si>
-    <t>角色18道具1是否绑定</t>
-  </si>
-  <si>
-    <t>角色18宠物1</t>
-  </si>
-  <si>
-    <t>角色18宠物1是否绑定</t>
-  </si>
-  <si>
-    <t>角色18道具2</t>
-  </si>
-  <si>
-    <t>角色18数量2</t>
-  </si>
-  <si>
-    <t>角色18道具2是否绑定</t>
-  </si>
-  <si>
-    <t>角色18宠物2</t>
-  </si>
-  <si>
-    <t>角色18宠物2是否绑定</t>
-  </si>
-  <si>
-    <t>角色18道具3</t>
-  </si>
-  <si>
-    <t>角色18数量3</t>
-  </si>
-  <si>
-    <t>角色18道具3是否绑定</t>
-  </si>
-  <si>
-    <t>角色18宠物3</t>
-  </si>
-  <si>
-    <t>角色18宠物3是否绑定</t>
-  </si>
-  <si>
-    <t>角色18物品需要包裹格</t>
-  </si>
-  <si>
-    <t>角色18宠物需要包裹格</t>
+    <t>角色ID10道具1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色ID10数量1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色ID10道具1是否绑定</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色ID10宠物1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色ID10宠物1是否绑定</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色ID10道具2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色ID10数量2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色ID10道具2是否绑定</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色ID10宠物2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色ID10宠物2是否绑定</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色ID10道具3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色ID10数量3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色ID10道具3是否绑定</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色ID10宠物3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色ID10宠物3是否绑定</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色ID10物品需要包裹格</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色ID10宠物需要包裹格</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色ID11数量1</t>
+  </si>
+  <si>
+    <t>角色ID11道具1是否绑定</t>
+  </si>
+  <si>
+    <t>角色ID11宠物1</t>
+  </si>
+  <si>
+    <t>角色ID11道具1</t>
+  </si>
+  <si>
+    <t>角色ID11宠物1是否绑定</t>
+  </si>
+  <si>
+    <t>角色ID11道具2</t>
+  </si>
+  <si>
+    <t>角色ID11数量2</t>
+  </si>
+  <si>
+    <t>角色ID11道具2是否绑定</t>
+  </si>
+  <si>
+    <t>角色ID11宠物2</t>
+  </si>
+  <si>
+    <t>角色ID11宠物2是否绑定</t>
+  </si>
+  <si>
+    <t>角色ID11道具3</t>
+  </si>
+  <si>
+    <t>角色ID11数量3</t>
+  </si>
+  <si>
+    <t>角色ID11道具3是否绑定</t>
+  </si>
+  <si>
+    <t>角色ID11宠物3</t>
+  </si>
+  <si>
+    <t>角色ID11宠物3是否绑定</t>
+  </si>
+  <si>
+    <t>角色ID11物品需要包裹格</t>
+  </si>
+  <si>
+    <t>角色ID11宠物需要包裹格</t>
+  </si>
+  <si>
+    <t>角色ID12道具1</t>
+  </si>
+  <si>
+    <t>角色ID12数量1</t>
+  </si>
+  <si>
+    <t>角色ID12道具1是否绑定</t>
+  </si>
+  <si>
+    <t>角色ID12宠物1</t>
+  </si>
+  <si>
+    <t>角色ID12宠物1是否绑定</t>
+  </si>
+  <si>
+    <t>角色ID12道具2</t>
+  </si>
+  <si>
+    <t>角色ID12数量2</t>
+  </si>
+  <si>
+    <t>角色ID12道具2是否绑定</t>
+  </si>
+  <si>
+    <t>角色ID12宠物2</t>
+  </si>
+  <si>
+    <t>角色ID12宠物2是否绑定</t>
+  </si>
+  <si>
+    <t>角色ID12道具3</t>
+  </si>
+  <si>
+    <t>角色ID12数量3</t>
+  </si>
+  <si>
+    <t>角色ID12道具3是否绑定</t>
+  </si>
+  <si>
+    <t>角色ID12宠物3</t>
+  </si>
+  <si>
+    <t>角色ID12宠物3是否绑定</t>
+  </si>
+  <si>
+    <t>角色ID12物品需要包裹格</t>
+  </si>
+  <si>
+    <t>角色ID12宠物需要包裹格</t>
+  </si>
+  <si>
+    <t>角色ID13道具1</t>
+  </si>
+  <si>
+    <t>角色ID13数量1</t>
+  </si>
+  <si>
+    <t>角色ID13道具1是否绑定</t>
+  </si>
+  <si>
+    <t>角色ID13宠物1</t>
+  </si>
+  <si>
+    <t>角色ID13宠物1是否绑定</t>
+  </si>
+  <si>
+    <t>角色ID13道具2</t>
+  </si>
+  <si>
+    <t>角色ID13数量2</t>
+  </si>
+  <si>
+    <t>角色ID13道具2是否绑定</t>
+  </si>
+  <si>
+    <t>角色ID13宠物2</t>
+  </si>
+  <si>
+    <t>角色ID13宠物2是否绑定</t>
+  </si>
+  <si>
+    <t>角色ID13道具3</t>
+  </si>
+  <si>
+    <t>角色ID13数量3</t>
+  </si>
+  <si>
+    <t>角色ID13道具3是否绑定</t>
+  </si>
+  <si>
+    <t>角色ID13宠物3</t>
+  </si>
+  <si>
+    <t>角色ID13宠物3是否绑定</t>
+  </si>
+  <si>
+    <t>角色ID13物品需要包裹格</t>
+  </si>
+  <si>
+    <t>角色ID13宠物需要包裹格</t>
+  </si>
+  <si>
+    <t>角色ID14道具1</t>
+  </si>
+  <si>
+    <t>角色ID14数量1</t>
+  </si>
+  <si>
+    <t>角色ID14道具1是否绑定</t>
+  </si>
+  <si>
+    <t>角色ID14宠物1</t>
+  </si>
+  <si>
+    <t>角色ID14宠物1是否绑定</t>
+  </si>
+  <si>
+    <t>角色ID14道具2</t>
+  </si>
+  <si>
+    <t>角色ID14数量2</t>
+  </si>
+  <si>
+    <t>角色ID14道具2是否绑定</t>
+  </si>
+  <si>
+    <t>角色ID14宠物2</t>
+  </si>
+  <si>
+    <t>角色ID14宠物2是否绑定</t>
+  </si>
+  <si>
+    <t>角色ID14道具3</t>
+  </si>
+  <si>
+    <t>角色ID14数量3</t>
+  </si>
+  <si>
+    <t>角色ID14道具3是否绑定</t>
+  </si>
+  <si>
+    <t>角色ID14宠物3</t>
+  </si>
+  <si>
+    <t>角色ID14宠物3是否绑定</t>
+  </si>
+  <si>
+    <t>角色ID14物品需要包裹格</t>
+  </si>
+  <si>
+    <t>角色ID14宠物需要包裹格</t>
+  </si>
+  <si>
+    <t>角色ID15道具1</t>
+  </si>
+  <si>
+    <t>角色ID15数量1</t>
+  </si>
+  <si>
+    <t>角色ID15道具1是否绑定</t>
+  </si>
+  <si>
+    <t>角色ID15宠物1</t>
+  </si>
+  <si>
+    <t>角色ID15宠物1是否绑定</t>
+  </si>
+  <si>
+    <t>角色ID15道具2</t>
+  </si>
+  <si>
+    <t>角色ID15数量2</t>
+  </si>
+  <si>
+    <t>角色ID15道具2是否绑定</t>
+  </si>
+  <si>
+    <t>角色ID15宠物2</t>
+  </si>
+  <si>
+    <t>角色ID15宠物2是否绑定</t>
+  </si>
+  <si>
+    <t>角色ID15道具3</t>
+  </si>
+  <si>
+    <t>角色ID15数量3</t>
+  </si>
+  <si>
+    <t>角色ID15道具3是否绑定</t>
+  </si>
+  <si>
+    <t>角色ID15宠物3</t>
+  </si>
+  <si>
+    <t>角色ID15宠物3是否绑定</t>
+  </si>
+  <si>
+    <t>角色ID15物品需要包裹格</t>
+  </si>
+  <si>
+    <t>角色ID15宠物需要包裹格</t>
+  </si>
+  <si>
+    <t>角色ID16道具1</t>
+  </si>
+  <si>
+    <t>角色ID16数量1</t>
+  </si>
+  <si>
+    <t>角色ID16道具1是否绑定</t>
+  </si>
+  <si>
+    <t>角色ID16宠物1</t>
+  </si>
+  <si>
+    <t>角色ID16宠物1是否绑定</t>
+  </si>
+  <si>
+    <t>角色ID16道具2</t>
+  </si>
+  <si>
+    <t>角色ID16数量2</t>
+  </si>
+  <si>
+    <t>角色ID16道具2是否绑定</t>
+  </si>
+  <si>
+    <t>角色ID16宠物2</t>
+  </si>
+  <si>
+    <t>角色ID16宠物2是否绑定</t>
+  </si>
+  <si>
+    <t>角色ID16道具3</t>
+  </si>
+  <si>
+    <t>角色ID16数量3</t>
+  </si>
+  <si>
+    <t>角色ID16道具3是否绑定</t>
+  </si>
+  <si>
+    <t>角色ID16宠物3</t>
+  </si>
+  <si>
+    <t>角色ID16宠物3是否绑定</t>
+  </si>
+  <si>
+    <t>角色ID16物品需要包裹格</t>
+  </si>
+  <si>
+    <t>角色ID16宠物需要包裹格</t>
+  </si>
+  <si>
+    <t>角色ID17道具1</t>
+  </si>
+  <si>
+    <t>角色ID17数量1</t>
+  </si>
+  <si>
+    <t>角色ID17道具1是否绑定</t>
+  </si>
+  <si>
+    <t>角色ID17宠物1</t>
+  </si>
+  <si>
+    <t>角色ID17宠物1是否绑定</t>
+  </si>
+  <si>
+    <t>角色ID17道具2</t>
+  </si>
+  <si>
+    <t>角色ID17数量2</t>
+  </si>
+  <si>
+    <t>角色ID17道具2是否绑定</t>
+  </si>
+  <si>
+    <t>角色ID17宠物2</t>
+  </si>
+  <si>
+    <t>角色ID17宠物2是否绑定</t>
+  </si>
+  <si>
+    <t>角色ID17道具3</t>
+  </si>
+  <si>
+    <t>角色ID17数量3</t>
+  </si>
+  <si>
+    <t>角色ID17道具3是否绑定</t>
+  </si>
+  <si>
+    <t>角色ID17宠物3</t>
+  </si>
+  <si>
+    <t>角色ID17宠物3是否绑定</t>
+  </si>
+  <si>
+    <t>角色ID17物品需要包裹格</t>
+  </si>
+  <si>
+    <t>角色ID17宠物需要包裹格</t>
+  </si>
+  <si>
+    <t>角色ID18道具1</t>
+  </si>
+  <si>
+    <t>角色ID18数量1</t>
+  </si>
+  <si>
+    <t>角色ID18道具1是否绑定</t>
+  </si>
+  <si>
+    <t>角色ID18宠物1</t>
+  </si>
+  <si>
+    <t>角色ID18宠物1是否绑定</t>
+  </si>
+  <si>
+    <t>角色ID18道具2</t>
+  </si>
+  <si>
+    <t>角色ID18数量2</t>
+  </si>
+  <si>
+    <t>角色ID18道具2是否绑定</t>
+  </si>
+  <si>
+    <t>角色ID18宠物2</t>
+  </si>
+  <si>
+    <t>角色ID18宠物2是否绑定</t>
+  </si>
+  <si>
+    <t>角色ID18道具3</t>
+  </si>
+  <si>
+    <t>角色ID18数量3</t>
+  </si>
+  <si>
+    <t>角色ID18道具3是否绑定</t>
+  </si>
+  <si>
+    <t>角色ID18宠物3</t>
+  </si>
+  <si>
+    <t>角色ID18宠物3是否绑定</t>
+  </si>
+  <si>
+    <t>角色ID18物品需要包裹格</t>
+  </si>
+  <si>
+    <t>角色ID18宠物需要包裹格</t>
   </si>
 </sst>
 </file>
@@ -1855,19 +1887,41 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2216,24 +2270,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XED19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="KD1" workbookViewId="0">
-      <selection activeCell="KQ18" activeCellId="1" sqref="KX9 KQ18"/>
+    <sheetView tabSelected="1" topLeftCell="FD1" workbookViewId="0">
+      <selection activeCell="FT6" sqref="FT6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.28515625" style="1"/>
-    <col min="3" max="3" width="14" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="1" customWidth="1"/>
     <col min="4" max="7" width="10.28515625" style="1"/>
     <col min="8" max="8" width="13.7109375" style="1" customWidth="1"/>
     <col min="9" max="12" width="10.28515625" style="1"/>
-    <col min="13" max="13" width="26.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="1" customWidth="1"/>
     <col min="14" max="29" width="10.28515625" style="1"/>
     <col min="30" max="30" width="22.7109375" style="1" customWidth="1"/>
     <col min="31" max="16358" width="10.28515625" style="1"/>
+    <col min="16359" max="16384" width="10.28515625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:308" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:308" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2700,106 +2756,106 @@
         <v>154</v>
       </c>
       <c r="EZ1" s="4" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="FA1" s="4" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="FB1" s="4" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="FC1" s="4" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="FD1" s="4" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="FE1" s="4" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="FF1" s="4" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="FG1" s="4" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="FH1" s="4" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="FI1" s="4" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="FJ1" s="4" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="FK1" s="4" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="FL1" s="4" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="FM1" s="4" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="FN1" s="4" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="FO1" s="4" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="FP1" s="4" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="FQ1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="FR1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="FS1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="FT1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="FR1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="FS1" s="1" t="s">
+      <c r="FU1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="FT1" s="1" t="s">
+      <c r="FV1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="FU1" s="1" t="s">
+      <c r="FW1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="FV1" s="1" t="s">
+      <c r="FX1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="FW1" s="1" t="s">
+      <c r="FY1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="FX1" s="1" t="s">
+      <c r="FZ1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="FY1" s="1" t="s">
+      <c r="GA1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="FZ1" s="1" t="s">
+      <c r="GB1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="GA1" s="1" t="s">
+      <c r="GC1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="GB1" s="1" t="s">
+      <c r="GD1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="GC1" s="1" t="s">
+      <c r="GE1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="GD1" s="1" t="s">
+      <c r="GF1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="GE1" s="1" t="s">
+      <c r="GG1" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="GF1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="GG1" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="GH1" s="1" t="s">
         <v>207</v>
@@ -3159,15 +3215,15 @@
         <v>325</v>
       </c>
     </row>
-    <row r="2" spans="1:308" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:308" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -3182,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="I2" s="2">
         <v>1</v>
@@ -3197,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="N2" s="2">
         <v>1</v>
@@ -3218,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="U2" s="2">
         <v>1</v>
@@ -3233,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="Z2" s="2">
         <v>1</v>
@@ -3248,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="AE2" s="2">
         <v>1</v>
@@ -3269,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="AL2" s="2">
         <v>1</v>
@@ -3284,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="AQ2" s="2">
         <v>1</v>
@@ -3299,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="AV2" s="2">
         <v>1</v>
@@ -3320,7 +3376,7 @@
         <v>0</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="BC2" s="2">
         <v>1</v>
@@ -3335,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="BH2" s="2">
         <v>1</v>
@@ -3350,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="BM2" s="2">
         <v>1</v>
@@ -3371,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="BT2" s="2">
         <v>1</v>
@@ -3386,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="BY2" s="2">
         <v>1</v>
@@ -3401,7 +3457,7 @@
         <v>0</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="CD2" s="2">
         <v>1</v>
@@ -3422,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="CK2" s="2">
         <v>1</v>
@@ -3437,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="CP2" s="2">
         <v>1</v>
@@ -3452,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="CU2" s="2">
         <v>1</v>
@@ -3473,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="DB2" s="2">
         <v>1</v>
@@ -3488,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="DG2" s="2">
         <v>1</v>
@@ -3503,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="DL2" s="2">
         <v>1</v>
@@ -3524,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="DR2" s="2" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="DS2" s="2">
         <v>1</v>
@@ -3539,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="DW2" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="DX2" s="2">
         <v>1</v>
@@ -3554,7 +3610,7 @@
         <v>0</v>
       </c>
       <c r="EB2" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="EC2" s="2">
         <v>1</v>
@@ -3575,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="EI2" s="2" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="EJ2" s="2">
         <v>1</v>
@@ -3590,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="EN2" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="EO2" s="2">
         <v>1</v>
@@ -3605,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="ES2" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="ET2" s="2">
         <v>1</v>
@@ -3626,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="EZ2" s="2" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="FA2" s="2">
         <v>1</v>
@@ -3641,7 +3697,7 @@
         <v>0</v>
       </c>
       <c r="FE2" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="FF2" s="2">
         <v>1</v>
@@ -3656,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="FJ2" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="FK2" s="2">
         <v>1</v>
@@ -3677,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="FQ2" s="2" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="FR2" s="2">
         <v>1</v>
@@ -3692,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="FV2" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="FW2" s="2">
         <v>1</v>
@@ -3707,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="GA2" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="GB2" s="2">
         <v>1</v>
@@ -3728,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="GH2" s="2" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="GI2" s="2">
         <v>1</v>
@@ -3743,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="GM2" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="GN2" s="2">
         <v>1</v>
@@ -3758,7 +3814,7 @@
         <v>0</v>
       </c>
       <c r="GR2" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="GS2" s="2">
         <v>1</v>
@@ -3779,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="GY2" s="2" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="GZ2" s="2">
         <v>1</v>
@@ -3794,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="HD2" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="HE2" s="2">
         <v>1</v>
@@ -3809,7 +3865,7 @@
         <v>0</v>
       </c>
       <c r="HI2" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="HJ2" s="2">
         <v>1</v>
@@ -3830,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="HP2" s="2" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="HQ2" s="2">
         <v>1</v>
@@ -3845,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="HU2" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="HV2" s="2">
         <v>1</v>
@@ -3860,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="HZ2" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="IA2" s="2">
         <v>1</v>
@@ -3881,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="IG2" s="2" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="IH2" s="2">
         <v>1</v>
@@ -3896,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="IL2" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="IM2" s="2">
         <v>1</v>
@@ -3911,7 +3967,7 @@
         <v>0</v>
       </c>
       <c r="IQ2" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="IR2" s="2">
         <v>1</v>
@@ -3932,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="IX2" s="2" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="IY2" s="2">
         <v>1</v>
@@ -3947,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="JC2" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="JD2" s="2">
         <v>1</v>
@@ -3962,7 +4018,7 @@
         <v>0</v>
       </c>
       <c r="JH2" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="JI2" s="2">
         <v>1</v>
@@ -3983,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="JO2" s="2" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="JP2" s="2">
         <v>1</v>
@@ -3998,7 +4054,7 @@
         <v>0</v>
       </c>
       <c r="JT2" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="JU2" s="2">
         <v>1</v>
@@ -4013,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="JY2" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="JZ2" s="2">
         <v>1</v>
@@ -4034,7 +4090,7 @@
         <v>0</v>
       </c>
       <c r="KF2" s="2" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="KG2" s="2">
         <v>1</v>
@@ -4049,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="KK2" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="KL2" s="2">
         <v>1</v>
@@ -4064,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="KP2" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="KQ2" s="2">
         <v>1</v>
@@ -4085,15 +4141,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:308" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:308" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
@@ -4108,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
@@ -4123,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="N3" s="2">
         <v>2</v>
@@ -4144,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="U3" s="2">
         <v>2</v>
@@ -4159,7 +4215,7 @@
         <v>0</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="Z3" s="2">
         <v>1</v>
@@ -4174,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="AE3" s="2">
         <v>2</v>
@@ -4195,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="AL3" s="2">
         <v>2</v>
@@ -4210,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="AP3" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="AQ3" s="2">
         <v>1</v>
@@ -4225,7 +4281,7 @@
         <v>0</v>
       </c>
       <c r="AU3" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="AV3" s="2">
         <v>2</v>
@@ -4246,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="BB3" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="BC3" s="2">
         <v>2</v>
@@ -4261,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="BG3" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="BH3" s="2">
         <v>1</v>
@@ -4276,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="BL3" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="BM3" s="2">
         <v>2</v>
@@ -4297,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="BS3" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="BT3" s="2">
         <v>2</v>
@@ -4312,7 +4368,7 @@
         <v>0</v>
       </c>
       <c r="BX3" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="BY3" s="2">
         <v>1</v>
@@ -4327,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="CC3" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="CD3" s="2">
         <v>2</v>
@@ -4348,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="CJ3" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="CK3" s="2">
         <v>2</v>
@@ -4363,7 +4419,7 @@
         <v>0</v>
       </c>
       <c r="CO3" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="CP3" s="2">
         <v>1</v>
@@ -4378,7 +4434,7 @@
         <v>0</v>
       </c>
       <c r="CT3" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="CU3" s="2">
         <v>2</v>
@@ -4399,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="DA3" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="DB3" s="2">
         <v>2</v>
@@ -4414,7 +4470,7 @@
         <v>0</v>
       </c>
       <c r="DF3" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="DG3" s="2">
         <v>1</v>
@@ -4429,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="DK3" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="DL3" s="2">
         <v>2</v>
@@ -4450,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="DR3" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="DS3" s="2">
         <v>2</v>
@@ -4465,7 +4521,7 @@
         <v>0</v>
       </c>
       <c r="DW3" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="DX3" s="2">
         <v>1</v>
@@ -4480,7 +4536,7 @@
         <v>0</v>
       </c>
       <c r="EB3" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="EC3" s="2">
         <v>2</v>
@@ -4501,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="EI3" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="EJ3" s="2">
         <v>2</v>
@@ -4516,7 +4572,7 @@
         <v>0</v>
       </c>
       <c r="EN3" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="EO3" s="2">
         <v>1</v>
@@ -4531,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="ES3" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="ET3" s="2">
         <v>2</v>
@@ -4552,7 +4608,7 @@
         <v>0</v>
       </c>
       <c r="EZ3" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="FA3" s="2">
         <v>2</v>
@@ -4567,7 +4623,7 @@
         <v>0</v>
       </c>
       <c r="FE3" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="FF3" s="2">
         <v>1</v>
@@ -4582,7 +4638,7 @@
         <v>0</v>
       </c>
       <c r="FJ3" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="FK3" s="2">
         <v>2</v>
@@ -4603,7 +4659,7 @@
         <v>0</v>
       </c>
       <c r="FQ3" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="FR3" s="2">
         <v>2</v>
@@ -4618,7 +4674,7 @@
         <v>0</v>
       </c>
       <c r="FV3" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="FW3" s="2">
         <v>1</v>
@@ -4633,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="GA3" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="GB3" s="2">
         <v>2</v>
@@ -4654,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="GH3" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="GI3" s="2">
         <v>2</v>
@@ -4669,7 +4725,7 @@
         <v>0</v>
       </c>
       <c r="GM3" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="GN3" s="2">
         <v>1</v>
@@ -4684,7 +4740,7 @@
         <v>0</v>
       </c>
       <c r="GR3" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="GS3" s="2">
         <v>2</v>
@@ -4705,7 +4761,7 @@
         <v>0</v>
       </c>
       <c r="GY3" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="GZ3" s="2">
         <v>2</v>
@@ -4720,7 +4776,7 @@
         <v>0</v>
       </c>
       <c r="HD3" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="HE3" s="2">
         <v>1</v>
@@ -4735,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="HI3" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="HJ3" s="2">
         <v>2</v>
@@ -4756,7 +4812,7 @@
         <v>0</v>
       </c>
       <c r="HP3" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="HQ3" s="2">
         <v>2</v>
@@ -4771,7 +4827,7 @@
         <v>0</v>
       </c>
       <c r="HU3" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="HV3" s="2">
         <v>1</v>
@@ -4786,7 +4842,7 @@
         <v>0</v>
       </c>
       <c r="HZ3" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="IA3" s="2">
         <v>2</v>
@@ -4807,7 +4863,7 @@
         <v>0</v>
       </c>
       <c r="IG3" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="IH3" s="2">
         <v>2</v>
@@ -4822,7 +4878,7 @@
         <v>0</v>
       </c>
       <c r="IL3" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="IM3" s="2">
         <v>1</v>
@@ -4837,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="IQ3" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="IR3" s="2">
         <v>2</v>
@@ -4858,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="IX3" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="IY3" s="2">
         <v>2</v>
@@ -4873,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="JC3" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="JD3" s="2">
         <v>1</v>
@@ -4888,7 +4944,7 @@
         <v>0</v>
       </c>
       <c r="JH3" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="JI3" s="2">
         <v>2</v>
@@ -4909,7 +4965,7 @@
         <v>0</v>
       </c>
       <c r="JO3" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="JP3" s="2">
         <v>2</v>
@@ -4924,7 +4980,7 @@
         <v>0</v>
       </c>
       <c r="JT3" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="JU3" s="2">
         <v>1</v>
@@ -4939,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="JY3" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="JZ3" s="2">
         <v>2</v>
@@ -4960,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="KF3" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="KG3" s="2">
         <v>2</v>
@@ -4975,7 +5031,7 @@
         <v>0</v>
       </c>
       <c r="KK3" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="KL3" s="2">
         <v>1</v>
@@ -4990,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="KP3" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="KQ3" s="2">
         <v>2</v>
@@ -5011,15 +5067,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:308" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:308" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>
@@ -5034,7 +5090,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="I4" s="2">
         <v>2</v>
@@ -5049,7 +5105,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="N4" s="2">
         <v>3</v>
@@ -5070,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="U4" s="2">
         <v>3</v>
@@ -5085,7 +5141,7 @@
         <v>0</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="Z4" s="2">
         <v>2</v>
@@ -5100,7 +5156,7 @@
         <v>0</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="AE4" s="2">
         <v>3</v>
@@ -5121,7 +5177,7 @@
         <v>0</v>
       </c>
       <c r="AK4" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="AL4" s="2">
         <v>3</v>
@@ -5136,7 +5192,7 @@
         <v>0</v>
       </c>
       <c r="AP4" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="AQ4" s="2">
         <v>2</v>
@@ -5151,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="AU4" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="AV4" s="2">
         <v>3</v>
@@ -5172,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="BB4" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="BC4" s="2">
         <v>3</v>
@@ -5187,7 +5243,7 @@
         <v>0</v>
       </c>
       <c r="BG4" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="BH4" s="2">
         <v>2</v>
@@ -5202,7 +5258,7 @@
         <v>0</v>
       </c>
       <c r="BL4" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="BM4" s="2">
         <v>3</v>
@@ -5223,7 +5279,7 @@
         <v>0</v>
       </c>
       <c r="BS4" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="BT4" s="2">
         <v>3</v>
@@ -5238,7 +5294,7 @@
         <v>0</v>
       </c>
       <c r="BX4" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="BY4" s="2">
         <v>2</v>
@@ -5253,7 +5309,7 @@
         <v>0</v>
       </c>
       <c r="CC4" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="CD4" s="2">
         <v>3</v>
@@ -5274,7 +5330,7 @@
         <v>0</v>
       </c>
       <c r="CJ4" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="CK4" s="2">
         <v>3</v>
@@ -5289,7 +5345,7 @@
         <v>0</v>
       </c>
       <c r="CO4" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="CP4" s="2">
         <v>2</v>
@@ -5304,7 +5360,7 @@
         <v>0</v>
       </c>
       <c r="CT4" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="CU4" s="2">
         <v>3</v>
@@ -5325,7 +5381,7 @@
         <v>0</v>
       </c>
       <c r="DA4" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="DB4" s="2">
         <v>3</v>
@@ -5340,7 +5396,7 @@
         <v>0</v>
       </c>
       <c r="DF4" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="DG4" s="2">
         <v>2</v>
@@ -5355,7 +5411,7 @@
         <v>0</v>
       </c>
       <c r="DK4" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="DL4" s="2">
         <v>3</v>
@@ -5376,7 +5432,7 @@
         <v>0</v>
       </c>
       <c r="DR4" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="DS4" s="2">
         <v>3</v>
@@ -5391,7 +5447,7 @@
         <v>0</v>
       </c>
       <c r="DW4" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="DX4" s="2">
         <v>2</v>
@@ -5406,7 +5462,7 @@
         <v>0</v>
       </c>
       <c r="EB4" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="EC4" s="2">
         <v>3</v>
@@ -5427,7 +5483,7 @@
         <v>0</v>
       </c>
       <c r="EI4" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="EJ4" s="2">
         <v>3</v>
@@ -5442,7 +5498,7 @@
         <v>0</v>
       </c>
       <c r="EN4" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="EO4" s="2">
         <v>2</v>
@@ -5457,7 +5513,7 @@
         <v>0</v>
       </c>
       <c r="ES4" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="ET4" s="2">
         <v>3</v>
@@ -5478,7 +5534,7 @@
         <v>0</v>
       </c>
       <c r="EZ4" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="FA4" s="2">
         <v>3</v>
@@ -5493,7 +5549,7 @@
         <v>0</v>
       </c>
       <c r="FE4" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="FF4" s="2">
         <v>2</v>
@@ -5508,7 +5564,7 @@
         <v>0</v>
       </c>
       <c r="FJ4" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="FK4" s="2">
         <v>3</v>
@@ -5529,7 +5585,7 @@
         <v>0</v>
       </c>
       <c r="FQ4" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="FR4" s="2">
         <v>3</v>
@@ -5544,7 +5600,7 @@
         <v>0</v>
       </c>
       <c r="FV4" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="FW4" s="2">
         <v>2</v>
@@ -5559,7 +5615,7 @@
         <v>0</v>
       </c>
       <c r="GA4" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="GB4" s="2">
         <v>3</v>
@@ -5580,7 +5636,7 @@
         <v>0</v>
       </c>
       <c r="GH4" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="GI4" s="2">
         <v>3</v>
@@ -5595,7 +5651,7 @@
         <v>0</v>
       </c>
       <c r="GM4" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="GN4" s="2">
         <v>2</v>
@@ -5610,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="GR4" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="GS4" s="2">
         <v>3</v>
@@ -5631,7 +5687,7 @@
         <v>0</v>
       </c>
       <c r="GY4" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="GZ4" s="2">
         <v>3</v>
@@ -5646,7 +5702,7 @@
         <v>0</v>
       </c>
       <c r="HD4" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="HE4" s="2">
         <v>2</v>
@@ -5661,7 +5717,7 @@
         <v>0</v>
       </c>
       <c r="HI4" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="HJ4" s="2">
         <v>3</v>
@@ -5682,7 +5738,7 @@
         <v>0</v>
       </c>
       <c r="HP4" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="HQ4" s="2">
         <v>3</v>
@@ -5697,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="HU4" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="HV4" s="2">
         <v>2</v>
@@ -5712,7 +5768,7 @@
         <v>0</v>
       </c>
       <c r="HZ4" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="IA4" s="2">
         <v>3</v>
@@ -5733,7 +5789,7 @@
         <v>0</v>
       </c>
       <c r="IG4" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="IH4" s="2">
         <v>3</v>
@@ -5748,7 +5804,7 @@
         <v>0</v>
       </c>
       <c r="IL4" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="IM4" s="2">
         <v>2</v>
@@ -5763,7 +5819,7 @@
         <v>0</v>
       </c>
       <c r="IQ4" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="IR4" s="2">
         <v>3</v>
@@ -5784,7 +5840,7 @@
         <v>0</v>
       </c>
       <c r="IX4" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="IY4" s="2">
         <v>3</v>
@@ -5799,7 +5855,7 @@
         <v>0</v>
       </c>
       <c r="JC4" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="JD4" s="2">
         <v>2</v>
@@ -5814,7 +5870,7 @@
         <v>0</v>
       </c>
       <c r="JH4" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="JI4" s="2">
         <v>3</v>
@@ -5835,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="JO4" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="JP4" s="2">
         <v>3</v>
@@ -5850,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="JT4" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="JU4" s="2">
         <v>2</v>
@@ -5865,7 +5921,7 @@
         <v>0</v>
       </c>
       <c r="JY4" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="JZ4" s="2">
         <v>3</v>
@@ -5886,7 +5942,7 @@
         <v>0</v>
       </c>
       <c r="KF4" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="KG4" s="2">
         <v>3</v>
@@ -5901,7 +5957,7 @@
         <v>0</v>
       </c>
       <c r="KK4" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="KL4" s="2">
         <v>2</v>
@@ -5916,7 +5972,7 @@
         <v>0</v>
       </c>
       <c r="KP4" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="KQ4" s="2">
         <v>3</v>
@@ -5937,15 +5993,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:308" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:308" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="D5" s="2">
         <v>4</v>
@@ -5960,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="I5" s="2">
         <v>3</v>
@@ -5975,7 +6031,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="N5" s="2">
         <v>4</v>
@@ -5996,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="U5" s="2">
         <v>4</v>
@@ -6011,7 +6067,7 @@
         <v>0</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="Z5" s="2">
         <v>3</v>
@@ -6026,7 +6082,7 @@
         <v>0</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="AE5" s="2">
         <v>4</v>
@@ -6047,7 +6103,7 @@
         <v>0</v>
       </c>
       <c r="AK5" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="AL5" s="2">
         <v>4</v>
@@ -6062,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="AP5" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="AQ5" s="2">
         <v>3</v>
@@ -6077,7 +6133,7 @@
         <v>0</v>
       </c>
       <c r="AU5" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="AV5" s="2">
         <v>4</v>
@@ -6098,7 +6154,7 @@
         <v>0</v>
       </c>
       <c r="BB5" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="BC5" s="2">
         <v>4</v>
@@ -6113,7 +6169,7 @@
         <v>0</v>
       </c>
       <c r="BG5" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="BH5" s="2">
         <v>3</v>
@@ -6128,7 +6184,7 @@
         <v>0</v>
       </c>
       <c r="BL5" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="BM5" s="2">
         <v>4</v>
@@ -6149,7 +6205,7 @@
         <v>0</v>
       </c>
       <c r="BS5" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="BT5" s="2">
         <v>4</v>
@@ -6164,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="BX5" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="BY5" s="2">
         <v>3</v>
@@ -6179,7 +6235,7 @@
         <v>0</v>
       </c>
       <c r="CC5" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="CD5" s="2">
         <v>4</v>
@@ -6200,7 +6256,7 @@
         <v>0</v>
       </c>
       <c r="CJ5" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="CK5" s="2">
         <v>4</v>
@@ -6215,7 +6271,7 @@
         <v>0</v>
       </c>
       <c r="CO5" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="CP5" s="2">
         <v>3</v>
@@ -6230,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="CT5" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="CU5" s="2">
         <v>4</v>
@@ -6251,7 +6307,7 @@
         <v>0</v>
       </c>
       <c r="DA5" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="DB5" s="2">
         <v>4</v>
@@ -6266,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="DF5" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="DG5" s="2">
         <v>3</v>
@@ -6281,7 +6337,7 @@
         <v>0</v>
       </c>
       <c r="DK5" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="DL5" s="2">
         <v>4</v>
@@ -6302,7 +6358,7 @@
         <v>0</v>
       </c>
       <c r="DR5" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="DS5" s="2">
         <v>4</v>
@@ -6317,7 +6373,7 @@
         <v>0</v>
       </c>
       <c r="DW5" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="DX5" s="2">
         <v>3</v>
@@ -6332,7 +6388,7 @@
         <v>0</v>
       </c>
       <c r="EB5" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="EC5" s="2">
         <v>4</v>
@@ -6353,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="EI5" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="EJ5" s="2">
         <v>4</v>
@@ -6368,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="EN5" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="EO5" s="2">
         <v>3</v>
@@ -6383,7 +6439,7 @@
         <v>0</v>
       </c>
       <c r="ES5" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="ET5" s="2">
         <v>4</v>
@@ -6404,7 +6460,7 @@
         <v>0</v>
       </c>
       <c r="EZ5" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="FA5" s="2">
         <v>4</v>
@@ -6419,7 +6475,7 @@
         <v>0</v>
       </c>
       <c r="FE5" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="FF5" s="2">
         <v>3</v>
@@ -6434,7 +6490,7 @@
         <v>0</v>
       </c>
       <c r="FJ5" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="FK5" s="2">
         <v>4</v>
@@ -6455,7 +6511,7 @@
         <v>0</v>
       </c>
       <c r="FQ5" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="FR5" s="2">
         <v>4</v>
@@ -6470,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="FV5" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="FW5" s="2">
         <v>3</v>
@@ -6485,7 +6541,7 @@
         <v>0</v>
       </c>
       <c r="GA5" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="GB5" s="2">
         <v>4</v>
@@ -6506,7 +6562,7 @@
         <v>0</v>
       </c>
       <c r="GH5" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="GI5" s="2">
         <v>4</v>
@@ -6521,7 +6577,7 @@
         <v>0</v>
       </c>
       <c r="GM5" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="GN5" s="2">
         <v>3</v>
@@ -6536,7 +6592,7 @@
         <v>0</v>
       </c>
       <c r="GR5" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="GS5" s="2">
         <v>4</v>
@@ -6557,7 +6613,7 @@
         <v>0</v>
       </c>
       <c r="GY5" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="GZ5" s="2">
         <v>4</v>
@@ -6572,7 +6628,7 @@
         <v>0</v>
       </c>
       <c r="HD5" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="HE5" s="2">
         <v>3</v>
@@ -6587,7 +6643,7 @@
         <v>0</v>
       </c>
       <c r="HI5" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="HJ5" s="2">
         <v>4</v>
@@ -6608,7 +6664,7 @@
         <v>0</v>
       </c>
       <c r="HP5" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="HQ5" s="2">
         <v>4</v>
@@ -6623,7 +6679,7 @@
         <v>0</v>
       </c>
       <c r="HU5" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="HV5" s="2">
         <v>3</v>
@@ -6638,7 +6694,7 @@
         <v>0</v>
       </c>
       <c r="HZ5" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="IA5" s="2">
         <v>4</v>
@@ -6659,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="IG5" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="IH5" s="2">
         <v>4</v>
@@ -6674,7 +6730,7 @@
         <v>0</v>
       </c>
       <c r="IL5" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="IM5" s="2">
         <v>3</v>
@@ -6689,7 +6745,7 @@
         <v>0</v>
       </c>
       <c r="IQ5" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="IR5" s="2">
         <v>4</v>
@@ -6710,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="IX5" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="IY5" s="2">
         <v>4</v>
@@ -6725,7 +6781,7 @@
         <v>0</v>
       </c>
       <c r="JC5" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="JD5" s="2">
         <v>3</v>
@@ -6740,7 +6796,7 @@
         <v>0</v>
       </c>
       <c r="JH5" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="JI5" s="2">
         <v>4</v>
@@ -6761,7 +6817,7 @@
         <v>0</v>
       </c>
       <c r="JO5" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="JP5" s="2">
         <v>4</v>
@@ -6776,7 +6832,7 @@
         <v>0</v>
       </c>
       <c r="JT5" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="JU5" s="2">
         <v>3</v>
@@ -6791,7 +6847,7 @@
         <v>0</v>
       </c>
       <c r="JY5" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="JZ5" s="2">
         <v>4</v>
@@ -6812,7 +6868,7 @@
         <v>0</v>
       </c>
       <c r="KF5" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="KG5" s="2">
         <v>4</v>
@@ -6827,7 +6883,7 @@
         <v>0</v>
       </c>
       <c r="KK5" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="KL5" s="2">
         <v>3</v>
@@ -6842,7 +6898,7 @@
         <v>0</v>
       </c>
       <c r="KP5" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="KQ5" s="2">
         <v>4</v>
@@ -6863,15 +6919,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:308" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:308" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="D6" s="2">
         <v>5</v>
@@ -6886,7 +6942,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="I6" s="2">
         <v>4</v>
@@ -6901,7 +6957,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="N6" s="2">
         <v>5</v>
@@ -6922,7 +6978,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="U6" s="2">
         <v>5</v>
@@ -6937,7 +6993,7 @@
         <v>0</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="Z6" s="2">
         <v>4</v>
@@ -6952,7 +7008,7 @@
         <v>0</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="AE6" s="2">
         <v>5</v>
@@ -6973,7 +7029,7 @@
         <v>0</v>
       </c>
       <c r="AK6" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="AL6" s="2">
         <v>5</v>
@@ -6988,7 +7044,7 @@
         <v>0</v>
       </c>
       <c r="AP6" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="AQ6" s="2">
         <v>4</v>
@@ -7003,7 +7059,7 @@
         <v>0</v>
       </c>
       <c r="AU6" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="AV6" s="2">
         <v>5</v>
@@ -7024,7 +7080,7 @@
         <v>0</v>
       </c>
       <c r="BB6" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="BC6" s="2">
         <v>5</v>
@@ -7039,7 +7095,7 @@
         <v>0</v>
       </c>
       <c r="BG6" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="BH6" s="2">
         <v>4</v>
@@ -7054,7 +7110,7 @@
         <v>0</v>
       </c>
       <c r="BL6" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="BM6" s="2">
         <v>5</v>
@@ -7075,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="BS6" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="BT6" s="2">
         <v>5</v>
@@ -7090,7 +7146,7 @@
         <v>0</v>
       </c>
       <c r="BX6" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="BY6" s="2">
         <v>4</v>
@@ -7105,7 +7161,7 @@
         <v>0</v>
       </c>
       <c r="CC6" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="CD6" s="2">
         <v>5</v>
@@ -7126,7 +7182,7 @@
         <v>0</v>
       </c>
       <c r="CJ6" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="CK6" s="2">
         <v>5</v>
@@ -7141,7 +7197,7 @@
         <v>0</v>
       </c>
       <c r="CO6" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="CP6" s="2">
         <v>4</v>
@@ -7156,7 +7212,7 @@
         <v>0</v>
       </c>
       <c r="CT6" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="CU6" s="2">
         <v>5</v>
@@ -7177,7 +7233,7 @@
         <v>0</v>
       </c>
       <c r="DA6" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="DB6" s="2">
         <v>5</v>
@@ -7192,7 +7248,7 @@
         <v>0</v>
       </c>
       <c r="DF6" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="DG6" s="2">
         <v>4</v>
@@ -7207,7 +7263,7 @@
         <v>0</v>
       </c>
       <c r="DK6" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="DL6" s="2">
         <v>5</v>
@@ -7228,7 +7284,7 @@
         <v>0</v>
       </c>
       <c r="DR6" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="DS6" s="2">
         <v>5</v>
@@ -7243,7 +7299,7 @@
         <v>0</v>
       </c>
       <c r="DW6" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="DX6" s="2">
         <v>4</v>
@@ -7258,7 +7314,7 @@
         <v>0</v>
       </c>
       <c r="EB6" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="EC6" s="2">
         <v>5</v>
@@ -7279,7 +7335,7 @@
         <v>0</v>
       </c>
       <c r="EI6" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="EJ6" s="2">
         <v>5</v>
@@ -7294,7 +7350,7 @@
         <v>0</v>
       </c>
       <c r="EN6" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="EO6" s="2">
         <v>4</v>
@@ -7309,7 +7365,7 @@
         <v>0</v>
       </c>
       <c r="ES6" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="ET6" s="2">
         <v>5</v>
@@ -7330,7 +7386,7 @@
         <v>0</v>
       </c>
       <c r="EZ6" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="FA6" s="2">
         <v>5</v>
@@ -7345,7 +7401,7 @@
         <v>0</v>
       </c>
       <c r="FE6" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="FF6" s="2">
         <v>4</v>
@@ -7360,7 +7416,7 @@
         <v>0</v>
       </c>
       <c r="FJ6" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="FK6" s="2">
         <v>5</v>
@@ -7381,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="FQ6" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="FR6" s="2">
         <v>5</v>
@@ -7396,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="FV6" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="FW6" s="2">
         <v>4</v>
@@ -7411,7 +7467,7 @@
         <v>0</v>
       </c>
       <c r="GA6" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="GB6" s="2">
         <v>5</v>
@@ -7432,7 +7488,7 @@
         <v>0</v>
       </c>
       <c r="GH6" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="GI6" s="2">
         <v>5</v>
@@ -7447,7 +7503,7 @@
         <v>0</v>
       </c>
       <c r="GM6" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="GN6" s="2">
         <v>4</v>
@@ -7462,7 +7518,7 @@
         <v>0</v>
       </c>
       <c r="GR6" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="GS6" s="2">
         <v>5</v>
@@ -7483,7 +7539,7 @@
         <v>0</v>
       </c>
       <c r="GY6" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="GZ6" s="2">
         <v>5</v>
@@ -7498,7 +7554,7 @@
         <v>0</v>
       </c>
       <c r="HD6" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="HE6" s="2">
         <v>4</v>
@@ -7513,7 +7569,7 @@
         <v>0</v>
       </c>
       <c r="HI6" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="HJ6" s="2">
         <v>5</v>
@@ -7534,7 +7590,7 @@
         <v>0</v>
       </c>
       <c r="HP6" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="HQ6" s="2">
         <v>5</v>
@@ -7549,7 +7605,7 @@
         <v>0</v>
       </c>
       <c r="HU6" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="HV6" s="2">
         <v>4</v>
@@ -7564,7 +7620,7 @@
         <v>0</v>
       </c>
       <c r="HZ6" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="IA6" s="2">
         <v>5</v>
@@ -7585,7 +7641,7 @@
         <v>0</v>
       </c>
       <c r="IG6" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="IH6" s="2">
         <v>5</v>
@@ -7600,7 +7656,7 @@
         <v>0</v>
       </c>
       <c r="IL6" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="IM6" s="2">
         <v>4</v>
@@ -7615,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="IQ6" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="IR6" s="2">
         <v>5</v>
@@ -7636,7 +7692,7 @@
         <v>0</v>
       </c>
       <c r="IX6" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="IY6" s="2">
         <v>5</v>
@@ -7651,7 +7707,7 @@
         <v>0</v>
       </c>
       <c r="JC6" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="JD6" s="2">
         <v>4</v>
@@ -7666,7 +7722,7 @@
         <v>0</v>
       </c>
       <c r="JH6" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="JI6" s="2">
         <v>5</v>
@@ -7687,7 +7743,7 @@
         <v>0</v>
       </c>
       <c r="JO6" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="JP6" s="2">
         <v>5</v>
@@ -7702,7 +7758,7 @@
         <v>0</v>
       </c>
       <c r="JT6" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="JU6" s="2">
         <v>4</v>
@@ -7717,7 +7773,7 @@
         <v>0</v>
       </c>
       <c r="JY6" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="JZ6" s="2">
         <v>5</v>
@@ -7738,7 +7794,7 @@
         <v>0</v>
       </c>
       <c r="KF6" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="KG6" s="2">
         <v>5</v>
@@ -7753,7 +7809,7 @@
         <v>0</v>
       </c>
       <c r="KK6" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="KL6" s="2">
         <v>4</v>
@@ -7768,7 +7824,7 @@
         <v>0</v>
       </c>
       <c r="KP6" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="KQ6" s="2">
         <v>5</v>
@@ -7789,15 +7845,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:308" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:308" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="D7" s="2">
         <v>6</v>
@@ -7812,7 +7868,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="I7" s="2">
         <v>5</v>
@@ -7827,7 +7883,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="N7" s="2">
         <v>6</v>
@@ -7848,7 +7904,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="U7" s="2">
         <v>6</v>
@@ -7863,7 +7919,7 @@
         <v>0</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="Z7" s="2">
         <v>5</v>
@@ -7878,7 +7934,7 @@
         <v>0</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="AE7" s="2">
         <v>6</v>
@@ -7899,7 +7955,7 @@
         <v>0</v>
       </c>
       <c r="AK7" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="AL7" s="2">
         <v>6</v>
@@ -7914,7 +7970,7 @@
         <v>0</v>
       </c>
       <c r="AP7" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="AQ7" s="2">
         <v>5</v>
@@ -7929,7 +7985,7 @@
         <v>0</v>
       </c>
       <c r="AU7" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="AV7" s="2">
         <v>6</v>
@@ -7950,7 +8006,7 @@
         <v>0</v>
       </c>
       <c r="BB7" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="BC7" s="2">
         <v>6</v>
@@ -7965,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="BG7" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="BH7" s="2">
         <v>5</v>
@@ -7980,7 +8036,7 @@
         <v>0</v>
       </c>
       <c r="BL7" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="BM7" s="2">
         <v>6</v>
@@ -8001,7 +8057,7 @@
         <v>0</v>
       </c>
       <c r="BS7" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="BT7" s="2">
         <v>6</v>
@@ -8016,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="BX7" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="BY7" s="2">
         <v>5</v>
@@ -8031,7 +8087,7 @@
         <v>0</v>
       </c>
       <c r="CC7" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="CD7" s="2">
         <v>6</v>
@@ -8052,7 +8108,7 @@
         <v>0</v>
       </c>
       <c r="CJ7" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="CK7" s="2">
         <v>6</v>
@@ -8067,7 +8123,7 @@
         <v>0</v>
       </c>
       <c r="CO7" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="CP7" s="2">
         <v>5</v>
@@ -8082,7 +8138,7 @@
         <v>0</v>
       </c>
       <c r="CT7" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="CU7" s="2">
         <v>6</v>
@@ -8103,7 +8159,7 @@
         <v>0</v>
       </c>
       <c r="DA7" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="DB7" s="2">
         <v>6</v>
@@ -8118,7 +8174,7 @@
         <v>0</v>
       </c>
       <c r="DF7" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="DG7" s="2">
         <v>5</v>
@@ -8133,7 +8189,7 @@
         <v>0</v>
       </c>
       <c r="DK7" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="DL7" s="2">
         <v>6</v>
@@ -8154,7 +8210,7 @@
         <v>0</v>
       </c>
       <c r="DR7" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="DS7" s="2">
         <v>6</v>
@@ -8169,7 +8225,7 @@
         <v>0</v>
       </c>
       <c r="DW7" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="DX7" s="2">
         <v>5</v>
@@ -8184,7 +8240,7 @@
         <v>0</v>
       </c>
       <c r="EB7" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="EC7" s="2">
         <v>6</v>
@@ -8205,7 +8261,7 @@
         <v>0</v>
       </c>
       <c r="EI7" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="EJ7" s="2">
         <v>6</v>
@@ -8220,7 +8276,7 @@
         <v>0</v>
       </c>
       <c r="EN7" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="EO7" s="2">
         <v>5</v>
@@ -8235,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="ES7" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="ET7" s="2">
         <v>6</v>
@@ -8256,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="EZ7" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="FA7" s="2">
         <v>6</v>
@@ -8271,7 +8327,7 @@
         <v>0</v>
       </c>
       <c r="FE7" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="FF7" s="2">
         <v>5</v>
@@ -8286,7 +8342,7 @@
         <v>0</v>
       </c>
       <c r="FJ7" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="FK7" s="2">
         <v>6</v>
@@ -8307,7 +8363,7 @@
         <v>0</v>
       </c>
       <c r="FQ7" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="FR7" s="2">
         <v>6</v>
@@ -8322,7 +8378,7 @@
         <v>0</v>
       </c>
       <c r="FV7" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="FW7" s="2">
         <v>5</v>
@@ -8337,7 +8393,7 @@
         <v>0</v>
       </c>
       <c r="GA7" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="GB7" s="2">
         <v>6</v>
@@ -8358,7 +8414,7 @@
         <v>0</v>
       </c>
       <c r="GH7" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="GI7" s="2">
         <v>6</v>
@@ -8373,7 +8429,7 @@
         <v>0</v>
       </c>
       <c r="GM7" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="GN7" s="2">
         <v>5</v>
@@ -8388,7 +8444,7 @@
         <v>0</v>
       </c>
       <c r="GR7" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="GS7" s="2">
         <v>6</v>
@@ -8409,7 +8465,7 @@
         <v>0</v>
       </c>
       <c r="GY7" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="GZ7" s="2">
         <v>6</v>
@@ -8424,7 +8480,7 @@
         <v>0</v>
       </c>
       <c r="HD7" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="HE7" s="2">
         <v>5</v>
@@ -8439,7 +8495,7 @@
         <v>0</v>
       </c>
       <c r="HI7" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="HJ7" s="2">
         <v>6</v>
@@ -8460,7 +8516,7 @@
         <v>0</v>
       </c>
       <c r="HP7" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="HQ7" s="2">
         <v>6</v>
@@ -8475,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="HU7" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="HV7" s="2">
         <v>5</v>
@@ -8490,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="HZ7" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="IA7" s="2">
         <v>6</v>
@@ -8511,7 +8567,7 @@
         <v>0</v>
       </c>
       <c r="IG7" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="IH7" s="2">
         <v>6</v>
@@ -8526,7 +8582,7 @@
         <v>0</v>
       </c>
       <c r="IL7" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="IM7" s="2">
         <v>5</v>
@@ -8541,7 +8597,7 @@
         <v>0</v>
       </c>
       <c r="IQ7" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="IR7" s="2">
         <v>6</v>
@@ -8562,7 +8618,7 @@
         <v>0</v>
       </c>
       <c r="IX7" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="IY7" s="2">
         <v>6</v>
@@ -8577,7 +8633,7 @@
         <v>0</v>
       </c>
       <c r="JC7" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="JD7" s="2">
         <v>5</v>
@@ -8592,7 +8648,7 @@
         <v>0</v>
       </c>
       <c r="JH7" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="JI7" s="2">
         <v>6</v>
@@ -8613,7 +8669,7 @@
         <v>0</v>
       </c>
       <c r="JO7" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="JP7" s="2">
         <v>6</v>
@@ -8628,7 +8684,7 @@
         <v>0</v>
       </c>
       <c r="JT7" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="JU7" s="2">
         <v>5</v>
@@ -8643,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="JY7" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="JZ7" s="2">
         <v>6</v>
@@ -8664,7 +8720,7 @@
         <v>0</v>
       </c>
       <c r="KF7" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="KG7" s="2">
         <v>6</v>
@@ -8679,7 +8735,7 @@
         <v>0</v>
       </c>
       <c r="KK7" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="KL7" s="2">
         <v>5</v>
@@ -8694,7 +8750,7 @@
         <v>0</v>
       </c>
       <c r="KP7" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="KQ7" s="2">
         <v>6</v>
@@ -8715,15 +8771,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:308" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:308" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="D8" s="2">
         <v>7</v>
@@ -8738,7 +8794,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="I8" s="2">
         <v>6</v>
@@ -8753,7 +8809,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="N8" s="2">
         <v>7</v>
@@ -8774,7 +8830,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="U8" s="2">
         <v>7</v>
@@ -8789,7 +8845,7 @@
         <v>0</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="Z8" s="2">
         <v>6</v>
@@ -8804,7 +8860,7 @@
         <v>0</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="AE8" s="2">
         <v>7</v>
@@ -8825,7 +8881,7 @@
         <v>0</v>
       </c>
       <c r="AK8" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="AL8" s="2">
         <v>7</v>
@@ -8840,7 +8896,7 @@
         <v>0</v>
       </c>
       <c r="AP8" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="AQ8" s="2">
         <v>6</v>
@@ -8855,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="AU8" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="AV8" s="2">
         <v>7</v>
@@ -8876,7 +8932,7 @@
         <v>0</v>
       </c>
       <c r="BB8" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="BC8" s="2">
         <v>7</v>
@@ -8891,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="BG8" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="BH8" s="2">
         <v>6</v>
@@ -8906,7 +8962,7 @@
         <v>0</v>
       </c>
       <c r="BL8" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="BM8" s="2">
         <v>7</v>
@@ -8927,7 +8983,7 @@
         <v>0</v>
       </c>
       <c r="BS8" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="BT8" s="2">
         <v>7</v>
@@ -8942,7 +8998,7 @@
         <v>0</v>
       </c>
       <c r="BX8" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="BY8" s="2">
         <v>6</v>
@@ -8957,7 +9013,7 @@
         <v>0</v>
       </c>
       <c r="CC8" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="CD8" s="2">
         <v>7</v>
@@ -8978,7 +9034,7 @@
         <v>0</v>
       </c>
       <c r="CJ8" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="CK8" s="2">
         <v>7</v>
@@ -8993,7 +9049,7 @@
         <v>0</v>
       </c>
       <c r="CO8" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="CP8" s="2">
         <v>6</v>
@@ -9008,7 +9064,7 @@
         <v>0</v>
       </c>
       <c r="CT8" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="CU8" s="2">
         <v>7</v>
@@ -9029,7 +9085,7 @@
         <v>0</v>
       </c>
       <c r="DA8" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="DB8" s="2">
         <v>7</v>
@@ -9044,7 +9100,7 @@
         <v>0</v>
       </c>
       <c r="DF8" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="DG8" s="2">
         <v>6</v>
@@ -9059,7 +9115,7 @@
         <v>0</v>
       </c>
       <c r="DK8" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="DL8" s="2">
         <v>7</v>
@@ -9080,7 +9136,7 @@
         <v>0</v>
       </c>
       <c r="DR8" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="DS8" s="2">
         <v>7</v>
@@ -9095,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="DW8" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="DX8" s="2">
         <v>6</v>
@@ -9110,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="EB8" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="EC8" s="2">
         <v>7</v>
@@ -9131,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="EI8" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="EJ8" s="2">
         <v>7</v>
@@ -9146,7 +9202,7 @@
         <v>0</v>
       </c>
       <c r="EN8" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="EO8" s="2">
         <v>6</v>
@@ -9161,7 +9217,7 @@
         <v>0</v>
       </c>
       <c r="ES8" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="ET8" s="2">
         <v>7</v>
@@ -9182,7 +9238,7 @@
         <v>0</v>
       </c>
       <c r="EZ8" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="FA8" s="2">
         <v>7</v>
@@ -9197,7 +9253,7 @@
         <v>0</v>
       </c>
       <c r="FE8" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="FF8" s="2">
         <v>6</v>
@@ -9212,7 +9268,7 @@
         <v>0</v>
       </c>
       <c r="FJ8" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="FK8" s="2">
         <v>7</v>
@@ -9233,7 +9289,7 @@
         <v>0</v>
       </c>
       <c r="FQ8" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="FR8" s="2">
         <v>7</v>
@@ -9248,7 +9304,7 @@
         <v>0</v>
       </c>
       <c r="FV8" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="FW8" s="2">
         <v>6</v>
@@ -9263,7 +9319,7 @@
         <v>0</v>
       </c>
       <c r="GA8" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="GB8" s="2">
         <v>7</v>
@@ -9284,7 +9340,7 @@
         <v>0</v>
       </c>
       <c r="GH8" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="GI8" s="2">
         <v>7</v>
@@ -9299,7 +9355,7 @@
         <v>0</v>
       </c>
       <c r="GM8" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="GN8" s="2">
         <v>6</v>
@@ -9314,7 +9370,7 @@
         <v>0</v>
       </c>
       <c r="GR8" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="GS8" s="2">
         <v>7</v>
@@ -9335,7 +9391,7 @@
         <v>0</v>
       </c>
       <c r="GY8" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="GZ8" s="2">
         <v>7</v>
@@ -9350,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="HD8" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="HE8" s="2">
         <v>6</v>
@@ -9365,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="HI8" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="HJ8" s="2">
         <v>7</v>
@@ -9386,7 +9442,7 @@
         <v>0</v>
       </c>
       <c r="HP8" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="HQ8" s="2">
         <v>7</v>
@@ -9401,7 +9457,7 @@
         <v>0</v>
       </c>
       <c r="HU8" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="HV8" s="2">
         <v>6</v>
@@ -9416,7 +9472,7 @@
         <v>0</v>
       </c>
       <c r="HZ8" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="IA8" s="2">
         <v>7</v>
@@ -9437,7 +9493,7 @@
         <v>0</v>
       </c>
       <c r="IG8" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="IH8" s="2">
         <v>7</v>
@@ -9452,7 +9508,7 @@
         <v>0</v>
       </c>
       <c r="IL8" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="IM8" s="2">
         <v>6</v>
@@ -9467,7 +9523,7 @@
         <v>0</v>
       </c>
       <c r="IQ8" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="IR8" s="2">
         <v>7</v>
@@ -9488,7 +9544,7 @@
         <v>0</v>
       </c>
       <c r="IX8" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="IY8" s="2">
         <v>7</v>
@@ -9503,7 +9559,7 @@
         <v>0</v>
       </c>
       <c r="JC8" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="JD8" s="2">
         <v>6</v>
@@ -9518,7 +9574,7 @@
         <v>0</v>
       </c>
       <c r="JH8" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="JI8" s="2">
         <v>7</v>
@@ -9539,7 +9595,7 @@
         <v>0</v>
       </c>
       <c r="JO8" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="JP8" s="2">
         <v>7</v>
@@ -9554,7 +9610,7 @@
         <v>0</v>
       </c>
       <c r="JT8" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="JU8" s="2">
         <v>6</v>
@@ -9569,7 +9625,7 @@
         <v>0</v>
       </c>
       <c r="JY8" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="JZ8" s="2">
         <v>7</v>
@@ -9590,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="KF8" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="KG8" s="2">
         <v>7</v>
@@ -9605,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="KK8" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="KL8" s="2">
         <v>6</v>
@@ -9620,7 +9676,7 @@
         <v>0</v>
       </c>
       <c r="KP8" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="KQ8" s="2">
         <v>7</v>
@@ -9640,6 +9696,24 @@
       <c r="KV8" s="2">
         <v>0</v>
       </c>
+    </row>
+    <row r="14" spans="1:308" x14ac:dyDescent="0.2">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:308" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F19" s="2"/>

--- a/Table/Table_xls/f福利奖励/累积登陆礼包.xlsx
+++ b/Table/Table_xls/f福利奖励/累积登陆礼包.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -39,7 +38,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -54,7 +52,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -69,7 +66,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -84,7 +80,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -99,7 +94,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -114,7 +108,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -129,7 +122,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -144,7 +136,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -159,7 +150,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -174,7 +164,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -189,7 +178,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -204,7 +192,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -219,7 +206,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -234,7 +220,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -249,7 +234,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -264,7 +248,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -279,7 +262,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -294,7 +276,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -309,7 +290,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -324,7 +304,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -339,7 +318,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -354,7 +332,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -369,7 +346,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -384,7 +360,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -399,7 +374,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -414,7 +388,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -429,7 +402,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -444,7 +416,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -459,7 +430,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -474,7 +444,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -489,7 +458,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="332">
   <si>
     <t>累积登陆天数</t>
   </si>
@@ -1728,7 +1697,10 @@
     <t>set:jiangli image:di2tian</t>
   </si>
   <si>
-    <t>0,310102</t>
+    <t>0,340201</t>
+  </si>
+  <si>
+    <t>0,339002</t>
   </si>
   <si>
     <t>3</t>
@@ -1737,28 +1709,43 @@
     <t>set:jiangli image:di3tian</t>
   </si>
   <si>
+    <t>0,340202</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
     <t>set:jiangli image:di4tian</t>
   </si>
   <si>
+    <t>0,340203</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
     <t>set:jiangli image:di5tian</t>
   </si>
   <si>
+    <t>0,340204</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
     <t>set:jiangli image:di6tian</t>
   </si>
   <si>
+    <t>0,340205</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
     <t>set:jiangli image:di7tian</t>
+  </si>
+  <si>
+    <t>0,340211</t>
   </si>
 </sst>
 </file>
@@ -1767,9 +1754,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1789,7 +1776,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1799,21 +1808,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1832,31 +1826,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1870,8 +1856,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1893,17 +1880,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1917,34 +1902,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1954,6 +1941,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1989,7 +1982,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2001,91 +2078,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2103,37 +2126,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2145,31 +2138,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2185,6 +2178,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2194,11 +2214,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2219,21 +2245,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -2248,34 +2259,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2285,152 +2278,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2447,10 +2440,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2463,6 +2456,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2518,6 +2514,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2844,35 +2845,34 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:KV19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="EE1" workbookViewId="0">
-      <selection activeCell="FT6" sqref="FT6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="KU13" sqref="KU13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="10.287037037037" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="12.7142857142857" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1428571428571" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.712962962963" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1388888888889" style="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="1" customWidth="1"/>
-    <col min="4" max="7" width="10.2857142857143" style="1"/>
-    <col min="8" max="8" width="13.7142857142857" style="1" customWidth="1"/>
-    <col min="9" max="12" width="10.2857142857143" style="1"/>
-    <col min="13" max="13" width="12.7142857142857" style="1" customWidth="1"/>
-    <col min="14" max="29" width="10.2857142857143" style="1"/>
-    <col min="30" max="30" width="22.7142857142857" style="1" customWidth="1"/>
-    <col min="31" max="16358" width="10.2857142857143" style="1"/>
-    <col min="16359" max="16384" width="10.2857142857143" style="2"/>
+    <col min="4" max="7" width="10.287037037037" style="1"/>
+    <col min="8" max="8" width="13.712962962963" style="1" customWidth="1"/>
+    <col min="9" max="12" width="10.287037037037" style="1"/>
+    <col min="13" max="13" width="12.712962962963" style="1" customWidth="1"/>
+    <col min="14" max="29" width="10.287037037037" style="1"/>
+    <col min="30" max="30" width="22.712962962963" style="1" customWidth="1"/>
+    <col min="31" max="16358" width="10.287037037037" style="1"/>
+    <col min="16359" max="16384" width="10.287037037037" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="42.75" spans="1:308">
+    <row r="1" s="1" customFormat="1" ht="46.8" spans="1:308">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2930,13 +2930,13 @@
       <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="8" t="s">
         <v>21</v>
       </c>
       <c r="W1" s="5" t="s">
@@ -2945,13 +2945,13 @@
       <c r="X1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Y1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="Z1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AA1" s="8" t="s">
         <v>26</v>
       </c>
       <c r="AB1" s="5" t="s">
@@ -2960,13 +2960,13 @@
       <c r="AC1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AD1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AE1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AF1" s="8" t="s">
         <v>31</v>
       </c>
       <c r="AG1" s="5" t="s">
@@ -2975,19 +2975,19 @@
       <c r="AH1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AI1" s="8" t="s">
         <v>34</v>
       </c>
       <c r="AJ1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="8" t="s">
+      <c r="AK1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="8" t="s">
+      <c r="AL1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="8" t="s">
+      <c r="AM1" s="9" t="s">
         <v>38</v>
       </c>
       <c r="AN1" s="5" t="s">
@@ -2996,13 +2996,13 @@
       <c r="AO1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="8" t="s">
+      <c r="AP1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="8" t="s">
+      <c r="AQ1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="8" t="s">
+      <c r="AR1" s="9" t="s">
         <v>43</v>
       </c>
       <c r="AS1" s="5" t="s">
@@ -3011,13 +3011,13 @@
       <c r="AT1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="8" t="s">
+      <c r="AU1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="8" t="s">
+      <c r="AV1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="8" t="s">
+      <c r="AW1" s="9" t="s">
         <v>48</v>
       </c>
       <c r="AX1" s="5" t="s">
@@ -3026,19 +3026,19 @@
       <c r="AY1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="8" t="s">
+      <c r="AZ1" s="9" t="s">
         <v>51</v>
       </c>
       <c r="BA1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="9" t="s">
+      <c r="BB1" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="9" t="s">
+      <c r="BC1" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="9" t="s">
+      <c r="BD1" s="10" t="s">
         <v>55</v>
       </c>
       <c r="BE1" s="5" t="s">
@@ -3047,13 +3047,13 @@
       <c r="BF1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="9" t="s">
+      <c r="BG1" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="9" t="s">
+      <c r="BH1" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="9" t="s">
+      <c r="BI1" s="10" t="s">
         <v>60</v>
       </c>
       <c r="BJ1" s="5" t="s">
@@ -3062,13 +3062,13 @@
       <c r="BK1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="9" t="s">
+      <c r="BL1" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="9" t="s">
+      <c r="BM1" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="9" t="s">
+      <c r="BN1" s="10" t="s">
         <v>65</v>
       </c>
       <c r="BO1" s="5" t="s">
@@ -3077,19 +3077,19 @@
       <c r="BP1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="9" t="s">
+      <c r="BQ1" s="10" t="s">
         <v>68</v>
       </c>
       <c r="BR1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="10" t="s">
+      <c r="BS1" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="10" t="s">
+      <c r="BT1" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="10" t="s">
+      <c r="BU1" s="11" t="s">
         <v>72</v>
       </c>
       <c r="BV1" s="5" t="s">
@@ -3098,13 +3098,13 @@
       <c r="BW1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="10" t="s">
+      <c r="BX1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="10" t="s">
+      <c r="BY1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="10" t="s">
+      <c r="BZ1" s="11" t="s">
         <v>77</v>
       </c>
       <c r="CA1" s="5" t="s">
@@ -3113,13 +3113,13 @@
       <c r="CB1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="10" t="s">
+      <c r="CC1" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="10" t="s">
+      <c r="CD1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="10" t="s">
+      <c r="CE1" s="11" t="s">
         <v>82</v>
       </c>
       <c r="CF1" s="5" t="s">
@@ -3128,19 +3128,19 @@
       <c r="CG1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" s="10" t="s">
+      <c r="CH1" s="11" t="s">
         <v>85</v>
       </c>
       <c r="CI1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" s="11" t="s">
+      <c r="CJ1" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" s="11" t="s">
+      <c r="CK1" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" s="11" t="s">
+      <c r="CL1" s="12" t="s">
         <v>89</v>
       </c>
       <c r="CM1" s="5" t="s">
@@ -3149,13 +3149,13 @@
       <c r="CN1" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" s="11" t="s">
+      <c r="CO1" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" s="11" t="s">
+      <c r="CP1" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" s="11" t="s">
+      <c r="CQ1" s="12" t="s">
         <v>94</v>
       </c>
       <c r="CR1" s="5" t="s">
@@ -3164,13 +3164,13 @@
       <c r="CS1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" s="11" t="s">
+      <c r="CT1" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="CU1" s="11" t="s">
+      <c r="CU1" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="CV1" s="11" t="s">
+      <c r="CV1" s="12" t="s">
         <v>99</v>
       </c>
       <c r="CW1" s="5" t="s">
@@ -3179,19 +3179,19 @@
       <c r="CX1" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="CY1" s="11" t="s">
+      <c r="CY1" s="12" t="s">
         <v>102</v>
       </c>
       <c r="CZ1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="DA1" s="11" t="s">
+      <c r="DA1" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="DB1" s="11" t="s">
+      <c r="DB1" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="DC1" s="11" t="s">
+      <c r="DC1" s="12" t="s">
         <v>106</v>
       </c>
       <c r="DD1" s="5" t="s">
@@ -3200,13 +3200,13 @@
       <c r="DE1" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="DF1" s="11" t="s">
+      <c r="DF1" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="DG1" s="11" t="s">
+      <c r="DG1" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="DH1" s="11" t="s">
+      <c r="DH1" s="12" t="s">
         <v>111</v>
       </c>
       <c r="DI1" s="5" t="s">
@@ -3215,13 +3215,13 @@
       <c r="DJ1" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="DK1" s="11" t="s">
+      <c r="DK1" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="DL1" s="11" t="s">
+      <c r="DL1" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="DM1" s="11" t="s">
+      <c r="DM1" s="12" t="s">
         <v>116</v>
       </c>
       <c r="DN1" s="5" t="s">
@@ -3230,19 +3230,19 @@
       <c r="DO1" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="DP1" s="11" t="s">
+      <c r="DP1" s="12" t="s">
         <v>119</v>
       </c>
       <c r="DQ1" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="DR1" s="11" t="s">
+      <c r="DR1" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="DS1" s="11" t="s">
+      <c r="DS1" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="DT1" s="11" t="s">
+      <c r="DT1" s="12" t="s">
         <v>123</v>
       </c>
       <c r="DU1" s="5" t="s">
@@ -3251,13 +3251,13 @@
       <c r="DV1" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="DW1" s="11" t="s">
+      <c r="DW1" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="DX1" s="11" t="s">
+      <c r="DX1" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="DY1" s="11" t="s">
+      <c r="DY1" s="12" t="s">
         <v>128</v>
       </c>
       <c r="DZ1" s="5" t="s">
@@ -3266,13 +3266,13 @@
       <c r="EA1" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="EB1" s="11" t="s">
+      <c r="EB1" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="EC1" s="11" t="s">
+      <c r="EC1" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="ED1" s="11" t="s">
+      <c r="ED1" s="12" t="s">
         <v>133</v>
       </c>
       <c r="EE1" s="5" t="s">
@@ -3281,19 +3281,19 @@
       <c r="EF1" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="EG1" s="11" t="s">
+      <c r="EG1" s="12" t="s">
         <v>136</v>
       </c>
       <c r="EH1" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="EI1" s="11" t="s">
+      <c r="EI1" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="EJ1" s="11" t="s">
+      <c r="EJ1" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="EK1" s="11" t="s">
+      <c r="EK1" s="12" t="s">
         <v>140</v>
       </c>
       <c r="EL1" s="5" t="s">
@@ -3302,13 +3302,13 @@
       <c r="EM1" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="EN1" s="11" t="s">
+      <c r="EN1" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="EO1" s="11" t="s">
+      <c r="EO1" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="EP1" s="11" t="s">
+      <c r="EP1" s="12" t="s">
         <v>145</v>
       </c>
       <c r="EQ1" s="5" t="s">
@@ -3317,13 +3317,13 @@
       <c r="ER1" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="ES1" s="11" t="s">
+      <c r="ES1" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="ET1" s="11" t="s">
+      <c r="ET1" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="EU1" s="11" t="s">
+      <c r="EU1" s="12" t="s">
         <v>150</v>
       </c>
       <c r="EV1" s="5" t="s">
@@ -3332,7 +3332,7 @@
       <c r="EW1" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="EX1" s="11" t="s">
+      <c r="EX1" s="12" t="s">
         <v>153</v>
       </c>
       <c r="EY1" s="5" t="s">
@@ -3798,7 +3798,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="25.5" spans="1:308">
+    <row r="2" s="1" customFormat="1" ht="26.4" spans="1:308">
       <c r="A2" s="3" t="s">
         <v>308</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>311</v>
       </c>
       <c r="I2" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J2" s="3">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>311</v>
       </c>
       <c r="Z2" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA2" s="3">
         <v>0</v>
@@ -3926,7 +3926,7 @@
         <v>311</v>
       </c>
       <c r="AQ2" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AR2" s="3">
         <v>0</v>
@@ -3977,7 +3977,7 @@
         <v>311</v>
       </c>
       <c r="BH2" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BI2" s="3">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>311</v>
       </c>
       <c r="BY2" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BZ2" s="3">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>311</v>
       </c>
       <c r="CP2" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="CQ2" s="3">
         <v>0</v>
@@ -4130,7 +4130,7 @@
         <v>311</v>
       </c>
       <c r="DG2" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="DH2" s="3">
         <v>0</v>
@@ -4181,7 +4181,7 @@
         <v>311</v>
       </c>
       <c r="DX2" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="DY2" s="3">
         <v>0</v>
@@ -4232,7 +4232,7 @@
         <v>311</v>
       </c>
       <c r="EO2" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="EP2" s="3">
         <v>0</v>
@@ -4283,7 +4283,7 @@
         <v>311</v>
       </c>
       <c r="FF2" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="FG2" s="3">
         <v>0</v>
@@ -4334,7 +4334,7 @@
         <v>311</v>
       </c>
       <c r="FW2" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="FX2" s="3">
         <v>0</v>
@@ -4385,7 +4385,7 @@
         <v>311</v>
       </c>
       <c r="GN2" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="GO2" s="3">
         <v>0</v>
@@ -4436,7 +4436,7 @@
         <v>311</v>
       </c>
       <c r="HE2" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="HF2" s="3">
         <v>0</v>
@@ -4487,7 +4487,7 @@
         <v>311</v>
       </c>
       <c r="HV2" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="HW2" s="3">
         <v>0</v>
@@ -4538,7 +4538,7 @@
         <v>311</v>
       </c>
       <c r="IM2" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="IN2" s="3">
         <v>0</v>
@@ -4589,7 +4589,7 @@
         <v>311</v>
       </c>
       <c r="JD2" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="JE2" s="3">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>311</v>
       </c>
       <c r="JU2" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="JV2" s="3">
         <v>0</v>
@@ -4691,7 +4691,7 @@
         <v>311</v>
       </c>
       <c r="KL2" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="KM2" s="3">
         <v>0</v>
@@ -4724,7 +4724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="25.5" spans="1:308">
+    <row r="3" s="1" customFormat="1" ht="26.4" spans="1:308">
       <c r="A3" s="3" t="s">
         <v>313</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>315</v>
       </c>
       <c r="D3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3">
         <v>0</v>
@@ -4746,11 +4746,11 @@
       <c r="G3" s="3">
         <v>0</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>311</v>
+      <c r="H3" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="I3" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J3" s="3">
         <v>0</v>
@@ -4786,7 +4786,7 @@
         <v>315</v>
       </c>
       <c r="U3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V3" s="3">
         <v>0</v>
@@ -4797,11 +4797,11 @@
       <c r="X3" s="3">
         <v>0</v>
       </c>
-      <c r="Y3" s="3" t="s">
-        <v>311</v>
+      <c r="Y3" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="Z3" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA3" s="3">
         <v>0</v>
@@ -4837,7 +4837,7 @@
         <v>315</v>
       </c>
       <c r="AL3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM3" s="3">
         <v>0</v>
@@ -4848,11 +4848,11 @@
       <c r="AO3" s="3">
         <v>0</v>
       </c>
-      <c r="AP3" s="3" t="s">
-        <v>311</v>
+      <c r="AP3" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="AQ3" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AR3" s="3">
         <v>0</v>
@@ -4888,7 +4888,7 @@
         <v>315</v>
       </c>
       <c r="BC3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD3" s="3">
         <v>0</v>
@@ -4899,11 +4899,11 @@
       <c r="BF3" s="3">
         <v>0</v>
       </c>
-      <c r="BG3" s="3" t="s">
-        <v>311</v>
+      <c r="BG3" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="BH3" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BI3" s="3">
         <v>0</v>
@@ -4939,7 +4939,7 @@
         <v>315</v>
       </c>
       <c r="BT3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BU3" s="3">
         <v>0</v>
@@ -4950,11 +4950,11 @@
       <c r="BW3" s="3">
         <v>0</v>
       </c>
-      <c r="BX3" s="3" t="s">
-        <v>311</v>
+      <c r="BX3" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="BY3" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BZ3" s="3">
         <v>0</v>
@@ -4990,7 +4990,7 @@
         <v>315</v>
       </c>
       <c r="CK3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CL3" s="3">
         <v>0</v>
@@ -5001,11 +5001,11 @@
       <c r="CN3" s="3">
         <v>0</v>
       </c>
-      <c r="CO3" s="3" t="s">
-        <v>311</v>
+      <c r="CO3" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="CP3" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="CQ3" s="3">
         <v>0</v>
@@ -5041,7 +5041,7 @@
         <v>315</v>
       </c>
       <c r="DB3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DC3" s="3">
         <v>0</v>
@@ -5052,11 +5052,11 @@
       <c r="DE3" s="3">
         <v>0</v>
       </c>
-      <c r="DF3" s="3" t="s">
-        <v>311</v>
+      <c r="DF3" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="DG3" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="DH3" s="3">
         <v>0</v>
@@ -5092,7 +5092,7 @@
         <v>315</v>
       </c>
       <c r="DS3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DT3" s="3">
         <v>0</v>
@@ -5103,11 +5103,11 @@
       <c r="DV3" s="3">
         <v>0</v>
       </c>
-      <c r="DW3" s="3" t="s">
-        <v>311</v>
+      <c r="DW3" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="DX3" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="DY3" s="3">
         <v>0</v>
@@ -5143,7 +5143,7 @@
         <v>315</v>
       </c>
       <c r="EJ3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="EK3" s="3">
         <v>0</v>
@@ -5154,11 +5154,11 @@
       <c r="EM3" s="3">
         <v>0</v>
       </c>
-      <c r="EN3" s="3" t="s">
-        <v>311</v>
+      <c r="EN3" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="EO3" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="EP3" s="3">
         <v>0</v>
@@ -5194,7 +5194,7 @@
         <v>315</v>
       </c>
       <c r="FA3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FB3" s="3">
         <v>0</v>
@@ -5205,11 +5205,11 @@
       <c r="FD3" s="3">
         <v>0</v>
       </c>
-      <c r="FE3" s="3" t="s">
-        <v>311</v>
+      <c r="FE3" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="FF3" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="FG3" s="3">
         <v>0</v>
@@ -5245,7 +5245,7 @@
         <v>315</v>
       </c>
       <c r="FR3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FS3" s="3">
         <v>0</v>
@@ -5256,11 +5256,11 @@
       <c r="FU3" s="3">
         <v>0</v>
       </c>
-      <c r="FV3" s="3" t="s">
-        <v>311</v>
+      <c r="FV3" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="FW3" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="FX3" s="3">
         <v>0</v>
@@ -5296,7 +5296,7 @@
         <v>315</v>
       </c>
       <c r="GI3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="GJ3" s="3">
         <v>0</v>
@@ -5307,11 +5307,11 @@
       <c r="GL3" s="3">
         <v>0</v>
       </c>
-      <c r="GM3" s="3" t="s">
-        <v>311</v>
+      <c r="GM3" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="GN3" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="GO3" s="3">
         <v>0</v>
@@ -5347,7 +5347,7 @@
         <v>315</v>
       </c>
       <c r="GZ3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="HA3" s="3">
         <v>0</v>
@@ -5358,11 +5358,11 @@
       <c r="HC3" s="3">
         <v>0</v>
       </c>
-      <c r="HD3" s="3" t="s">
-        <v>311</v>
+      <c r="HD3" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="HE3" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="HF3" s="3">
         <v>0</v>
@@ -5398,7 +5398,7 @@
         <v>315</v>
       </c>
       <c r="HQ3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="HR3" s="3">
         <v>0</v>
@@ -5409,11 +5409,11 @@
       <c r="HT3" s="3">
         <v>0</v>
       </c>
-      <c r="HU3" s="3" t="s">
-        <v>311</v>
+      <c r="HU3" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="HV3" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="HW3" s="3">
         <v>0</v>
@@ -5449,7 +5449,7 @@
         <v>315</v>
       </c>
       <c r="IH3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="II3" s="3">
         <v>0</v>
@@ -5460,11 +5460,11 @@
       <c r="IK3" s="3">
         <v>0</v>
       </c>
-      <c r="IL3" s="3" t="s">
-        <v>311</v>
+      <c r="IL3" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="IM3" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="IN3" s="3">
         <v>0</v>
@@ -5500,7 +5500,7 @@
         <v>315</v>
       </c>
       <c r="IY3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="IZ3" s="3">
         <v>0</v>
@@ -5511,11 +5511,11 @@
       <c r="JB3" s="3">
         <v>0</v>
       </c>
-      <c r="JC3" s="3" t="s">
-        <v>311</v>
+      <c r="JC3" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="JD3" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="JE3" s="3">
         <v>0</v>
@@ -5551,7 +5551,7 @@
         <v>315</v>
       </c>
       <c r="JP3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="JQ3" s="3">
         <v>0</v>
@@ -5562,11 +5562,11 @@
       <c r="JS3" s="3">
         <v>0</v>
       </c>
-      <c r="JT3" s="3" t="s">
-        <v>311</v>
+      <c r="JT3" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="JU3" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="JV3" s="3">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>315</v>
       </c>
       <c r="KG3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="KH3" s="3">
         <v>0</v>
@@ -5613,11 +5613,11 @@
       <c r="KJ3" s="3">
         <v>0</v>
       </c>
-      <c r="KK3" s="3" t="s">
-        <v>311</v>
+      <c r="KK3" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="KL3" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="KM3" s="3">
         <v>0</v>
@@ -5650,18 +5650,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="25.5" spans="1:308">
+    <row r="4" s="1" customFormat="1" ht="26.4" spans="1:308">
       <c r="A4" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
@@ -5672,11 +5672,11 @@
       <c r="G4" s="3">
         <v>0</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>311</v>
+      <c r="H4" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="I4" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J4" s="3">
         <v>0</v>
@@ -5709,10 +5709,10 @@
         <v>0</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="U4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V4" s="3">
         <v>0</v>
@@ -5723,11 +5723,11 @@
       <c r="X4" s="3">
         <v>0</v>
       </c>
-      <c r="Y4" s="3" t="s">
-        <v>311</v>
+      <c r="Y4" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="Z4" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AA4" s="3">
         <v>0</v>
@@ -5760,10 +5760,10 @@
         <v>0</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="AL4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AM4" s="3">
         <v>0</v>
@@ -5774,11 +5774,11 @@
       <c r="AO4" s="3">
         <v>0</v>
       </c>
-      <c r="AP4" s="3" t="s">
-        <v>311</v>
+      <c r="AP4" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="AQ4" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AR4" s="3">
         <v>0</v>
@@ -5811,10 +5811,10 @@
         <v>0</v>
       </c>
       <c r="BB4" s="3" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="BC4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BD4" s="3">
         <v>0</v>
@@ -5825,11 +5825,11 @@
       <c r="BF4" s="3">
         <v>0</v>
       </c>
-      <c r="BG4" s="3" t="s">
-        <v>311</v>
+      <c r="BG4" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="BH4" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BI4" s="3">
         <v>0</v>
@@ -5862,10 +5862,10 @@
         <v>0</v>
       </c>
       <c r="BS4" s="3" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="BT4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BU4" s="3">
         <v>0</v>
@@ -5876,11 +5876,11 @@
       <c r="BW4" s="3">
         <v>0</v>
       </c>
-      <c r="BX4" s="3" t="s">
-        <v>311</v>
+      <c r="BX4" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="BY4" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BZ4" s="3">
         <v>0</v>
@@ -5913,10 +5913,10 @@
         <v>0</v>
       </c>
       <c r="CJ4" s="3" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="CK4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CL4" s="3">
         <v>0</v>
@@ -5927,11 +5927,11 @@
       <c r="CN4" s="3">
         <v>0</v>
       </c>
-      <c r="CO4" s="3" t="s">
-        <v>311</v>
+      <c r="CO4" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="CP4" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="CQ4" s="3">
         <v>0</v>
@@ -5964,10 +5964,10 @@
         <v>0</v>
       </c>
       <c r="DA4" s="3" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="DB4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DC4" s="3">
         <v>0</v>
@@ -5978,11 +5978,11 @@
       <c r="DE4" s="3">
         <v>0</v>
       </c>
-      <c r="DF4" s="3" t="s">
-        <v>311</v>
+      <c r="DF4" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="DG4" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="DH4" s="3">
         <v>0</v>
@@ -6015,10 +6015,10 @@
         <v>0</v>
       </c>
       <c r="DR4" s="3" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="DS4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DT4" s="3">
         <v>0</v>
@@ -6029,11 +6029,11 @@
       <c r="DV4" s="3">
         <v>0</v>
       </c>
-      <c r="DW4" s="3" t="s">
-        <v>311</v>
+      <c r="DW4" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="DX4" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="DY4" s="3">
         <v>0</v>
@@ -6066,10 +6066,10 @@
         <v>0</v>
       </c>
       <c r="EI4" s="3" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="EJ4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="EK4" s="3">
         <v>0</v>
@@ -6080,11 +6080,11 @@
       <c r="EM4" s="3">
         <v>0</v>
       </c>
-      <c r="EN4" s="3" t="s">
-        <v>311</v>
+      <c r="EN4" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="EO4" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="EP4" s="3">
         <v>0</v>
@@ -6117,10 +6117,10 @@
         <v>0</v>
       </c>
       <c r="EZ4" s="3" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="FA4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="FB4" s="3">
         <v>0</v>
@@ -6131,11 +6131,11 @@
       <c r="FD4" s="3">
         <v>0</v>
       </c>
-      <c r="FE4" s="3" t="s">
-        <v>311</v>
+      <c r="FE4" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="FF4" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="FG4" s="3">
         <v>0</v>
@@ -6168,10 +6168,10 @@
         <v>0</v>
       </c>
       <c r="FQ4" s="3" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="FR4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="FS4" s="3">
         <v>0</v>
@@ -6182,11 +6182,11 @@
       <c r="FU4" s="3">
         <v>0</v>
       </c>
-      <c r="FV4" s="3" t="s">
-        <v>311</v>
+      <c r="FV4" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="FW4" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="FX4" s="3">
         <v>0</v>
@@ -6219,10 +6219,10 @@
         <v>0</v>
       </c>
       <c r="GH4" s="3" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="GI4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="GJ4" s="3">
         <v>0</v>
@@ -6233,11 +6233,11 @@
       <c r="GL4" s="3">
         <v>0</v>
       </c>
-      <c r="GM4" s="3" t="s">
-        <v>311</v>
+      <c r="GM4" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="GN4" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="GO4" s="3">
         <v>0</v>
@@ -6270,10 +6270,10 @@
         <v>0</v>
       </c>
       <c r="GY4" s="3" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="GZ4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="HA4" s="3">
         <v>0</v>
@@ -6284,11 +6284,11 @@
       <c r="HC4" s="3">
         <v>0</v>
       </c>
-      <c r="HD4" s="3" t="s">
-        <v>311</v>
+      <c r="HD4" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="HE4" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="HF4" s="3">
         <v>0</v>
@@ -6321,10 +6321,10 @@
         <v>0</v>
       </c>
       <c r="HP4" s="3" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="HQ4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="HR4" s="3">
         <v>0</v>
@@ -6335,11 +6335,11 @@
       <c r="HT4" s="3">
         <v>0</v>
       </c>
-      <c r="HU4" s="3" t="s">
-        <v>311</v>
+      <c r="HU4" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="HV4" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="HW4" s="3">
         <v>0</v>
@@ -6372,10 +6372,10 @@
         <v>0</v>
       </c>
       <c r="IG4" s="3" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="IH4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="II4" s="3">
         <v>0</v>
@@ -6386,11 +6386,11 @@
       <c r="IK4" s="3">
         <v>0</v>
       </c>
-      <c r="IL4" s="3" t="s">
-        <v>311</v>
+      <c r="IL4" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="IM4" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="IN4" s="3">
         <v>0</v>
@@ -6423,10 +6423,10 @@
         <v>0</v>
       </c>
       <c r="IX4" s="3" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="IY4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="IZ4" s="3">
         <v>0</v>
@@ -6437,11 +6437,11 @@
       <c r="JB4" s="3">
         <v>0</v>
       </c>
-      <c r="JC4" s="3" t="s">
-        <v>311</v>
+      <c r="JC4" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="JD4" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="JE4" s="3">
         <v>0</v>
@@ -6474,10 +6474,10 @@
         <v>0</v>
       </c>
       <c r="JO4" s="3" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="JP4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="JQ4" s="3">
         <v>0</v>
@@ -6488,11 +6488,11 @@
       <c r="JS4" s="3">
         <v>0</v>
       </c>
-      <c r="JT4" s="3" t="s">
-        <v>311</v>
+      <c r="JT4" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="JU4" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="JV4" s="3">
         <v>0</v>
@@ -6525,10 +6525,10 @@
         <v>0</v>
       </c>
       <c r="KF4" s="3" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="KG4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="KH4" s="3">
         <v>0</v>
@@ -6539,11 +6539,11 @@
       <c r="KJ4" s="3">
         <v>0</v>
       </c>
-      <c r="KK4" s="3" t="s">
-        <v>311</v>
+      <c r="KK4" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="KL4" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="KM4" s="3">
         <v>0</v>
@@ -6576,18 +6576,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="25.5" spans="1:308">
+    <row r="5" s="1" customFormat="1" ht="26.4" spans="1:308">
       <c r="A5" s="3" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="D5" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E5" s="3">
         <v>0</v>
@@ -6598,11 +6598,11 @@
       <c r="G5" s="3">
         <v>0</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>311</v>
+      <c r="H5" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="I5" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J5" s="3">
         <v>0</v>
@@ -6635,10 +6635,10 @@
         <v>0</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="U5" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V5" s="3">
         <v>0</v>
@@ -6649,11 +6649,11 @@
       <c r="X5" s="3">
         <v>0</v>
       </c>
-      <c r="Y5" s="3" t="s">
-        <v>311</v>
+      <c r="Y5" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="Z5" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA5" s="3">
         <v>0</v>
@@ -6686,10 +6686,10 @@
         <v>0</v>
       </c>
       <c r="AK5" s="3" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="AL5" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AM5" s="3">
         <v>0</v>
@@ -6700,11 +6700,11 @@
       <c r="AO5" s="3">
         <v>0</v>
       </c>
-      <c r="AP5" s="3" t="s">
-        <v>311</v>
+      <c r="AP5" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="AQ5" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AR5" s="3">
         <v>0</v>
@@ -6737,10 +6737,10 @@
         <v>0</v>
       </c>
       <c r="BB5" s="3" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="BC5" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BD5" s="3">
         <v>0</v>
@@ -6751,11 +6751,11 @@
       <c r="BF5" s="3">
         <v>0</v>
       </c>
-      <c r="BG5" s="3" t="s">
-        <v>311</v>
+      <c r="BG5" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="BH5" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BI5" s="3">
         <v>0</v>
@@ -6788,10 +6788,10 @@
         <v>0</v>
       </c>
       <c r="BS5" s="3" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="BT5" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BU5" s="3">
         <v>0</v>
@@ -6802,11 +6802,11 @@
       <c r="BW5" s="3">
         <v>0</v>
       </c>
-      <c r="BX5" s="3" t="s">
-        <v>311</v>
+      <c r="BX5" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="BY5" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BZ5" s="3">
         <v>0</v>
@@ -6839,10 +6839,10 @@
         <v>0</v>
       </c>
       <c r="CJ5" s="3" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="CK5" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CL5" s="3">
         <v>0</v>
@@ -6853,11 +6853,11 @@
       <c r="CN5" s="3">
         <v>0</v>
       </c>
-      <c r="CO5" s="3" t="s">
-        <v>311</v>
+      <c r="CO5" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="CP5" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CQ5" s="3">
         <v>0</v>
@@ -6890,10 +6890,10 @@
         <v>0</v>
       </c>
       <c r="DA5" s="3" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="DB5" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="DC5" s="3">
         <v>0</v>
@@ -6904,11 +6904,11 @@
       <c r="DE5" s="3">
         <v>0</v>
       </c>
-      <c r="DF5" s="3" t="s">
-        <v>311</v>
+      <c r="DF5" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="DG5" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="DH5" s="3">
         <v>0</v>
@@ -6941,10 +6941,10 @@
         <v>0</v>
       </c>
       <c r="DR5" s="3" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="DS5" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="DT5" s="3">
         <v>0</v>
@@ -6955,11 +6955,11 @@
       <c r="DV5" s="3">
         <v>0</v>
       </c>
-      <c r="DW5" s="3" t="s">
-        <v>311</v>
+      <c r="DW5" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="DX5" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="DY5" s="3">
         <v>0</v>
@@ -6992,10 +6992,10 @@
         <v>0</v>
       </c>
       <c r="EI5" s="3" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="EJ5" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="EK5" s="3">
         <v>0</v>
@@ -7006,11 +7006,11 @@
       <c r="EM5" s="3">
         <v>0</v>
       </c>
-      <c r="EN5" s="3" t="s">
-        <v>311</v>
+      <c r="EN5" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="EO5" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="EP5" s="3">
         <v>0</v>
@@ -7043,10 +7043,10 @@
         <v>0</v>
       </c>
       <c r="EZ5" s="3" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="FA5" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="FB5" s="3">
         <v>0</v>
@@ -7057,11 +7057,11 @@
       <c r="FD5" s="3">
         <v>0</v>
       </c>
-      <c r="FE5" s="3" t="s">
-        <v>311</v>
+      <c r="FE5" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="FF5" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="FG5" s="3">
         <v>0</v>
@@ -7094,10 +7094,10 @@
         <v>0</v>
       </c>
       <c r="FQ5" s="3" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="FR5" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="FS5" s="3">
         <v>0</v>
@@ -7108,11 +7108,11 @@
       <c r="FU5" s="3">
         <v>0</v>
       </c>
-      <c r="FV5" s="3" t="s">
-        <v>311</v>
+      <c r="FV5" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="FW5" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="FX5" s="3">
         <v>0</v>
@@ -7145,10 +7145,10 @@
         <v>0</v>
       </c>
       <c r="GH5" s="3" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="GI5" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="GJ5" s="3">
         <v>0</v>
@@ -7159,11 +7159,11 @@
       <c r="GL5" s="3">
         <v>0</v>
       </c>
-      <c r="GM5" s="3" t="s">
-        <v>311</v>
+      <c r="GM5" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="GN5" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="GO5" s="3">
         <v>0</v>
@@ -7196,10 +7196,10 @@
         <v>0</v>
       </c>
       <c r="GY5" s="3" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="GZ5" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="HA5" s="3">
         <v>0</v>
@@ -7210,11 +7210,11 @@
       <c r="HC5" s="3">
         <v>0</v>
       </c>
-      <c r="HD5" s="3" t="s">
-        <v>311</v>
+      <c r="HD5" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="HE5" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="HF5" s="3">
         <v>0</v>
@@ -7247,10 +7247,10 @@
         <v>0</v>
       </c>
       <c r="HP5" s="3" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="HQ5" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="HR5" s="3">
         <v>0</v>
@@ -7261,11 +7261,11 @@
       <c r="HT5" s="3">
         <v>0</v>
       </c>
-      <c r="HU5" s="3" t="s">
-        <v>311</v>
+      <c r="HU5" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="HV5" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="HW5" s="3">
         <v>0</v>
@@ -7298,10 +7298,10 @@
         <v>0</v>
       </c>
       <c r="IG5" s="3" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="IH5" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="II5" s="3">
         <v>0</v>
@@ -7312,11 +7312,11 @@
       <c r="IK5" s="3">
         <v>0</v>
       </c>
-      <c r="IL5" s="3" t="s">
-        <v>311</v>
+      <c r="IL5" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="IM5" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="IN5" s="3">
         <v>0</v>
@@ -7349,10 +7349,10 @@
         <v>0</v>
       </c>
       <c r="IX5" s="3" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="IY5" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="IZ5" s="3">
         <v>0</v>
@@ -7363,11 +7363,11 @@
       <c r="JB5" s="3">
         <v>0</v>
       </c>
-      <c r="JC5" s="3" t="s">
-        <v>311</v>
+      <c r="JC5" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="JD5" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="JE5" s="3">
         <v>0</v>
@@ -7400,10 +7400,10 @@
         <v>0</v>
       </c>
       <c r="JO5" s="3" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="JP5" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="JQ5" s="3">
         <v>0</v>
@@ -7414,11 +7414,11 @@
       <c r="JS5" s="3">
         <v>0</v>
       </c>
-      <c r="JT5" s="3" t="s">
-        <v>311</v>
+      <c r="JT5" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="JU5" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="JV5" s="3">
         <v>0</v>
@@ -7451,10 +7451,10 @@
         <v>0</v>
       </c>
       <c r="KF5" s="3" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="KG5" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="KH5" s="3">
         <v>0</v>
@@ -7465,11 +7465,11 @@
       <c r="KJ5" s="3">
         <v>0</v>
       </c>
-      <c r="KK5" s="3" t="s">
-        <v>311</v>
+      <c r="KK5" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="KL5" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="KM5" s="3">
         <v>0</v>
@@ -7502,18 +7502,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="25.5" spans="1:308">
+    <row r="6" s="1" customFormat="1" ht="26.4" spans="1:308">
       <c r="A6" s="3" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="D6" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E6" s="3">
         <v>0</v>
@@ -7524,11 +7524,11 @@
       <c r="G6" s="3">
         <v>0</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>311</v>
+      <c r="H6" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="I6" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J6" s="3">
         <v>0</v>
@@ -7561,10 +7561,10 @@
         <v>0</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="U6" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V6" s="3">
         <v>0</v>
@@ -7575,11 +7575,11 @@
       <c r="X6" s="3">
         <v>0</v>
       </c>
-      <c r="Y6" s="3" t="s">
-        <v>311</v>
+      <c r="Y6" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="Z6" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA6" s="3">
         <v>0</v>
@@ -7612,10 +7612,10 @@
         <v>0</v>
       </c>
       <c r="AK6" s="3" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="AL6" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AM6" s="3">
         <v>0</v>
@@ -7626,11 +7626,11 @@
       <c r="AO6" s="3">
         <v>0</v>
       </c>
-      <c r="AP6" s="3" t="s">
-        <v>311</v>
+      <c r="AP6" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="AQ6" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR6" s="3">
         <v>0</v>
@@ -7663,10 +7663,10 @@
         <v>0</v>
       </c>
       <c r="BB6" s="3" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="BC6" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BD6" s="3">
         <v>0</v>
@@ -7677,11 +7677,11 @@
       <c r="BF6" s="3">
         <v>0</v>
       </c>
-      <c r="BG6" s="3" t="s">
-        <v>311</v>
+      <c r="BG6" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="BH6" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BI6" s="3">
         <v>0</v>
@@ -7714,10 +7714,10 @@
         <v>0</v>
       </c>
       <c r="BS6" s="3" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="BT6" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BU6" s="3">
         <v>0</v>
@@ -7728,11 +7728,11 @@
       <c r="BW6" s="3">
         <v>0</v>
       </c>
-      <c r="BX6" s="3" t="s">
-        <v>311</v>
+      <c r="BX6" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="BY6" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BZ6" s="3">
         <v>0</v>
@@ -7765,10 +7765,10 @@
         <v>0</v>
       </c>
       <c r="CJ6" s="3" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="CK6" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CL6" s="3">
         <v>0</v>
@@ -7779,11 +7779,11 @@
       <c r="CN6" s="3">
         <v>0</v>
       </c>
-      <c r="CO6" s="3" t="s">
-        <v>311</v>
+      <c r="CO6" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="CP6" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CQ6" s="3">
         <v>0</v>
@@ -7816,10 +7816,10 @@
         <v>0</v>
       </c>
       <c r="DA6" s="3" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="DB6" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="DC6" s="3">
         <v>0</v>
@@ -7830,11 +7830,11 @@
       <c r="DE6" s="3">
         <v>0</v>
       </c>
-      <c r="DF6" s="3" t="s">
-        <v>311</v>
+      <c r="DF6" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="DG6" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DH6" s="3">
         <v>0</v>
@@ -7867,10 +7867,10 @@
         <v>0</v>
       </c>
       <c r="DR6" s="3" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="DS6" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="DT6" s="3">
         <v>0</v>
@@ -7881,11 +7881,11 @@
       <c r="DV6" s="3">
         <v>0</v>
       </c>
-      <c r="DW6" s="3" t="s">
-        <v>311</v>
+      <c r="DW6" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="DX6" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DY6" s="3">
         <v>0</v>
@@ -7918,10 +7918,10 @@
         <v>0</v>
       </c>
       <c r="EI6" s="3" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="EJ6" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="EK6" s="3">
         <v>0</v>
@@ -7932,11 +7932,11 @@
       <c r="EM6" s="3">
         <v>0</v>
       </c>
-      <c r="EN6" s="3" t="s">
-        <v>311</v>
+      <c r="EN6" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="EO6" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="EP6" s="3">
         <v>0</v>
@@ -7969,10 +7969,10 @@
         <v>0</v>
       </c>
       <c r="EZ6" s="3" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="FA6" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="FB6" s="3">
         <v>0</v>
@@ -7983,11 +7983,11 @@
       <c r="FD6" s="3">
         <v>0</v>
       </c>
-      <c r="FE6" s="3" t="s">
-        <v>311</v>
+      <c r="FE6" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="FF6" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="FG6" s="3">
         <v>0</v>
@@ -8020,10 +8020,10 @@
         <v>0</v>
       </c>
       <c r="FQ6" s="3" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="FR6" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="FS6" s="3">
         <v>0</v>
@@ -8034,11 +8034,11 @@
       <c r="FU6" s="3">
         <v>0</v>
       </c>
-      <c r="FV6" s="3" t="s">
-        <v>311</v>
+      <c r="FV6" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="FW6" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="FX6" s="3">
         <v>0</v>
@@ -8071,10 +8071,10 @@
         <v>0</v>
       </c>
       <c r="GH6" s="3" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="GI6" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="GJ6" s="3">
         <v>0</v>
@@ -8085,11 +8085,11 @@
       <c r="GL6" s="3">
         <v>0</v>
       </c>
-      <c r="GM6" s="3" t="s">
-        <v>311</v>
+      <c r="GM6" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="GN6" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="GO6" s="3">
         <v>0</v>
@@ -8122,10 +8122,10 @@
         <v>0</v>
       </c>
       <c r="GY6" s="3" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="GZ6" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="HA6" s="3">
         <v>0</v>
@@ -8136,11 +8136,11 @@
       <c r="HC6" s="3">
         <v>0</v>
       </c>
-      <c r="HD6" s="3" t="s">
-        <v>311</v>
+      <c r="HD6" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="HE6" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="HF6" s="3">
         <v>0</v>
@@ -8173,10 +8173,10 @@
         <v>0</v>
       </c>
       <c r="HP6" s="3" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="HQ6" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="HR6" s="3">
         <v>0</v>
@@ -8187,11 +8187,11 @@
       <c r="HT6" s="3">
         <v>0</v>
       </c>
-      <c r="HU6" s="3" t="s">
-        <v>311</v>
+      <c r="HU6" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="HV6" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="HW6" s="3">
         <v>0</v>
@@ -8224,10 +8224,10 @@
         <v>0</v>
       </c>
       <c r="IG6" s="3" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="IH6" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="II6" s="3">
         <v>0</v>
@@ -8238,11 +8238,11 @@
       <c r="IK6" s="3">
         <v>0</v>
       </c>
-      <c r="IL6" s="3" t="s">
-        <v>311</v>
+      <c r="IL6" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="IM6" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="IN6" s="3">
         <v>0</v>
@@ -8275,10 +8275,10 @@
         <v>0</v>
       </c>
       <c r="IX6" s="3" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="IY6" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="IZ6" s="3">
         <v>0</v>
@@ -8289,11 +8289,11 @@
       <c r="JB6" s="3">
         <v>0</v>
       </c>
-      <c r="JC6" s="3" t="s">
-        <v>311</v>
+      <c r="JC6" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="JD6" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="JE6" s="3">
         <v>0</v>
@@ -8326,10 +8326,10 @@
         <v>0</v>
       </c>
       <c r="JO6" s="3" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="JP6" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="JQ6" s="3">
         <v>0</v>
@@ -8340,11 +8340,11 @@
       <c r="JS6" s="3">
         <v>0</v>
       </c>
-      <c r="JT6" s="3" t="s">
-        <v>311</v>
+      <c r="JT6" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="JU6" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="JV6" s="3">
         <v>0</v>
@@ -8377,10 +8377,10 @@
         <v>0</v>
       </c>
       <c r="KF6" s="3" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="KG6" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="KH6" s="3">
         <v>0</v>
@@ -8391,11 +8391,11 @@
       <c r="KJ6" s="3">
         <v>0</v>
       </c>
-      <c r="KK6" s="3" t="s">
-        <v>311</v>
+      <c r="KK6" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="KL6" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="KM6" s="3">
         <v>0</v>
@@ -8428,18 +8428,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="25.5" spans="1:308">
+    <row r="7" s="1" customFormat="1" ht="26.4" spans="1:308">
       <c r="A7" s="3" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="D7" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E7" s="3">
         <v>0</v>
@@ -8450,8 +8450,8 @@
       <c r="G7" s="3">
         <v>0</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>311</v>
+      <c r="H7" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="I7" s="3">
         <v>5</v>
@@ -8487,10 +8487,10 @@
         <v>0</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="U7" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V7" s="3">
         <v>0</v>
@@ -8501,8 +8501,8 @@
       <c r="X7" s="3">
         <v>0</v>
       </c>
-      <c r="Y7" s="3" t="s">
-        <v>311</v>
+      <c r="Y7" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="Z7" s="3">
         <v>5</v>
@@ -8538,10 +8538,10 @@
         <v>0</v>
       </c>
       <c r="AK7" s="3" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="AL7" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AM7" s="3">
         <v>0</v>
@@ -8552,8 +8552,8 @@
       <c r="AO7" s="3">
         <v>0</v>
       </c>
-      <c r="AP7" s="3" t="s">
-        <v>311</v>
+      <c r="AP7" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="AQ7" s="3">
         <v>5</v>
@@ -8589,10 +8589,10 @@
         <v>0</v>
       </c>
       <c r="BB7" s="3" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="BC7" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BD7" s="3">
         <v>0</v>
@@ -8603,8 +8603,8 @@
       <c r="BF7" s="3">
         <v>0</v>
       </c>
-      <c r="BG7" s="3" t="s">
-        <v>311</v>
+      <c r="BG7" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="BH7" s="3">
         <v>5</v>
@@ -8640,10 +8640,10 @@
         <v>0</v>
       </c>
       <c r="BS7" s="3" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="BT7" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BU7" s="3">
         <v>0</v>
@@ -8654,8 +8654,8 @@
       <c r="BW7" s="3">
         <v>0</v>
       </c>
-      <c r="BX7" s="3" t="s">
-        <v>311</v>
+      <c r="BX7" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="BY7" s="3">
         <v>5</v>
@@ -8691,10 +8691,10 @@
         <v>0</v>
       </c>
       <c r="CJ7" s="3" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="CK7" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="CL7" s="3">
         <v>0</v>
@@ -8705,8 +8705,8 @@
       <c r="CN7" s="3">
         <v>0</v>
       </c>
-      <c r="CO7" s="3" t="s">
-        <v>311</v>
+      <c r="CO7" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="CP7" s="3">
         <v>5</v>
@@ -8742,10 +8742,10 @@
         <v>0</v>
       </c>
       <c r="DA7" s="3" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="DB7" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="DC7" s="3">
         <v>0</v>
@@ -8756,8 +8756,8 @@
       <c r="DE7" s="3">
         <v>0</v>
       </c>
-      <c r="DF7" s="3" t="s">
-        <v>311</v>
+      <c r="DF7" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="DG7" s="3">
         <v>5</v>
@@ -8793,10 +8793,10 @@
         <v>0</v>
       </c>
       <c r="DR7" s="3" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="DS7" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="DT7" s="3">
         <v>0</v>
@@ -8807,8 +8807,8 @@
       <c r="DV7" s="3">
         <v>0</v>
       </c>
-      <c r="DW7" s="3" t="s">
-        <v>311</v>
+      <c r="DW7" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="DX7" s="3">
         <v>5</v>
@@ -8844,10 +8844,10 @@
         <v>0</v>
       </c>
       <c r="EI7" s="3" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="EJ7" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="EK7" s="3">
         <v>0</v>
@@ -8858,8 +8858,8 @@
       <c r="EM7" s="3">
         <v>0</v>
       </c>
-      <c r="EN7" s="3" t="s">
-        <v>311</v>
+      <c r="EN7" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="EO7" s="3">
         <v>5</v>
@@ -8895,10 +8895,10 @@
         <v>0</v>
       </c>
       <c r="EZ7" s="3" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="FA7" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="FB7" s="3">
         <v>0</v>
@@ -8909,8 +8909,8 @@
       <c r="FD7" s="3">
         <v>0</v>
       </c>
-      <c r="FE7" s="3" t="s">
-        <v>311</v>
+      <c r="FE7" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="FF7" s="3">
         <v>5</v>
@@ -8946,10 +8946,10 @@
         <v>0</v>
       </c>
       <c r="FQ7" s="3" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="FR7" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="FS7" s="3">
         <v>0</v>
@@ -8960,8 +8960,8 @@
       <c r="FU7" s="3">
         <v>0</v>
       </c>
-      <c r="FV7" s="3" t="s">
-        <v>311</v>
+      <c r="FV7" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="FW7" s="3">
         <v>5</v>
@@ -8997,10 +8997,10 @@
         <v>0</v>
       </c>
       <c r="GH7" s="3" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="GI7" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="GJ7" s="3">
         <v>0</v>
@@ -9011,8 +9011,8 @@
       <c r="GL7" s="3">
         <v>0</v>
       </c>
-      <c r="GM7" s="3" t="s">
-        <v>311</v>
+      <c r="GM7" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="GN7" s="3">
         <v>5</v>
@@ -9048,10 +9048,10 @@
         <v>0</v>
       </c>
       <c r="GY7" s="3" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="GZ7" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="HA7" s="3">
         <v>0</v>
@@ -9062,8 +9062,8 @@
       <c r="HC7" s="3">
         <v>0</v>
       </c>
-      <c r="HD7" s="3" t="s">
-        <v>311</v>
+      <c r="HD7" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="HE7" s="3">
         <v>5</v>
@@ -9099,10 +9099,10 @@
         <v>0</v>
       </c>
       <c r="HP7" s="3" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="HQ7" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="HR7" s="3">
         <v>0</v>
@@ -9113,8 +9113,8 @@
       <c r="HT7" s="3">
         <v>0</v>
       </c>
-      <c r="HU7" s="3" t="s">
-        <v>311</v>
+      <c r="HU7" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="HV7" s="3">
         <v>5</v>
@@ -9150,10 +9150,10 @@
         <v>0</v>
       </c>
       <c r="IG7" s="3" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="IH7" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="II7" s="3">
         <v>0</v>
@@ -9164,8 +9164,8 @@
       <c r="IK7" s="3">
         <v>0</v>
       </c>
-      <c r="IL7" s="3" t="s">
-        <v>311</v>
+      <c r="IL7" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="IM7" s="3">
         <v>5</v>
@@ -9201,10 +9201,10 @@
         <v>0</v>
       </c>
       <c r="IX7" s="3" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="IY7" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="IZ7" s="3">
         <v>0</v>
@@ -9215,8 +9215,8 @@
       <c r="JB7" s="3">
         <v>0</v>
       </c>
-      <c r="JC7" s="3" t="s">
-        <v>311</v>
+      <c r="JC7" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="JD7" s="3">
         <v>5</v>
@@ -9252,10 +9252,10 @@
         <v>0</v>
       </c>
       <c r="JO7" s="3" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="JP7" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="JQ7" s="3">
         <v>0</v>
@@ -9266,8 +9266,8 @@
       <c r="JS7" s="3">
         <v>0</v>
       </c>
-      <c r="JT7" s="3" t="s">
-        <v>311</v>
+      <c r="JT7" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="JU7" s="3">
         <v>5</v>
@@ -9303,10 +9303,10 @@
         <v>0</v>
       </c>
       <c r="KF7" s="3" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="KG7" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="KH7" s="3">
         <v>0</v>
@@ -9317,8 +9317,8 @@
       <c r="KJ7" s="3">
         <v>0</v>
       </c>
-      <c r="KK7" s="3" t="s">
-        <v>311</v>
+      <c r="KK7" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="KL7" s="3">
         <v>5</v>
@@ -9354,18 +9354,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="25.5" spans="1:308">
+    <row r="8" s="1" customFormat="1" ht="26.4" spans="1:308">
       <c r="A8" s="3" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="D8" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -9376,11 +9376,11 @@
       <c r="G8" s="3">
         <v>0</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>311</v>
+      <c r="H8" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="I8" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -9413,10 +9413,10 @@
         <v>0</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="U8" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V8" s="3">
         <v>0</v>
@@ -9427,11 +9427,11 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-      <c r="Y8" s="3" t="s">
-        <v>311</v>
+      <c r="Y8" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="Z8" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA8" s="3">
         <v>0</v>
@@ -9464,10 +9464,10 @@
         <v>0</v>
       </c>
       <c r="AK8" s="3" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="AL8" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AM8" s="3">
         <v>0</v>
@@ -9478,11 +9478,11 @@
       <c r="AO8" s="3">
         <v>0</v>
       </c>
-      <c r="AP8" s="3" t="s">
-        <v>311</v>
+      <c r="AP8" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="AQ8" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR8" s="3">
         <v>0</v>
@@ -9515,10 +9515,10 @@
         <v>0</v>
       </c>
       <c r="BB8" s="3" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="BC8" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BD8" s="3">
         <v>0</v>
@@ -9529,11 +9529,11 @@
       <c r="BF8" s="3">
         <v>0</v>
       </c>
-      <c r="BG8" s="3" t="s">
-        <v>311</v>
+      <c r="BG8" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="BH8" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BI8" s="3">
         <v>0</v>
@@ -9566,10 +9566,10 @@
         <v>0</v>
       </c>
       <c r="BS8" s="3" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="BT8" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BU8" s="3">
         <v>0</v>
@@ -9580,11 +9580,11 @@
       <c r="BW8" s="3">
         <v>0</v>
       </c>
-      <c r="BX8" s="3" t="s">
-        <v>311</v>
+      <c r="BX8" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="BY8" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BZ8" s="3">
         <v>0</v>
@@ -9617,10 +9617,10 @@
         <v>0</v>
       </c>
       <c r="CJ8" s="3" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="CK8" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="CL8" s="3">
         <v>0</v>
@@ -9631,11 +9631,11 @@
       <c r="CN8" s="3">
         <v>0</v>
       </c>
-      <c r="CO8" s="3" t="s">
-        <v>311</v>
+      <c r="CO8" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="CP8" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CQ8" s="3">
         <v>0</v>
@@ -9668,10 +9668,10 @@
         <v>0</v>
       </c>
       <c r="DA8" s="3" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="DB8" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="DC8" s="3">
         <v>0</v>
@@ -9682,11 +9682,11 @@
       <c r="DE8" s="3">
         <v>0</v>
       </c>
-      <c r="DF8" s="3" t="s">
-        <v>311</v>
+      <c r="DF8" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="DG8" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DH8" s="3">
         <v>0</v>
@@ -9719,10 +9719,10 @@
         <v>0</v>
       </c>
       <c r="DR8" s="3" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="DS8" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="DT8" s="3">
         <v>0</v>
@@ -9733,11 +9733,11 @@
       <c r="DV8" s="3">
         <v>0</v>
       </c>
-      <c r="DW8" s="3" t="s">
-        <v>311</v>
+      <c r="DW8" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="DX8" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="DY8" s="3">
         <v>0</v>
@@ -9770,10 +9770,10 @@
         <v>0</v>
       </c>
       <c r="EI8" s="3" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="EJ8" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="EK8" s="3">
         <v>0</v>
@@ -9784,11 +9784,11 @@
       <c r="EM8" s="3">
         <v>0</v>
       </c>
-      <c r="EN8" s="3" t="s">
-        <v>311</v>
+      <c r="EN8" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="EO8" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="EP8" s="3">
         <v>0</v>
@@ -9821,10 +9821,10 @@
         <v>0</v>
       </c>
       <c r="EZ8" s="3" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="FA8" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="FB8" s="3">
         <v>0</v>
@@ -9835,11 +9835,11 @@
       <c r="FD8" s="3">
         <v>0</v>
       </c>
-      <c r="FE8" s="3" t="s">
-        <v>311</v>
+      <c r="FE8" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="FF8" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="FG8" s="3">
         <v>0</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="FQ8" s="3" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="FR8" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="FS8" s="3">
         <v>0</v>
@@ -9886,11 +9886,11 @@
       <c r="FU8" s="3">
         <v>0</v>
       </c>
-      <c r="FV8" s="3" t="s">
-        <v>311</v>
+      <c r="FV8" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="FW8" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="FX8" s="3">
         <v>0</v>
@@ -9923,10 +9923,10 @@
         <v>0</v>
       </c>
       <c r="GH8" s="3" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="GI8" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="GJ8" s="3">
         <v>0</v>
@@ -9937,11 +9937,11 @@
       <c r="GL8" s="3">
         <v>0</v>
       </c>
-      <c r="GM8" s="3" t="s">
-        <v>311</v>
+      <c r="GM8" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="GN8" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="GO8" s="3">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="GY8" s="3" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="GZ8" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="HA8" s="3">
         <v>0</v>
@@ -9988,11 +9988,11 @@
       <c r="HC8" s="3">
         <v>0</v>
       </c>
-      <c r="HD8" s="3" t="s">
-        <v>311</v>
+      <c r="HD8" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="HE8" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="HF8" s="3">
         <v>0</v>
@@ -10025,10 +10025,10 @@
         <v>0</v>
       </c>
       <c r="HP8" s="3" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="HQ8" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="HR8" s="3">
         <v>0</v>
@@ -10039,11 +10039,11 @@
       <c r="HT8" s="3">
         <v>0</v>
       </c>
-      <c r="HU8" s="3" t="s">
-        <v>311</v>
+      <c r="HU8" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="HV8" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="HW8" s="3">
         <v>0</v>
@@ -10076,10 +10076,10 @@
         <v>0</v>
       </c>
       <c r="IG8" s="3" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="IH8" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="II8" s="3">
         <v>0</v>
@@ -10090,11 +10090,11 @@
       <c r="IK8" s="3">
         <v>0</v>
       </c>
-      <c r="IL8" s="3" t="s">
-        <v>311</v>
+      <c r="IL8" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="IM8" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="IN8" s="3">
         <v>0</v>
@@ -10127,10 +10127,10 @@
         <v>0</v>
       </c>
       <c r="IX8" s="3" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="IY8" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="IZ8" s="3">
         <v>0</v>
@@ -10141,11 +10141,11 @@
       <c r="JB8" s="3">
         <v>0</v>
       </c>
-      <c r="JC8" s="3" t="s">
-        <v>311</v>
+      <c r="JC8" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="JD8" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="JE8" s="3">
         <v>0</v>
@@ -10178,10 +10178,10 @@
         <v>0</v>
       </c>
       <c r="JO8" s="3" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="JP8" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="JQ8" s="3">
         <v>0</v>
@@ -10192,11 +10192,11 @@
       <c r="JS8" s="3">
         <v>0</v>
       </c>
-      <c r="JT8" s="3" t="s">
-        <v>311</v>
+      <c r="JT8" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="JU8" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="JV8" s="3">
         <v>0</v>
@@ -10229,10 +10229,10 @@
         <v>0</v>
       </c>
       <c r="KF8" s="3" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="KG8" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="KH8" s="3">
         <v>0</v>
@@ -10243,11 +10243,11 @@
       <c r="KJ8" s="3">
         <v>0</v>
       </c>
-      <c r="KK8" s="3" t="s">
-        <v>311</v>
+      <c r="KK8" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="KL8" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="KM8" s="3">
         <v>0</v>
@@ -10281,13 +10281,13 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="4"/>
@@ -10295,8 +10295,8 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="19" spans="6:6">
       <c r="F19" s="3"/>

--- a/Table/Table_xls/f福利奖励/累积登陆礼包.xlsx
+++ b/Table/Table_xls/f福利奖励/累积登陆礼包.xlsx
@@ -458,7 +458,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="333">
   <si>
     <t>累积登陆天数</t>
   </si>
@@ -1688,19 +1688,22 @@
     <t>0,310103</t>
   </si>
   <si>
+    <t>0,340707</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>set:jiangli image:di2tian</t>
+  </si>
+  <si>
+    <t>0,340201</t>
+  </si>
+  <si>
+    <t>0,339002</t>
+  </si>
+  <si>
     <t>0,339102</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>set:jiangli image:di2tian</t>
-  </si>
-  <si>
-    <t>0,340201</t>
-  </si>
-  <si>
-    <t>0,339002</t>
   </si>
   <si>
     <t>3</t>
@@ -1753,9 +1756,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -1789,6 +1792,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1805,37 +1884,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1843,52 +1892,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1903,16 +1906,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1923,6 +1918,14 @@
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1988,7 +1991,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2000,169 +2159,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2185,20 +2188,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2209,6 +2209,30 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2230,36 +2254,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2273,6 +2267,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2281,10 +2284,10 @@
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2293,130 +2296,130 @@
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2854,7 +2857,7 @@
   <dimension ref="A1:KV19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="KU13" sqref="KU13"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.287037037037" defaultRowHeight="15.6"/>
@@ -4762,7 +4765,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="N3" s="3">
         <v>2</v>
@@ -4813,7 +4816,7 @@
         <v>0</v>
       </c>
       <c r="AD3" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="AE3" s="3">
         <v>2</v>
@@ -4864,7 +4867,7 @@
         <v>0</v>
       </c>
       <c r="AU3" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="AV3" s="3">
         <v>2</v>
@@ -4915,7 +4918,7 @@
         <v>0</v>
       </c>
       <c r="BL3" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="BM3" s="3">
         <v>2</v>
@@ -4966,7 +4969,7 @@
         <v>0</v>
       </c>
       <c r="CC3" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="CD3" s="3">
         <v>2</v>
@@ -5017,7 +5020,7 @@
         <v>0</v>
       </c>
       <c r="CT3" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="CU3" s="3">
         <v>2</v>
@@ -5068,7 +5071,7 @@
         <v>0</v>
       </c>
       <c r="DK3" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="DL3" s="3">
         <v>2</v>
@@ -5119,7 +5122,7 @@
         <v>0</v>
       </c>
       <c r="EB3" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="EC3" s="3">
         <v>2</v>
@@ -5170,7 +5173,7 @@
         <v>0</v>
       </c>
       <c r="ES3" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="ET3" s="3">
         <v>2</v>
@@ -5221,7 +5224,7 @@
         <v>0</v>
       </c>
       <c r="FJ3" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="FK3" s="3">
         <v>2</v>
@@ -5272,7 +5275,7 @@
         <v>0</v>
       </c>
       <c r="GA3" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="GB3" s="3">
         <v>2</v>
@@ -5323,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="GR3" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="GS3" s="3">
         <v>2</v>
@@ -5374,7 +5377,7 @@
         <v>0</v>
       </c>
       <c r="HI3" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="HJ3" s="3">
         <v>2</v>
@@ -5425,7 +5428,7 @@
         <v>0</v>
       </c>
       <c r="HZ3" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="IA3" s="3">
         <v>2</v>
@@ -5476,7 +5479,7 @@
         <v>0</v>
       </c>
       <c r="IQ3" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="IR3" s="3">
         <v>2</v>
@@ -5527,7 +5530,7 @@
         <v>0</v>
       </c>
       <c r="JH3" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="JI3" s="3">
         <v>2</v>
@@ -5578,7 +5581,7 @@
         <v>0</v>
       </c>
       <c r="JY3" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="JZ3" s="3">
         <v>2</v>
@@ -5629,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="KP3" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="KQ3" s="3">
         <v>2</v>
@@ -5652,13 +5655,13 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="26.4" spans="1:308">
       <c r="A4" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
@@ -5688,7 +5691,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="N4" s="3">
         <v>3</v>
@@ -5709,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="U4" s="3">
         <v>1</v>
@@ -5739,7 +5742,7 @@
         <v>0</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="AE4" s="3">
         <v>3</v>
@@ -5760,7 +5763,7 @@
         <v>0</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AL4" s="3">
         <v>1</v>
@@ -5790,7 +5793,7 @@
         <v>0</v>
       </c>
       <c r="AU4" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="AV4" s="3">
         <v>3</v>
@@ -5811,7 +5814,7 @@
         <v>0</v>
       </c>
       <c r="BB4" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="BC4" s="3">
         <v>1</v>
@@ -5841,7 +5844,7 @@
         <v>0</v>
       </c>
       <c r="BL4" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="BM4" s="3">
         <v>3</v>
@@ -5862,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="BS4" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="BT4" s="3">
         <v>1</v>
@@ -5892,7 +5895,7 @@
         <v>0</v>
       </c>
       <c r="CC4" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="CD4" s="3">
         <v>3</v>
@@ -5913,7 +5916,7 @@
         <v>0</v>
       </c>
       <c r="CJ4" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="CK4" s="3">
         <v>1</v>
@@ -5943,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="CT4" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="CU4" s="3">
         <v>3</v>
@@ -5964,7 +5967,7 @@
         <v>0</v>
       </c>
       <c r="DA4" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="DB4" s="3">
         <v>1</v>
@@ -5994,7 +5997,7 @@
         <v>0</v>
       </c>
       <c r="DK4" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="DL4" s="3">
         <v>3</v>
@@ -6015,7 +6018,7 @@
         <v>0</v>
       </c>
       <c r="DR4" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="DS4" s="3">
         <v>1</v>
@@ -6045,7 +6048,7 @@
         <v>0</v>
       </c>
       <c r="EB4" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="EC4" s="3">
         <v>3</v>
@@ -6066,7 +6069,7 @@
         <v>0</v>
       </c>
       <c r="EI4" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="EJ4" s="3">
         <v>1</v>
@@ -6096,7 +6099,7 @@
         <v>0</v>
       </c>
       <c r="ES4" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="ET4" s="3">
         <v>3</v>
@@ -6117,7 +6120,7 @@
         <v>0</v>
       </c>
       <c r="EZ4" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="FA4" s="3">
         <v>1</v>
@@ -6147,7 +6150,7 @@
         <v>0</v>
       </c>
       <c r="FJ4" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="FK4" s="3">
         <v>3</v>
@@ -6168,7 +6171,7 @@
         <v>0</v>
       </c>
       <c r="FQ4" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="FR4" s="3">
         <v>1</v>
@@ -6198,7 +6201,7 @@
         <v>0</v>
       </c>
       <c r="GA4" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="GB4" s="3">
         <v>3</v>
@@ -6219,7 +6222,7 @@
         <v>0</v>
       </c>
       <c r="GH4" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="GI4" s="3">
         <v>1</v>
@@ -6249,7 +6252,7 @@
         <v>0</v>
       </c>
       <c r="GR4" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="GS4" s="3">
         <v>3</v>
@@ -6270,7 +6273,7 @@
         <v>0</v>
       </c>
       <c r="GY4" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="GZ4" s="3">
         <v>1</v>
@@ -6300,7 +6303,7 @@
         <v>0</v>
       </c>
       <c r="HI4" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="HJ4" s="3">
         <v>3</v>
@@ -6321,7 +6324,7 @@
         <v>0</v>
       </c>
       <c r="HP4" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="HQ4" s="3">
         <v>1</v>
@@ -6351,7 +6354,7 @@
         <v>0</v>
       </c>
       <c r="HZ4" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="IA4" s="3">
         <v>3</v>
@@ -6372,7 +6375,7 @@
         <v>0</v>
       </c>
       <c r="IG4" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="IH4" s="3">
         <v>1</v>
@@ -6402,7 +6405,7 @@
         <v>0</v>
       </c>
       <c r="IQ4" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="IR4" s="3">
         <v>3</v>
@@ -6423,7 +6426,7 @@
         <v>0</v>
       </c>
       <c r="IX4" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="IY4" s="3">
         <v>1</v>
@@ -6453,7 +6456,7 @@
         <v>0</v>
       </c>
       <c r="JH4" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="JI4" s="3">
         <v>3</v>
@@ -6474,7 +6477,7 @@
         <v>0</v>
       </c>
       <c r="JO4" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="JP4" s="3">
         <v>1</v>
@@ -6504,7 +6507,7 @@
         <v>0</v>
       </c>
       <c r="JY4" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="JZ4" s="3">
         <v>3</v>
@@ -6525,7 +6528,7 @@
         <v>0</v>
       </c>
       <c r="KF4" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="KG4" s="3">
         <v>1</v>
@@ -6555,7 +6558,7 @@
         <v>0</v>
       </c>
       <c r="KP4" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="KQ4" s="3">
         <v>3</v>
@@ -6578,13 +6581,13 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="26.4" spans="1:308">
       <c r="A5" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
@@ -6614,7 +6617,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="N5" s="3">
         <v>4</v>
@@ -6635,7 +6638,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="U5" s="3">
         <v>1</v>
@@ -6665,7 +6668,7 @@
         <v>0</v>
       </c>
       <c r="AD5" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="AE5" s="3">
         <v>4</v>
@@ -6686,7 +6689,7 @@
         <v>0</v>
       </c>
       <c r="AK5" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AL5" s="3">
         <v>1</v>
@@ -6716,7 +6719,7 @@
         <v>0</v>
       </c>
       <c r="AU5" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="AV5" s="3">
         <v>4</v>
@@ -6737,7 +6740,7 @@
         <v>0</v>
       </c>
       <c r="BB5" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="BC5" s="3">
         <v>1</v>
@@ -6767,7 +6770,7 @@
         <v>0</v>
       </c>
       <c r="BL5" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="BM5" s="3">
         <v>4</v>
@@ -6788,7 +6791,7 @@
         <v>0</v>
       </c>
       <c r="BS5" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="BT5" s="3">
         <v>1</v>
@@ -6818,7 +6821,7 @@
         <v>0</v>
       </c>
       <c r="CC5" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="CD5" s="3">
         <v>4</v>
@@ -6839,7 +6842,7 @@
         <v>0</v>
       </c>
       <c r="CJ5" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="CK5" s="3">
         <v>1</v>
@@ -6869,7 +6872,7 @@
         <v>0</v>
       </c>
       <c r="CT5" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="CU5" s="3">
         <v>4</v>
@@ -6890,7 +6893,7 @@
         <v>0</v>
       </c>
       <c r="DA5" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="DB5" s="3">
         <v>1</v>
@@ -6920,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="DK5" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="DL5" s="3">
         <v>4</v>
@@ -6941,7 +6944,7 @@
         <v>0</v>
       </c>
       <c r="DR5" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="DS5" s="3">
         <v>1</v>
@@ -6971,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="EB5" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="EC5" s="3">
         <v>4</v>
@@ -6992,7 +6995,7 @@
         <v>0</v>
       </c>
       <c r="EI5" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="EJ5" s="3">
         <v>1</v>
@@ -7022,7 +7025,7 @@
         <v>0</v>
       </c>
       <c r="ES5" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="ET5" s="3">
         <v>4</v>
@@ -7043,7 +7046,7 @@
         <v>0</v>
       </c>
       <c r="EZ5" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="FA5" s="3">
         <v>1</v>
@@ -7073,7 +7076,7 @@
         <v>0</v>
       </c>
       <c r="FJ5" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="FK5" s="3">
         <v>4</v>
@@ -7094,7 +7097,7 @@
         <v>0</v>
       </c>
       <c r="FQ5" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="FR5" s="3">
         <v>1</v>
@@ -7124,7 +7127,7 @@
         <v>0</v>
       </c>
       <c r="GA5" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="GB5" s="3">
         <v>4</v>
@@ -7145,7 +7148,7 @@
         <v>0</v>
       </c>
       <c r="GH5" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="GI5" s="3">
         <v>1</v>
@@ -7175,7 +7178,7 @@
         <v>0</v>
       </c>
       <c r="GR5" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="GS5" s="3">
         <v>4</v>
@@ -7196,7 +7199,7 @@
         <v>0</v>
       </c>
       <c r="GY5" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="GZ5" s="3">
         <v>1</v>
@@ -7226,7 +7229,7 @@
         <v>0</v>
       </c>
       <c r="HI5" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="HJ5" s="3">
         <v>4</v>
@@ -7247,7 +7250,7 @@
         <v>0</v>
       </c>
       <c r="HP5" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="HQ5" s="3">
         <v>1</v>
@@ -7277,7 +7280,7 @@
         <v>0</v>
       </c>
       <c r="HZ5" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="IA5" s="3">
         <v>4</v>
@@ -7298,7 +7301,7 @@
         <v>0</v>
       </c>
       <c r="IG5" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="IH5" s="3">
         <v>1</v>
@@ -7328,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="IQ5" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="IR5" s="3">
         <v>4</v>
@@ -7349,7 +7352,7 @@
         <v>0</v>
       </c>
       <c r="IX5" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="IY5" s="3">
         <v>1</v>
@@ -7379,7 +7382,7 @@
         <v>0</v>
       </c>
       <c r="JH5" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="JI5" s="3">
         <v>4</v>
@@ -7400,7 +7403,7 @@
         <v>0</v>
       </c>
       <c r="JO5" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="JP5" s="3">
         <v>1</v>
@@ -7430,7 +7433,7 @@
         <v>0</v>
       </c>
       <c r="JY5" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="JZ5" s="3">
         <v>4</v>
@@ -7451,7 +7454,7 @@
         <v>0</v>
       </c>
       <c r="KF5" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="KG5" s="3">
         <v>1</v>
@@ -7481,7 +7484,7 @@
         <v>0</v>
       </c>
       <c r="KP5" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="KQ5" s="3">
         <v>4</v>
@@ -7504,13 +7507,13 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="26.4" spans="1:308">
       <c r="A6" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
@@ -7540,7 +7543,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="N6" s="3">
         <v>5</v>
@@ -7561,7 +7564,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="U6" s="3">
         <v>1</v>
@@ -7591,7 +7594,7 @@
         <v>0</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="AE6" s="3">
         <v>5</v>
@@ -7612,7 +7615,7 @@
         <v>0</v>
       </c>
       <c r="AK6" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL6" s="3">
         <v>1</v>
@@ -7642,7 +7645,7 @@
         <v>0</v>
       </c>
       <c r="AU6" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="AV6" s="3">
         <v>5</v>
@@ -7663,7 +7666,7 @@
         <v>0</v>
       </c>
       <c r="BB6" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="BC6" s="3">
         <v>1</v>
@@ -7693,7 +7696,7 @@
         <v>0</v>
       </c>
       <c r="BL6" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="BM6" s="3">
         <v>5</v>
@@ -7714,7 +7717,7 @@
         <v>0</v>
       </c>
       <c r="BS6" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="BT6" s="3">
         <v>1</v>
@@ -7744,7 +7747,7 @@
         <v>0</v>
       </c>
       <c r="CC6" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="CD6" s="3">
         <v>5</v>
@@ -7765,7 +7768,7 @@
         <v>0</v>
       </c>
       <c r="CJ6" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="CK6" s="3">
         <v>1</v>
@@ -7795,7 +7798,7 @@
         <v>0</v>
       </c>
       <c r="CT6" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="CU6" s="3">
         <v>5</v>
@@ -7816,7 +7819,7 @@
         <v>0</v>
       </c>
       <c r="DA6" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="DB6" s="3">
         <v>1</v>
@@ -7846,7 +7849,7 @@
         <v>0</v>
       </c>
       <c r="DK6" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="DL6" s="3">
         <v>5</v>
@@ -7867,7 +7870,7 @@
         <v>0</v>
       </c>
       <c r="DR6" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="DS6" s="3">
         <v>1</v>
@@ -7897,7 +7900,7 @@
         <v>0</v>
       </c>
       <c r="EB6" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="EC6" s="3">
         <v>5</v>
@@ -7918,7 +7921,7 @@
         <v>0</v>
       </c>
       <c r="EI6" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="EJ6" s="3">
         <v>1</v>
@@ -7948,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="ES6" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="ET6" s="3">
         <v>5</v>
@@ -7969,7 +7972,7 @@
         <v>0</v>
       </c>
       <c r="EZ6" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="FA6" s="3">
         <v>1</v>
@@ -7999,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="FJ6" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="FK6" s="3">
         <v>5</v>
@@ -8020,7 +8023,7 @@
         <v>0</v>
       </c>
       <c r="FQ6" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="FR6" s="3">
         <v>1</v>
@@ -8050,7 +8053,7 @@
         <v>0</v>
       </c>
       <c r="GA6" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="GB6" s="3">
         <v>5</v>
@@ -8071,7 +8074,7 @@
         <v>0</v>
       </c>
       <c r="GH6" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="GI6" s="3">
         <v>1</v>
@@ -8101,7 +8104,7 @@
         <v>0</v>
       </c>
       <c r="GR6" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="GS6" s="3">
         <v>5</v>
@@ -8122,7 +8125,7 @@
         <v>0</v>
       </c>
       <c r="GY6" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="GZ6" s="3">
         <v>1</v>
@@ -8152,7 +8155,7 @@
         <v>0</v>
       </c>
       <c r="HI6" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="HJ6" s="3">
         <v>5</v>
@@ -8173,7 +8176,7 @@
         <v>0</v>
       </c>
       <c r="HP6" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="HQ6" s="3">
         <v>1</v>
@@ -8203,7 +8206,7 @@
         <v>0</v>
       </c>
       <c r="HZ6" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="IA6" s="3">
         <v>5</v>
@@ -8224,7 +8227,7 @@
         <v>0</v>
       </c>
       <c r="IG6" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="IH6" s="3">
         <v>1</v>
@@ -8254,7 +8257,7 @@
         <v>0</v>
       </c>
       <c r="IQ6" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="IR6" s="3">
         <v>5</v>
@@ -8275,7 +8278,7 @@
         <v>0</v>
       </c>
       <c r="IX6" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="IY6" s="3">
         <v>1</v>
@@ -8305,7 +8308,7 @@
         <v>0</v>
       </c>
       <c r="JH6" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="JI6" s="3">
         <v>5</v>
@@ -8326,7 +8329,7 @@
         <v>0</v>
       </c>
       <c r="JO6" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="JP6" s="3">
         <v>1</v>
@@ -8356,7 +8359,7 @@
         <v>0</v>
       </c>
       <c r="JY6" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="JZ6" s="3">
         <v>5</v>
@@ -8377,7 +8380,7 @@
         <v>0</v>
       </c>
       <c r="KF6" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="KG6" s="3">
         <v>1</v>
@@ -8407,7 +8410,7 @@
         <v>0</v>
       </c>
       <c r="KP6" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="KQ6" s="3">
         <v>5</v>
@@ -8430,13 +8433,13 @@
     </row>
     <row r="7" s="1" customFormat="1" ht="26.4" spans="1:308">
       <c r="A7" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
@@ -8466,7 +8469,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="N7" s="3">
         <v>6</v>
@@ -8487,7 +8490,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="U7" s="3">
         <v>1</v>
@@ -8517,7 +8520,7 @@
         <v>0</v>
       </c>
       <c r="AD7" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="AE7" s="3">
         <v>6</v>
@@ -8538,7 +8541,7 @@
         <v>0</v>
       </c>
       <c r="AK7" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AL7" s="3">
         <v>1</v>
@@ -8568,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="AU7" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="AV7" s="3">
         <v>6</v>
@@ -8589,7 +8592,7 @@
         <v>0</v>
       </c>
       <c r="BB7" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="BC7" s="3">
         <v>1</v>
@@ -8619,7 +8622,7 @@
         <v>0</v>
       </c>
       <c r="BL7" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="BM7" s="3">
         <v>6</v>
@@ -8640,7 +8643,7 @@
         <v>0</v>
       </c>
       <c r="BS7" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="BT7" s="3">
         <v>1</v>
@@ -8670,7 +8673,7 @@
         <v>0</v>
       </c>
       <c r="CC7" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="CD7" s="3">
         <v>6</v>
@@ -8691,7 +8694,7 @@
         <v>0</v>
       </c>
       <c r="CJ7" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="CK7" s="3">
         <v>1</v>
@@ -8721,7 +8724,7 @@
         <v>0</v>
       </c>
       <c r="CT7" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="CU7" s="3">
         <v>6</v>
@@ -8742,7 +8745,7 @@
         <v>0</v>
       </c>
       <c r="DA7" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="DB7" s="3">
         <v>1</v>
@@ -8772,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="DK7" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="DL7" s="3">
         <v>6</v>
@@ -8793,7 +8796,7 @@
         <v>0</v>
       </c>
       <c r="DR7" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="DS7" s="3">
         <v>1</v>
@@ -8823,7 +8826,7 @@
         <v>0</v>
       </c>
       <c r="EB7" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="EC7" s="3">
         <v>6</v>
@@ -8844,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="EI7" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="EJ7" s="3">
         <v>1</v>
@@ -8874,7 +8877,7 @@
         <v>0</v>
       </c>
       <c r="ES7" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="ET7" s="3">
         <v>6</v>
@@ -8895,7 +8898,7 @@
         <v>0</v>
       </c>
       <c r="EZ7" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="FA7" s="3">
         <v>1</v>
@@ -8925,7 +8928,7 @@
         <v>0</v>
       </c>
       <c r="FJ7" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="FK7" s="3">
         <v>6</v>
@@ -8946,7 +8949,7 @@
         <v>0</v>
       </c>
       <c r="FQ7" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="FR7" s="3">
         <v>1</v>
@@ -8976,7 +8979,7 @@
         <v>0</v>
       </c>
       <c r="GA7" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="GB7" s="3">
         <v>6</v>
@@ -8997,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="GH7" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="GI7" s="3">
         <v>1</v>
@@ -9027,7 +9030,7 @@
         <v>0</v>
       </c>
       <c r="GR7" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="GS7" s="3">
         <v>6</v>
@@ -9048,7 +9051,7 @@
         <v>0</v>
       </c>
       <c r="GY7" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="GZ7" s="3">
         <v>1</v>
@@ -9078,7 +9081,7 @@
         <v>0</v>
       </c>
       <c r="HI7" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="HJ7" s="3">
         <v>6</v>
@@ -9099,7 +9102,7 @@
         <v>0</v>
       </c>
       <c r="HP7" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="HQ7" s="3">
         <v>1</v>
@@ -9129,7 +9132,7 @@
         <v>0</v>
       </c>
       <c r="HZ7" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="IA7" s="3">
         <v>6</v>
@@ -9150,7 +9153,7 @@
         <v>0</v>
       </c>
       <c r="IG7" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="IH7" s="3">
         <v>1</v>
@@ -9180,7 +9183,7 @@
         <v>0</v>
       </c>
       <c r="IQ7" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="IR7" s="3">
         <v>6</v>
@@ -9201,7 +9204,7 @@
         <v>0</v>
       </c>
       <c r="IX7" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="IY7" s="3">
         <v>1</v>
@@ -9231,7 +9234,7 @@
         <v>0</v>
       </c>
       <c r="JH7" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="JI7" s="3">
         <v>6</v>
@@ -9252,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="JO7" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="JP7" s="3">
         <v>1</v>
@@ -9282,7 +9285,7 @@
         <v>0</v>
       </c>
       <c r="JY7" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="JZ7" s="3">
         <v>6</v>
@@ -9303,7 +9306,7 @@
         <v>0</v>
       </c>
       <c r="KF7" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="KG7" s="3">
         <v>1</v>
@@ -9333,7 +9336,7 @@
         <v>0</v>
       </c>
       <c r="KP7" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="KQ7" s="3">
         <v>6</v>
@@ -9356,13 +9359,13 @@
     </row>
     <row r="8" s="1" customFormat="1" ht="26.4" spans="1:308">
       <c r="A8" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -9392,7 +9395,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="N8" s="3">
         <v>7</v>
@@ -9413,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="U8" s="3">
         <v>1</v>
@@ -9443,7 +9446,7 @@
         <v>0</v>
       </c>
       <c r="AD8" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="AE8" s="3">
         <v>7</v>
@@ -9464,7 +9467,7 @@
         <v>0</v>
       </c>
       <c r="AK8" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AL8" s="3">
         <v>1</v>
@@ -9494,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="AU8" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="AV8" s="3">
         <v>7</v>
@@ -9515,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="BB8" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="BC8" s="3">
         <v>1</v>
@@ -9545,7 +9548,7 @@
         <v>0</v>
       </c>
       <c r="BL8" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="BM8" s="3">
         <v>7</v>
@@ -9566,7 +9569,7 @@
         <v>0</v>
       </c>
       <c r="BS8" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="BT8" s="3">
         <v>1</v>
@@ -9596,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="CC8" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="CD8" s="3">
         <v>7</v>
@@ -9617,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="CJ8" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="CK8" s="3">
         <v>1</v>
@@ -9647,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="CT8" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="CU8" s="3">
         <v>7</v>
@@ -9668,7 +9671,7 @@
         <v>0</v>
       </c>
       <c r="DA8" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="DB8" s="3">
         <v>1</v>
@@ -9698,7 +9701,7 @@
         <v>0</v>
       </c>
       <c r="DK8" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="DL8" s="3">
         <v>7</v>
@@ -9719,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="DR8" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="DS8" s="3">
         <v>1</v>
@@ -9749,7 +9752,7 @@
         <v>0</v>
       </c>
       <c r="EB8" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="EC8" s="3">
         <v>7</v>
@@ -9770,7 +9773,7 @@
         <v>0</v>
       </c>
       <c r="EI8" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="EJ8" s="3">
         <v>1</v>
@@ -9800,7 +9803,7 @@
         <v>0</v>
       </c>
       <c r="ES8" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="ET8" s="3">
         <v>7</v>
@@ -9821,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="EZ8" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="FA8" s="3">
         <v>1</v>
@@ -9851,7 +9854,7 @@
         <v>0</v>
       </c>
       <c r="FJ8" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="FK8" s="3">
         <v>7</v>
@@ -9872,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="FQ8" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="FR8" s="3">
         <v>1</v>
@@ -9902,7 +9905,7 @@
         <v>0</v>
       </c>
       <c r="GA8" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="GB8" s="3">
         <v>7</v>
@@ -9923,7 +9926,7 @@
         <v>0</v>
       </c>
       <c r="GH8" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="GI8" s="3">
         <v>1</v>
@@ -9953,7 +9956,7 @@
         <v>0</v>
       </c>
       <c r="GR8" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="GS8" s="3">
         <v>7</v>
@@ -9974,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="GY8" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="GZ8" s="3">
         <v>1</v>
@@ -10004,7 +10007,7 @@
         <v>0</v>
       </c>
       <c r="HI8" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="HJ8" s="3">
         <v>7</v>
@@ -10025,7 +10028,7 @@
         <v>0</v>
       </c>
       <c r="HP8" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="HQ8" s="3">
         <v>1</v>
@@ -10055,7 +10058,7 @@
         <v>0</v>
       </c>
       <c r="HZ8" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="IA8" s="3">
         <v>7</v>
@@ -10076,7 +10079,7 @@
         <v>0</v>
       </c>
       <c r="IG8" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="IH8" s="3">
         <v>1</v>
@@ -10106,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="IQ8" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="IR8" s="3">
         <v>7</v>
@@ -10127,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="IX8" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="IY8" s="3">
         <v>1</v>
@@ -10157,7 +10160,7 @@
         <v>0</v>
       </c>
       <c r="JH8" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="JI8" s="3">
         <v>7</v>
@@ -10178,7 +10181,7 @@
         <v>0</v>
       </c>
       <c r="JO8" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="JP8" s="3">
         <v>1</v>
@@ -10208,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="JY8" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="JZ8" s="3">
         <v>7</v>
@@ -10229,7 +10232,7 @@
         <v>0</v>
       </c>
       <c r="KF8" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="KG8" s="3">
         <v>1</v>
@@ -10259,7 +10262,7 @@
         <v>0</v>
       </c>
       <c r="KP8" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="KQ8" s="3">
         <v>7</v>
